--- a/Planar_XFMR/track_calc.xlsx
+++ b/Planar_XFMR/track_calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nxp1-my.sharepoint.com/personal/xavier_bourlot_nxp_com/Documents/Documents/Kicad/PCB_Kicad/Planar_XFMR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="725" documentId="8_{DD615B7A-EA43-4BF0-8AA8-17BECC04831E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8004D35A-C400-4E83-A1AD-5A958E44CBD2}"/>
+  <xr:revisionPtr revIDLastSave="860" documentId="8_{DD615B7A-EA43-4BF0-8AA8-17BECC04831E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67153B65-259B-437D-BCEE-8D03EDD3B539}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{579F1847-482E-4316-B27D-C170499B655C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{579F1847-482E-4316-B27D-C170499B655C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="119">
   <si>
     <t>Sw</t>
   </si>
@@ -393,6 +393,28 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Variable
+constraints</t>
+  </si>
+  <si>
+    <t>step:</t>
+  </si>
+  <si>
+    <t>Lpri max</t>
+  </si>
+  <si>
+    <t>Lpri targ</t>
+  </si>
+  <si>
+    <t>Lsec targ</t>
+  </si>
+  <si>
+    <t>Npri targ</t>
+  </si>
+  <si>
+    <t>Nsec targ</t>
   </si>
 </sst>
 </file>
@@ -442,7 +464,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -450,12 +472,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -465,35 +582,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1552,16 +1711,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>116205</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>170565</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>96270</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>153118</xdr:rowOff>
+      <xdr:rowOff>132163</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1584,8 +1743,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15992475" y="6229350"/>
-          <a:ext cx="7304790" cy="5144218"/>
+          <a:off x="11870055" y="6316980"/>
+          <a:ext cx="7295265" cy="5144218"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1596,16 +1755,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>163830</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1617841</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95746</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>153183</xdr:rowOff>
+      <xdr:rowOff>40788</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1628,8 +1787,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11782425" y="6305550"/>
-          <a:ext cx="3555226" cy="5611008"/>
+          <a:off x="8279130" y="6282690"/>
+          <a:ext cx="3557131" cy="5616723"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1640,16 +1799,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>155311</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>21961</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>57716</xdr:rowOff>
+      <xdr:rowOff>15806</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1672,8 +1831,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16059150" y="11553825"/>
-          <a:ext cx="7213336" cy="4058216"/>
+          <a:off x="11887200" y="11612880"/>
+          <a:ext cx="7209526" cy="4065836"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2023,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCACB57-2272-4DED-A779-F191F701A3DD}">
-  <dimension ref="A2:S84"/>
+  <dimension ref="A2:U84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2044,12 +2203,12 @@
     <col min="14" max="14" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K2" t="s">
         <v>51</v>
       </c>
       <c r="L2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="M2" t="s">
         <v>52</v>
@@ -2067,26 +2226,26 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>11.4</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -2102,27 +2261,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>5.4</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="25"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="P4" t="s">
@@ -2136,24 +2295,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="53"/>
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>5.65</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="5"/>
       <c r="K5" s="8"/>
       <c r="L5" s="5"/>
@@ -2162,28 +2321,28 @@
       <c r="P5" t="s">
         <v>101</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="9">
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="53"/>
+      <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>1.4</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
       <c r="K6" s="8"/>
       <c r="L6" s="5"/>
@@ -2200,24 +2359,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" t="s">
+    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="53"/>
+      <c r="B7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C7">
-        <v>155</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="13">
+        <v>400</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -2227,39 +2386,40 @@
         <v>103</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="R7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="53"/>
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="13">
         <f>(C3-C4)/2-C6</f>
-        <v>1.6</v>
-      </c>
-      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
+      <c r="L8" s="12">
+        <v>7</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23" t="s">
         <v>66</v>
       </c>
       <c r="P8" t="s">
@@ -2267,60 +2427,71 @@
       </c>
       <c r="Q8">
         <f>Q6/Q7</f>
-        <v>0.28571428571428575</v>
+        <v>7.1428571428571438E-2</v>
       </c>
       <c r="R8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="54"/>
+      <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="14">
         <f>FLOOR((C8-(2*C12)+C13)/(C20+C19),1)</f>
-        <v>6</v>
-      </c>
-      <c r="E9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="5">
-        <v>3</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
+      <c r="L9" s="26">
+        <v>7</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="27" t="s">
         <v>69</v>
       </c>
       <c r="P9" t="s">
         <v>107</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="9">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="S9" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9">
+        <v>500</v>
+      </c>
+      <c r="U9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
-      <c r="K10" t="s">
+      <c r="K10" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="13">
         <v>2</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
+      <c r="M10" s="26"/>
+      <c r="N10" s="27" t="s">
         <v>70</v>
       </c>
       <c r="P10" t="s">
@@ -2328,227 +2499,291 @@
       </c>
       <c r="Q10">
         <f>Q2/Q7*(1-Q9)/Q9</f>
-        <v>2.4444444444444446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="S10" t="s">
+        <v>107</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="26">
         <f>IF(C17&gt;1,IF(C17&gt;2,L8+L9+L10,L8+L9),L8)</f>
-        <v>6</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="27" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="S11" t="s">
+        <v>114</v>
+      </c>
+      <c r="T11" s="59">
+        <f>Q5*T10*T10*Q7*Q7/(2*T9*Q4)*1000</f>
+        <v>118.54079999999999</v>
+      </c>
+      <c r="U11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="12">
         <v>0.3</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="40">
         <f>L11*L11*C7/1000</f>
-        <v>5.58</v>
-      </c>
-      <c r="M12" s="9" t="s">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="M12" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="S12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T12">
+        <v>68</v>
+      </c>
+      <c r="U12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="57"/>
+      <c r="B13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C13">
-        <v>0.09</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="S13" t="s">
+        <v>116</v>
+      </c>
+      <c r="T13" s="59">
+        <f>T12*Q10</f>
+        <v>41.555555555555557</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="57"/>
+      <c r="B14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="13">
         <v>17.5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="S14" t="s">
+        <v>117</v>
+      </c>
+      <c r="T14" s="1">
+        <f>SQRT(T12/(C7/1000))</f>
+        <v>13.038404810405298</v>
+      </c>
+      <c r="U14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="57"/>
+      <c r="B15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="13">
         <v>17.5</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="K15" s="5" t="s">
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="K15" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="21">
         <f>_xlfn.XLOOKUP(L8,C28:C66,F28:F66,FALSE,0,-1)</f>
-        <v>213.16576863167367</v>
-      </c>
-      <c r="M15" s="5" t="s">
+        <v>1051.348637343787</v>
+      </c>
+      <c r="M15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="23" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="S15" t="s">
+        <v>118</v>
+      </c>
+      <c r="T15" s="1">
+        <f>SQRT(T13/C7*1000)</f>
+        <v>10.192589900947103</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="57"/>
+      <c r="B16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C16">
-        <v>17.5</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="13">
+        <v>35</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="K16" s="5" t="s">
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="K16" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="25">
         <f>IF(C17&gt;1,_xlfn.XLOOKUP(L9,C28:C66,G28:G66,FALSE,0,-1),0)</f>
-        <v>213.16576863167367</v>
-      </c>
-      <c r="M16" s="5" t="s">
+        <v>1051.348637343787</v>
+      </c>
+      <c r="M16" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="58"/>
+      <c r="B17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="14">
         <v>2</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="25">
         <f>IF(C17&gt;2,_xlfn.XLOOKUP(L10,C28:C54,H28:H54,FALSE,0,-1),0)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="29">
         <f>L16+L15+L17</f>
-        <v>426.33153726334734</v>
-      </c>
-      <c r="M18" s="9" t="s">
+        <v>2102.697274687574</v>
+      </c>
+      <c r="M18" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:19" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="12">
         <v>0.09</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -2556,124 +2791,124 @@
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="13">
         <v>0.09</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="32">
         <f>_xlfn.XLOOKUP(L8,C28:C80,E28:E80,,0,-1)*1550</f>
-        <v>6.9651711587910441</v>
-      </c>
-      <c r="M20" s="5" t="s">
+        <v>2.9906362237500006</v>
+      </c>
+      <c r="M20" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="N20" s="5"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="13">
         <v>0.3</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="34">
         <f>(L2/((IF(C14=35,0.048,0.024))*(L20)^0.725))^(1/0.44)</f>
-        <v>12.707367729860062</v>
-      </c>
-      <c r="M21" s="9" t="s">
+        <v>4.2138800857774221</v>
+      </c>
+      <c r="M21" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="N21" s="5"/>
+      <c r="N21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="13">
         <v>17.5</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="49"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="36">
         <f>_xlfn.XLOOKUP(L9,C28:C85,E28:E85,,0,-1)*1550*C15/C14</f>
-        <v>6.9651711587910441</v>
-      </c>
-      <c r="M22" s="5" t="s">
+        <v>2.9906362237500006</v>
+      </c>
+      <c r="M22" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" t="s">
+      <c r="N22" s="37"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="54"/>
+      <c r="B23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="14">
         <v>35</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="34">
         <f>IF(C17&gt;1,(L2/((IF(C15=35,0.048,0.024))*(L22)^0.725))^(1/0.44),0)</f>
-        <v>12.707367729860062</v>
-      </c>
-      <c r="M23" s="9" t="s">
+        <v>4.2138800857774221</v>
+      </c>
+      <c r="M23" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="N23" s="5"/>
+      <c r="N23" s="27"/>
       <c r="P23" t="s">
         <v>77</v>
       </c>
@@ -2691,27 +2926,27 @@
       <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="36">
         <f>_xlfn.XLOOKUP(L10,C28:C54,E28:E54,,0,-1)*1550*C16/C14</f>
-        <v>12.339225583239026</v>
-      </c>
-      <c r="M24" s="5" t="s">
+        <v>28.354400655978058</v>
+      </c>
+      <c r="M24" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="N24" s="6"/>
+      <c r="N24" s="37"/>
       <c r="P24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q24" t="s">
         <v>76</v>
@@ -2721,90 +2956,94 @@
       </c>
       <c r="S24">
         <f>P24/P29</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="3"/>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="29">
         <f>IF(C17&gt;2,(L2/((IF(C16=35,0.048,0.024))*(L24)^0.725))^(1/0.44),0)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="M25" s="30" t="s">
         <v>54</v>
       </c>
+      <c r="N25" s="38"/>
       <c r="P25">
-        <v>22.3</v>
+        <v>40</v>
       </c>
       <c r="Q25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="18">
-        <v>0.1</v>
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="9">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P26">
-        <v>1260</v>
+        <v>419</v>
       </c>
       <c r="Q26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B28" s="12">
+      <c r="B28" s="16">
         <f>C20</f>
         <v>0.09</v>
       </c>
-      <c r="C28" s="14">
-        <f>FLOOR(($C$8-2*$C$12+$C$13)/(B28+$C$13)*2,1)/2</f>
-        <v>6</v>
-      </c>
-      <c r="D28" s="14">
+      <c r="C28" s="17">
+        <f>FLOOR(($C$8-2*$C$12+$C$13)/(B28+$C$13),1)</f>
+        <v>7</v>
+      </c>
+      <c r="D28" s="17">
         <f>C28*(2*$C$5+2*$C$8+2*PI()*($C$12+(C28-1)*B28/2+(C28-1)*$C$13/2))</f>
-        <v>115.27433388230813</v>
-      </c>
-      <c r="E28" s="15">
+        <v>115.26459852072369</v>
+      </c>
+      <c r="E28" s="18">
         <f>B28*$C$14/1000</f>
         <v>1.575E-3</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="19" t="str">
         <f>IF(C28=C29,"",$C$24*D28/E28*1000000)</f>
-        <v>1258.8689160480631</v>
-      </c>
-      <c r="G28" s="13">
+        <v/>
+      </c>
+      <c r="G28" s="19" t="str">
         <f>IF(C28=C29,"",F28*$C$14/$C$15)</f>
-        <v>1258.8689160480631</v>
-      </c>
-      <c r="H28" s="13">
+        <v/>
+      </c>
+      <c r="H28" s="19" t="str">
         <f>IF(C28=C29,"",F28*$C$14/$C$16)</f>
-        <v>1258.8689160480631</v>
+        <v/>
       </c>
       <c r="P28" t="s">
         <v>78</v>
@@ -2814,946 +3053,1482 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B29" s="12">
+      <c r="B29" s="16">
         <f>B28*(1+$B$26)</f>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="C29" s="14">
-        <f t="shared" ref="C29:C54" si="0">FLOOR(($C$8-2*$C$12+$C$13)/(B29+$C$13)*2,1)/2</f>
-        <v>5.5</v>
-      </c>
-      <c r="D29" s="14">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="C29" s="17">
+        <f t="shared" ref="C29:C54" si="0">FLOOR(($C$8-2*$C$12+$C$13)/(B29+$C$13),1)</f>
+        <v>7</v>
+      </c>
+      <c r="D29" s="17">
         <f t="shared" ref="D29:D37" si="1">C29*(2*$C$5+2*$C$8+2*PI()*($C$12+(C29-1)*B29/2+(C29-1)*$C$13/2))</f>
-        <v>104.81284079217598</v>
-      </c>
-      <c r="E29" s="15">
+        <v>116.09586393686354</v>
+      </c>
+      <c r="E29" s="18">
         <f t="shared" ref="E29:E37" si="2">B29*$C$14/1000</f>
-        <v>1.7325000000000001E-3</v>
-      </c>
-      <c r="F29" s="13">
+        <v>1.6852499999999999E-3</v>
+      </c>
+      <c r="F29" s="19" t="str">
         <f t="shared" ref="F29:F46" si="3">IF(C29=C30,"",$C$24*D29/E29*1000000)</f>
-        <v>1040.5661538963502</v>
-      </c>
-      <c r="G29" s="13">
+        <v/>
+      </c>
+      <c r="G29" s="19" t="str">
         <f t="shared" ref="G29:G54" si="4">IF(C29=C30,"",F29*$C$14/$C$15)</f>
-        <v>1040.5661538963502</v>
-      </c>
-      <c r="H29" s="13">
+        <v/>
+      </c>
+      <c r="H29" s="19" t="str">
         <f t="shared" ref="H29:H54" si="5">IF(C29=C30,"",F29*$C$14/$C$16)</f>
-        <v>1040.5661538963502</v>
-      </c>
-      <c r="P29">
-        <v>6</v>
+        <v/>
+      </c>
+      <c r="P29" s="4">
+        <v>14</v>
       </c>
       <c r="Q29" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="12">
-        <f t="shared" ref="B30:B54" si="6">B29*(1+$B$26)</f>
-        <v>0.10890000000000001</v>
-      </c>
-      <c r="C30" s="14">
+      <c r="B30" s="16">
+        <f t="shared" ref="B30:B76" si="6">B29*(1+$B$26)</f>
+        <v>0.10304100000000001</v>
+      </c>
+      <c r="C30" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D30" s="17">
+        <f t="shared" si="1"/>
+        <v>116.9853179321332</v>
+      </c>
+      <c r="E30" s="18">
+        <f t="shared" si="2"/>
+        <v>1.8032175000000001E-3</v>
+      </c>
+      <c r="F30" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G30" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H30" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P30" s="4">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B31" s="16">
+        <f t="shared" si="6"/>
+        <v>0.11025387000000002</v>
+      </c>
+      <c r="C31" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D31" s="17">
+        <f t="shared" si="1"/>
+        <v>117.93703370707172</v>
+      </c>
+      <c r="E31" s="18">
+        <f t="shared" si="2"/>
+        <v>1.9294427250000003E-3</v>
+      </c>
+      <c r="F31" s="19">
+        <f t="shared" si="3"/>
+        <v>1051.348637343787</v>
+      </c>
+      <c r="G31" s="19">
+        <f t="shared" si="4"/>
+        <v>1051.348637343787</v>
+      </c>
+      <c r="H31" s="19">
+        <f t="shared" si="5"/>
+        <v>525.6743186718935</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1934</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B32" s="16">
+        <f t="shared" si="6"/>
+        <v>0.11797164090000002</v>
+      </c>
+      <c r="C32" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D32" s="17">
+        <f t="shared" si="1"/>
+        <v>97.85307672519383</v>
+      </c>
+      <c r="E32" s="18">
+        <f t="shared" si="2"/>
+        <v>2.0645037157500002E-3</v>
+      </c>
+      <c r="F32" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G32" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H32" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="16">
+        <f t="shared" si="6"/>
+        <v>0.12622965576300002</v>
+      </c>
+      <c r="C33" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D33" s="17">
+        <f t="shared" si="1"/>
+        <v>98.631376289998911</v>
+      </c>
+      <c r="E33" s="18">
+        <f t="shared" si="2"/>
+        <v>2.2090189758525005E-3</v>
+      </c>
+      <c r="F33" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G33" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H33" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="16">
+        <f t="shared" si="6"/>
+        <v>0.13506573166641003</v>
+      </c>
+      <c r="C34" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D34" s="17">
+        <f t="shared" si="1"/>
+        <v>99.464156824340364</v>
+      </c>
+      <c r="E34" s="18">
+        <f t="shared" si="2"/>
+        <v>2.3636503041621756E-3</v>
+      </c>
+      <c r="F34" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G34" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H34" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="16">
+        <f t="shared" si="6"/>
+        <v>0.14452033288305874</v>
+      </c>
+      <c r="C35" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D35" s="17">
+        <f t="shared" si="1"/>
+        <v>100.35523199608571</v>
+      </c>
+      <c r="E35" s="18">
+        <f t="shared" si="2"/>
+        <v>2.5291058254535283E-3</v>
+      </c>
+      <c r="F35" s="19">
+        <f t="shared" si="3"/>
+        <v>682.49812758354699</v>
+      </c>
+      <c r="G35" s="19">
+        <f t="shared" si="4"/>
+        <v>682.49812758354699</v>
+      </c>
+      <c r="H35" s="19">
+        <f t="shared" si="5"/>
+        <v>341.24906379177349</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="16">
+        <f t="shared" si="6"/>
+        <v>0.15463675618487285</v>
+      </c>
+      <c r="C36" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D36" s="17">
         <f t="shared" si="1"/>
-        <v>94.422033536749566</v>
-      </c>
-      <c r="E30" s="15">
+        <v>80.424077212056005</v>
+      </c>
+      <c r="E36" s="18">
         <f t="shared" si="2"/>
-        <v>1.9057500000000003E-3</v>
-      </c>
-      <c r="F30" s="13" t="str">
+        <v>2.7061432332352751E-3</v>
+      </c>
+      <c r="F36" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G30" s="13" t="str">
+      <c r="G36" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H30" s="13" t="str">
+      <c r="H36" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P30">
-        <v>5.6</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B31" s="12">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="16">
         <f t="shared" si="6"/>
-        <v>0.11979000000000002</v>
-      </c>
-      <c r="C31" s="14">
+        <v>0.16546132911781397</v>
+      </c>
+      <c r="C37" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D37" s="17">
         <f t="shared" si="1"/>
-        <v>95.10627241670143</v>
-      </c>
-      <c r="E31" s="15">
+        <v>81.10420518814351</v>
+      </c>
+      <c r="E37" s="18">
         <f t="shared" si="2"/>
-        <v>2.096325E-3</v>
-      </c>
-      <c r="F31" s="13">
+        <v>2.8955732595617443E-3</v>
+      </c>
+      <c r="F37" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>780.33123946299565</v>
-      </c>
-      <c r="G31" s="13">
+        <v/>
+      </c>
+      <c r="G37" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>780.33123946299565</v>
-      </c>
-      <c r="H31" s="13">
+        <v/>
+      </c>
+      <c r="H37" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>780.33123946299565</v>
-      </c>
-      <c r="P31">
-        <v>427</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="12">
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="16">
         <f t="shared" si="6"/>
-        <v>0.13176900000000002</v>
-      </c>
-      <c r="C32" s="14">
+        <v>0.17704362215606095</v>
+      </c>
+      <c r="C38" s="17">
         <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="D32" s="14">
-        <f t="shared" si="1"/>
-        <v>84.70544897849723</v>
-      </c>
-      <c r="E32" s="15">
-        <f t="shared" si="2"/>
-        <v>2.3059575000000001E-3</v>
-      </c>
-      <c r="F32" s="13" t="str">
+        <v>5</v>
+      </c>
+      <c r="D38" s="17">
+        <f t="shared" ref="D38:D46" si="7">C38*(2*$C$5+2*$C$8+2*PI()*($C$12+(C38-1)*B38/2+(C38-1)*$C$13/2))</f>
+        <v>81.831942122557138</v>
+      </c>
+      <c r="E38" s="18">
+        <f t="shared" ref="E38:E46" si="8">B38*$C$14/1000</f>
+        <v>3.0982633877310664E-3</v>
+      </c>
+      <c r="F38" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G32" s="13" t="str">
+      <c r="G38" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H32" s="13" t="str">
+      <c r="H38" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="12">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="16">
         <f t="shared" si="6"/>
-        <v>0.14494590000000004</v>
-      </c>
-      <c r="C33" s="14">
+        <v>0.18943667570698522</v>
+      </c>
+      <c r="C39" s="17">
         <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="D33" s="14">
-        <f t="shared" si="1"/>
-        <v>85.357443101231354</v>
-      </c>
-      <c r="E33" s="15">
-        <f t="shared" si="2"/>
-        <v>2.5365532500000007E-3</v>
-      </c>
-      <c r="F33" s="13">
+        <v>5</v>
+      </c>
+      <c r="D39" s="17">
+        <f t="shared" si="7"/>
+        <v>82.6106206423797</v>
+      </c>
+      <c r="E39" s="18">
+        <f t="shared" si="8"/>
+        <v>3.3151418248722414E-3</v>
+      </c>
+      <c r="F39" s="19">
         <f t="shared" si="3"/>
-        <v>578.79645197323521</v>
-      </c>
-      <c r="G33" s="13">
+        <v>428.6099208149833</v>
+      </c>
+      <c r="G39" s="19">
         <f t="shared" si="4"/>
-        <v>578.79645197323521</v>
-      </c>
-      <c r="H33" s="13">
+        <v>428.6099208149833</v>
+      </c>
+      <c r="H39" s="19">
         <f t="shared" si="5"/>
-        <v>578.79645197323521</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="12">
+        <v>214.30496040749165</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="16">
         <f t="shared" si="6"/>
-        <v>0.15944049000000007</v>
-      </c>
-      <c r="C34" s="14">
+        <v>0.20269724300647421</v>
+      </c>
+      <c r="C40" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D34" s="14">
-        <f t="shared" si="1"/>
-        <v>74.94350729931756</v>
-      </c>
-      <c r="E34" s="15">
-        <f t="shared" si="2"/>
-        <v>2.7902085750000014E-3</v>
-      </c>
-      <c r="F34" s="13" t="str">
+      <c r="D40" s="17">
+        <f t="shared" si="7"/>
+        <v>62.951239587307789</v>
+      </c>
+      <c r="E40" s="18">
+        <f t="shared" si="8"/>
+        <v>3.5472017526132988E-3</v>
+      </c>
+      <c r="F40" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G34" s="13" t="str">
+      <c r="G40" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H34" s="13" t="str">
+      <c r="H40" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="12">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="16">
         <f t="shared" si="6"/>
-        <v>0.17538453900000009</v>
-      </c>
-      <c r="C35" s="14">
+        <v>0.21688605001692743</v>
+      </c>
+      <c r="C41" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D35" s="14">
-        <f t="shared" si="1"/>
-        <v>75.544583785800071</v>
-      </c>
-      <c r="E35" s="15">
-        <f t="shared" si="2"/>
-        <v>3.0692294325000017E-3</v>
-      </c>
-      <c r="F35" s="13">
+      <c r="D41" s="17">
+        <f t="shared" si="7"/>
+        <v>63.486145009714704</v>
+      </c>
+      <c r="E41" s="18">
+        <f t="shared" si="8"/>
+        <v>3.7955058752962303E-3</v>
+      </c>
+      <c r="F41" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>423.35278925608975</v>
-      </c>
-      <c r="G35" s="13">
+        <v/>
+      </c>
+      <c r="G41" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>423.35278925608975</v>
-      </c>
-      <c r="H35" s="13">
+        <v/>
+      </c>
+      <c r="H41" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>423.35278925608975</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="12">
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="16">
         <f t="shared" si="6"/>
-        <v>0.19292299290000012</v>
-      </c>
-      <c r="C36" s="14">
+        <v>0.23206807351811237</v>
+      </c>
+      <c r="C42" s="17">
         <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="D36" s="14">
-        <f t="shared" si="1"/>
-        <v>65.124596537768497</v>
-      </c>
-      <c r="E36" s="15">
-        <f t="shared" si="2"/>
-        <v>3.3761523757500022E-3</v>
-      </c>
-      <c r="F36" s="13" t="str">
+        <v>4</v>
+      </c>
+      <c r="D42" s="17">
+        <f t="shared" si="7"/>
+        <v>64.058493811690113</v>
+      </c>
+      <c r="E42" s="18">
+        <f t="shared" si="8"/>
+        <v>4.0611912865669668E-3</v>
+      </c>
+      <c r="F42" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G36" s="13" t="str">
+      <c r="G42" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H36" s="13" t="str">
+      <c r="H42" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="12">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="16">
         <f t="shared" si="6"/>
-        <v>0.21221529219000015</v>
-      </c>
-      <c r="C37" s="14">
+        <v>0.24831283866438025</v>
+      </c>
+      <c r="C43" s="17">
         <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="D37" s="14">
-        <f t="shared" si="1"/>
-        <v>65.654921312821301</v>
-      </c>
-      <c r="E37" s="15">
-        <f t="shared" si="2"/>
-        <v>3.7137676133250025E-3</v>
-      </c>
-      <c r="F37" s="13">
+        <v>4</v>
+      </c>
+      <c r="D43" s="17">
+        <f t="shared" si="7"/>
+        <v>64.670907029803786</v>
+      </c>
+      <c r="E43" s="18">
+        <f t="shared" si="8"/>
+        <v>4.3454746766266542E-3</v>
+      </c>
+      <c r="F43" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>304.07520452510909</v>
-      </c>
-      <c r="G37" s="13">
+        <v/>
+      </c>
+      <c r="G43" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>304.07520452510909</v>
-      </c>
-      <c r="H37" s="13">
+        <v/>
+      </c>
+      <c r="H43" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>304.07520452510909</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="12">
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="16">
         <f t="shared" si="6"/>
-        <v>0.23343682140900018</v>
-      </c>
-      <c r="C38" s="14">
+        <v>0.26569473737088689</v>
+      </c>
+      <c r="C44" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D44" s="17">
+        <f t="shared" si="7"/>
+        <v>65.326189173185426</v>
+      </c>
+      <c r="E44" s="18">
+        <f t="shared" si="8"/>
+        <v>4.6496579039905211E-3</v>
+      </c>
+      <c r="F44" s="19">
+        <f t="shared" si="3"/>
+        <v>241.65443501003853</v>
+      </c>
+      <c r="G44" s="19">
+        <f t="shared" si="4"/>
+        <v>241.65443501003855</v>
+      </c>
+      <c r="H44" s="19">
+        <f t="shared" si="5"/>
+        <v>120.82721750501928</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="16">
+        <f t="shared" si="6"/>
+        <v>0.28429336898684898</v>
+      </c>
+      <c r="C45" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D38" s="14">
-        <f t="shared" ref="D38:D46" si="7">C38*(2*$C$5+2*$C$8+2*PI()*($C$12+(C38-1)*B38/2+(C38-1)*$C$13/2))</f>
-        <v>55.251507228695317</v>
-      </c>
-      <c r="E38" s="15">
-        <f t="shared" ref="E38:E46" si="8">B38*$C$14/1000</f>
-        <v>4.0851443746575027E-3</v>
-      </c>
-      <c r="F38" s="13" t="str">
+      <c r="D45" s="17">
+        <f t="shared" si="7"/>
+        <v>45.89862612545577</v>
+      </c>
+      <c r="E45" s="18">
+        <f t="shared" si="8"/>
+        <v>4.9751339572698576E-3</v>
+      </c>
+      <c r="F45" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G38" s="13" t="str">
+      <c r="G45" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H38" s="13" t="str">
+      <c r="H45" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="12">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="16">
         <f t="shared" si="6"/>
-        <v>0.25678050354990023</v>
-      </c>
-      <c r="C39" s="14">
+        <v>0.30419390481592845</v>
+      </c>
+      <c r="C46" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D46" s="17">
         <f t="shared" si="7"/>
-        <v>55.691525270624837</v>
-      </c>
-      <c r="E39" s="15">
+        <v>46.273742388434584</v>
+      </c>
+      <c r="E46" s="18">
         <f t="shared" si="8"/>
-        <v>4.4936588121232543E-3</v>
-      </c>
-      <c r="F39" s="13">
+        <v>5.323393334278748E-3</v>
+      </c>
+      <c r="F46" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>213.16576863167367</v>
-      </c>
-      <c r="G39" s="13">
+        <v/>
+      </c>
+      <c r="G46" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>213.16576863167367</v>
-      </c>
-      <c r="H39" s="13">
+        <v/>
+      </c>
+      <c r="H46" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>213.16576863167367</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="12">
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="16">
         <f t="shared" si="6"/>
-        <v>0.28245855390489027</v>
-      </c>
-      <c r="C40" s="14">
+        <v>0.32548747815304346</v>
+      </c>
+      <c r="C47" s="17">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="D40" s="14">
-        <f t="shared" si="7"/>
-        <v>45.350312943063244</v>
-      </c>
-      <c r="E40" s="15">
-        <f t="shared" si="8"/>
-        <v>4.9430246933355798E-3</v>
-      </c>
-      <c r="F40" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G40" s="13" t="str">
+        <v>3</v>
+      </c>
+      <c r="D47" s="17">
+        <f t="shared" ref="D47:D54" si="9">C47*(2*$C$5+2*$C$8+2*PI()*($C$12+(C47-1)*B47/2+(C47-1)*$C$13/2))</f>
+        <v>46.675116789821921</v>
+      </c>
+      <c r="E47" s="18">
+        <f t="shared" ref="E47:E54" si="10">B47*$C$14/1000</f>
+        <v>5.6960308676782603E-3</v>
+      </c>
+      <c r="F47" s="19" t="str">
+        <f t="shared" ref="F47:F54" si="11">IF(C47=C48,"",$C$24*D47/E47*1000000)</f>
+        <v/>
+      </c>
+      <c r="G47" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H40" s="13" t="str">
+      <c r="H47" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="12">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="16">
         <f t="shared" si="6"/>
-        <v>0.31070440929537935</v>
-      </c>
-      <c r="C41" s="14">
+        <v>0.34827160162375653</v>
+      </c>
+      <c r="C48" s="17">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="D41" s="14">
-        <f t="shared" si="7"/>
-        <v>45.683076587272438</v>
-      </c>
-      <c r="E41" s="15">
-        <f t="shared" si="8"/>
-        <v>5.4373271626691382E-3</v>
-      </c>
-      <c r="F41" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G41" s="13" t="str">
+        <v>3</v>
+      </c>
+      <c r="D48" s="17">
+        <f t="shared" si="9"/>
+        <v>47.104587399306368</v>
+      </c>
+      <c r="E48" s="18">
+        <f t="shared" si="10"/>
+        <v>6.094753028415739E-3</v>
+      </c>
+      <c r="F48" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G48" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H41" s="13" t="str">
+      <c r="H48" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="12">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="16">
         <f t="shared" si="6"/>
-        <v>0.34177485022491733</v>
-      </c>
-      <c r="C42" s="14">
+        <v>0.37265061373741953</v>
+      </c>
+      <c r="C49" s="17">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="D42" s="14">
-        <f t="shared" si="7"/>
-        <v>46.049116595902568</v>
-      </c>
-      <c r="E42" s="15">
-        <f t="shared" si="8"/>
-        <v>5.9810598789360528E-3</v>
-      </c>
-      <c r="F42" s="13">
-        <f t="shared" si="3"/>
-        <v>132.42549338770669</v>
-      </c>
-      <c r="G42" s="13">
+        <v>3</v>
+      </c>
+      <c r="D49" s="17">
+        <f t="shared" si="9"/>
+        <v>47.564120951454726</v>
+      </c>
+      <c r="E49" s="18">
+        <f t="shared" si="10"/>
+        <v>6.5213857404048418E-3</v>
+      </c>
+      <c r="F49" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G49" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>132.42549338770669</v>
-      </c>
-      <c r="H42" s="13">
+        <v/>
+      </c>
+      <c r="H49" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>132.42549338770669</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="12">
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="16">
         <f t="shared" si="6"/>
-        <v>0.37595233524740906</v>
-      </c>
-      <c r="C43" s="14">
+        <v>0.39873615669903895</v>
+      </c>
+      <c r="C50" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D50" s="17">
+        <f t="shared" si="9"/>
+        <v>48.055821852253473</v>
+      </c>
+      <c r="E50" s="18">
+        <f t="shared" si="10"/>
+        <v>6.9778827422331815E-3</v>
+      </c>
+      <c r="F50" s="19">
+        <f t="shared" si="11"/>
+        <v>118.45428855604841</v>
+      </c>
+      <c r="G50" s="19">
+        <f t="shared" si="4"/>
+        <v>118.45428855604841</v>
+      </c>
+      <c r="H50" s="19">
+        <f t="shared" si="5"/>
+        <v>59.227144278024205</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="16">
+        <f t="shared" si="6"/>
+        <v>0.42664768766797168</v>
+      </c>
+      <c r="C51" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D43" s="14">
-        <f t="shared" si="7"/>
-        <v>35.697576050980288</v>
-      </c>
-      <c r="E43" s="15">
-        <f t="shared" si="8"/>
-        <v>6.5791658668296581E-3</v>
-      </c>
-      <c r="F43" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G43" s="13" t="str">
+      <c r="D51" s="17">
+        <f t="shared" si="9"/>
+        <v>29.078936197523255</v>
+      </c>
+      <c r="E51" s="18">
+        <f t="shared" si="10"/>
+        <v>7.4663345341895041E-3</v>
+      </c>
+      <c r="F51" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G51" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H43" s="13" t="str">
+      <c r="H51" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="12">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="16">
         <f t="shared" si="6"/>
-        <v>0.41354756877214999</v>
-      </c>
-      <c r="C44" s="14">
+        <v>0.45651302580472974</v>
+      </c>
+      <c r="C52" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D44" s="14">
-        <f t="shared" si="7"/>
-        <v>35.933793869882926</v>
-      </c>
-      <c r="E44" s="15">
-        <f t="shared" si="8"/>
-        <v>7.2370824535126247E-3</v>
-      </c>
-      <c r="F44" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G44" s="13" t="str">
+      <c r="D52" s="17">
+        <f t="shared" si="9"/>
+        <v>29.266585651298083</v>
+      </c>
+      <c r="E52" s="18">
+        <f t="shared" si="10"/>
+        <v>7.9889779515827705E-3</v>
+      </c>
+      <c r="F52" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G52" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H44" s="13" t="str">
+      <c r="H52" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="12">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="16">
         <f t="shared" si="6"/>
-        <v>0.454902325649365</v>
-      </c>
-      <c r="C45" s="14">
+        <v>0.48846893761106086</v>
+      </c>
+      <c r="C53" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D45" s="14">
-        <f t="shared" si="7"/>
-        <v>36.193633470675827</v>
-      </c>
-      <c r="E45" s="15">
-        <f t="shared" si="8"/>
-        <v>7.9607906988638875E-3</v>
-      </c>
-      <c r="F45" s="13">
-        <f t="shared" si="3"/>
-        <v>78.199580826119146</v>
-      </c>
-      <c r="G45" s="13">
+      <c r="D53" s="17">
+        <f t="shared" si="9"/>
+        <v>29.46737056683715</v>
+      </c>
+      <c r="E53" s="18">
+        <f t="shared" si="10"/>
+        <v>8.5482064081935649E-3</v>
+      </c>
+      <c r="F53" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G53" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>78.199580826119146</v>
-      </c>
-      <c r="H45" s="13">
+        <v/>
+      </c>
+      <c r="H53" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>78.199580826119146</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="12">
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="16">
         <f t="shared" si="6"/>
-        <v>0.50039255821430151</v>
-      </c>
-      <c r="C46" s="14">
+        <v>0.52266176324383518</v>
+      </c>
+      <c r="C54" s="17">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="D46" s="14">
-        <f t="shared" si="7"/>
-        <v>25.968513080945911</v>
-      </c>
-      <c r="E46" s="15">
-        <f t="shared" si="8"/>
-        <v>8.7568697687502757E-3</v>
-      </c>
-      <c r="F46" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G46" s="13" t="str">
+        <v>2</v>
+      </c>
+      <c r="D54" s="17">
+        <f t="shared" si="9"/>
+        <v>29.682210426463953</v>
+      </c>
+      <c r="E54" s="18">
+        <f t="shared" si="10"/>
+        <v>9.1465808567671152E-3</v>
+      </c>
+      <c r="F54" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G54" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H46" s="13" t="str">
+      <c r="H54" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="12">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="16">
         <f t="shared" si="6"/>
-        <v>0.55043181403573171</v>
-      </c>
-      <c r="C47" s="14">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="D47" s="14">
-        <f t="shared" ref="D47:D54" si="9">C47*(2*$C$5+2*$C$8+2*PI()*($C$12+(C47-1)*B47/2+(C47-1)*$C$13/2))</f>
-        <v>26.086415299805694</v>
-      </c>
-      <c r="E47" s="15">
-        <f t="shared" ref="E47:E54" si="10">B47*$C$14/1000</f>
-        <v>9.632556745625305E-3</v>
-      </c>
-      <c r="F47" s="13" t="str">
-        <f t="shared" ref="F47:F54" si="11">IF(C47=C48,"",$C$24*D47/E47*1000000)</f>
-        <v/>
-      </c>
-      <c r="G47" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H47" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="12">
+        <v>0.55924808667090364</v>
+      </c>
+      <c r="C55" s="17">
+        <f t="shared" ref="C55:C66" si="12">FLOOR(($C$8-2*$C$12+$C$13)/(B55+$C$13),1)</f>
+        <v>2</v>
+      </c>
+      <c r="D55" s="17">
+        <f t="shared" ref="D55:D66" si="13">C55*(2*$C$5+2*$C$8+2*PI()*($C$12+(C55-1)*B55/2+(C55-1)*$C$13/2))</f>
+        <v>29.912089076264628</v>
+      </c>
+      <c r="E55" s="18">
+        <f t="shared" ref="E55:E66" si="14">B55*$C$14/1000</f>
+        <v>9.7868415167408143E-3</v>
+      </c>
+      <c r="F55" s="19" t="str">
+        <f t="shared" ref="F55:F66" si="15">IF(C55=C56,"",$C$24*D55/E55*1000000)</f>
+        <v/>
+      </c>
+      <c r="G55" s="19" t="str">
+        <f t="shared" ref="G55:G66" si="16">IF(C55=C56,"",F55*$C$14/$C$15)</f>
+        <v/>
+      </c>
+      <c r="H55" s="19" t="str">
+        <f t="shared" ref="H55:H66" si="17">IF(C55=C56,"",F55*$C$14/$C$16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="16">
         <f t="shared" si="6"/>
-        <v>0.60547499543930494</v>
-      </c>
-      <c r="C48" s="14">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="D48" s="14">
-        <f t="shared" si="9"/>
-        <v>26.21610774055145</v>
-      </c>
-      <c r="E48" s="15">
-        <f t="shared" si="10"/>
-        <v>1.0595812420187837E-2</v>
-      </c>
-      <c r="F48" s="13">
-        <f t="shared" si="11"/>
-        <v>42.556156645276971</v>
-      </c>
-      <c r="G48" s="13">
-        <f t="shared" si="4"/>
-        <v>42.556156645276971</v>
-      </c>
-      <c r="H48" s="13">
-        <f t="shared" si="5"/>
-        <v>42.556156645276971</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="12">
+        <v>0.59839545273786698</v>
+      </c>
+      <c r="C56" s="17">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D56" s="17">
+        <f t="shared" si="13"/>
+        <v>30.158059231551352</v>
+      </c>
+      <c r="E56" s="18">
+        <f t="shared" si="14"/>
+        <v>1.0471920422912673E-2</v>
+      </c>
+      <c r="F56" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G56" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H56" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="16">
         <f t="shared" si="6"/>
-        <v>0.66602249498323551</v>
-      </c>
-      <c r="C49" s="14">
-        <f t="shared" si="0"/>
+        <v>0.64028313442951768</v>
+      </c>
+      <c r="C57" s="17">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D57" s="17">
+        <f t="shared" si="13"/>
+        <v>30.421247297708149</v>
+      </c>
+      <c r="E57" s="18">
+        <f t="shared" si="14"/>
+        <v>1.1204954852516559E-2</v>
+      </c>
+      <c r="F57" s="19">
+        <f t="shared" si="15"/>
+        <v>46.697685123029544</v>
+      </c>
+      <c r="G57" s="19">
+        <f t="shared" si="16"/>
+        <v>46.697685123029544</v>
+      </c>
+      <c r="H57" s="19">
+        <f t="shared" si="17"/>
+        <v>23.348842561514772</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="16">
+        <f t="shared" si="6"/>
+        <v>0.68510295383958397</v>
+      </c>
+      <c r="C58" s="17">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="D49" s="14">
-        <f t="shared" si="9"/>
-        <v>16.384955592153876</v>
-      </c>
-      <c r="E49" s="15">
-        <f t="shared" si="10"/>
-        <v>1.1655393662206623E-2</v>
-      </c>
-      <c r="F49" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G49" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H49" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="12">
+      <c r="D58" s="17">
+        <f t="shared" si="13"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E58" s="18">
+        <f t="shared" si="14"/>
+        <v>1.1989301692192721E-2</v>
+      </c>
+      <c r="F58" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G58" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H58" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="16">
         <f t="shared" si="6"/>
-        <v>0.73262474448155912</v>
-      </c>
-      <c r="C50" s="14">
-        <f t="shared" si="0"/>
+        <v>0.73306016060835488</v>
+      </c>
+      <c r="C59" s="17">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="D50" s="14">
-        <f t="shared" si="9"/>
-        <v>16.384955592153876</v>
-      </c>
-      <c r="E50" s="15">
-        <f t="shared" si="10"/>
-        <v>1.2820933028427284E-2</v>
-      </c>
-      <c r="F50" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G50" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H50" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="12">
+      <c r="D59" s="17">
+        <f t="shared" si="13"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E59" s="18">
+        <f t="shared" si="14"/>
+        <v>1.282855281064621E-2</v>
+      </c>
+      <c r="F59" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G59" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H59" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="16">
         <f t="shared" si="6"/>
-        <v>0.80588721892971504</v>
-      </c>
-      <c r="C51" s="14">
-        <f t="shared" si="0"/>
+        <v>0.78437437185093972</v>
+      </c>
+      <c r="C60" s="17">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="D51" s="14">
-        <f t="shared" si="9"/>
-        <v>16.384955592153876</v>
-      </c>
-      <c r="E51" s="15">
-        <f t="shared" si="10"/>
-        <v>1.4103026331270014E-2</v>
-      </c>
-      <c r="F51" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G51" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H51" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="12">
+      <c r="D60" s="17">
+        <f t="shared" si="13"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E60" s="18">
+        <f t="shared" si="14"/>
+        <v>1.3726551507391445E-2</v>
+      </c>
+      <c r="F60" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G60" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H60" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="16">
         <f t="shared" si="6"/>
-        <v>0.88647594082268666</v>
-      </c>
-      <c r="C52" s="14">
-        <f t="shared" si="0"/>
+        <v>0.83928057788050558</v>
+      </c>
+      <c r="C61" s="17">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="D52" s="14">
-        <f t="shared" si="9"/>
-        <v>16.384955592153876</v>
-      </c>
-      <c r="E52" s="15">
-        <f t="shared" si="10"/>
-        <v>1.5513328964397017E-2</v>
-      </c>
-      <c r="F52" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G52" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H52" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="12">
+      <c r="D61" s="17">
+        <f t="shared" si="13"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E61" s="18">
+        <f t="shared" si="14"/>
+        <v>1.4687410112908849E-2</v>
+      </c>
+      <c r="F61" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G61" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H61" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="16">
         <f t="shared" si="6"/>
-        <v>0.9751235349049554</v>
-      </c>
-      <c r="C53" s="14">
-        <f t="shared" si="0"/>
+        <v>0.89803021833214103</v>
+      </c>
+      <c r="C62" s="17">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="D53" s="14">
-        <f t="shared" si="9"/>
-        <v>16.384955592153876</v>
-      </c>
-      <c r="E53" s="15">
-        <f t="shared" si="10"/>
-        <v>1.706466186083672E-2</v>
-      </c>
-      <c r="F53" s="13">
-        <f t="shared" si="11"/>
-        <v>16.514903048376507</v>
-      </c>
-      <c r="G53" s="13">
-        <f t="shared" si="4"/>
-        <v>16.514903048376507</v>
-      </c>
-      <c r="H53" s="13">
-        <f t="shared" si="5"/>
-        <v>16.514903048376507</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="12">
+      <c r="D62" s="17">
+        <f t="shared" si="13"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E62" s="18">
+        <f t="shared" si="14"/>
+        <v>1.5715528820812466E-2</v>
+      </c>
+      <c r="F62" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G62" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H62" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="16">
         <f t="shared" si="6"/>
-        <v>1.072635888395451</v>
-      </c>
-      <c r="C54" s="14">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="D54" s="14">
-        <f t="shared" si="9"/>
-        <v>7.27934570463119</v>
-      </c>
-      <c r="E54" s="15">
-        <f t="shared" si="10"/>
-        <v>1.8771128046920393E-2</v>
-      </c>
-      <c r="F54" s="13">
-        <f t="shared" si="11"/>
-        <v>6.6700704297948494</v>
-      </c>
-      <c r="G54" s="13">
-        <f t="shared" si="4"/>
-        <v>6.6700704297948494</v>
-      </c>
-      <c r="H54" s="13">
-        <f t="shared" si="5"/>
-        <v>6.6700704297948494</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C55" s="1"/>
-      <c r="D55" s="2"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C56" s="1"/>
-      <c r="D56" s="2"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="2"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="2"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="2"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="2"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="2"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="2"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="2"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="2"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="2"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="2"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="2"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="2"/>
-      <c r="F63" s="1"/>
+        <v>0.96089233361539095</v>
+      </c>
+      <c r="C63" s="17">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="17">
+        <f t="shared" si="13"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E63" s="18">
+        <f t="shared" si="14"/>
+        <v>1.6815615838269342E-2</v>
+      </c>
+      <c r="F63" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G63" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H63" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="2"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="2"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="2"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="2"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="2"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="2"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="2"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="2"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="2"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="2"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="2"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="2"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="2"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="2"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="2"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="2"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="2"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="2"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="2"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="2"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="2"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="2"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="2"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="2"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="2"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="2"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="16">
+        <f t="shared" si="6"/>
+        <v>1.0281547969684683</v>
+      </c>
+      <c r="C64" s="17">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D64" s="17">
+        <f t="shared" si="13"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E64" s="18">
+        <f t="shared" si="14"/>
+        <v>1.7992708946948197E-2</v>
+      </c>
+      <c r="F64" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G64" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H64" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="16">
+        <f t="shared" si="6"/>
+        <v>1.1001256327562612</v>
+      </c>
+      <c r="C65" s="17">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D65" s="17">
+        <f t="shared" si="13"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E65" s="18">
+        <f t="shared" si="14"/>
+        <v>1.9252198573234569E-2</v>
+      </c>
+      <c r="F65" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G65" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H65" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="16">
+        <f t="shared" si="6"/>
+        <v>1.1771344270491995</v>
+      </c>
+      <c r="C66" s="17">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="17">
+        <f t="shared" si="13"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E66" s="18">
+        <f t="shared" si="14"/>
+        <v>2.0599852473360991E-2</v>
+      </c>
+      <c r="F66" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G66" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H66" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="16">
+        <f t="shared" si="6"/>
+        <v>1.2595338369426434</v>
+      </c>
+      <c r="C67" s="17">
+        <f t="shared" ref="C67:C76" si="18">FLOOR(($C$8-2*$C$12+$C$13)/(B67+$C$13),1)</f>
+        <v>1</v>
+      </c>
+      <c r="D67" s="17">
+        <f t="shared" ref="D67:D76" si="19">C67*(2*$C$5+2*$C$8+2*PI()*($C$12+(C67-1)*B67/2+(C67-1)*$C$13/2))</f>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E67" s="18">
+        <f t="shared" ref="E67:E76" si="20">B67*$C$14/1000</f>
+        <v>2.2041842146496262E-2</v>
+      </c>
+      <c r="F67" s="19" t="str">
+        <f t="shared" ref="F67:F76" si="21">IF(C67=C68,"",$C$24*D67/E67*1000000)</f>
+        <v/>
+      </c>
+      <c r="G67" s="19" t="str">
+        <f t="shared" ref="G67:G76" si="22">IF(C67=C68,"",F67*$C$14/$C$15)</f>
+        <v/>
+      </c>
+      <c r="H67" s="19" t="str">
+        <f t="shared" ref="H67:H76" si="23">IF(C67=C68,"",F67*$C$14/$C$16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="16">
+        <f t="shared" si="6"/>
+        <v>1.3477012055286286</v>
+      </c>
+      <c r="C68" s="17">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="17">
+        <f t="shared" si="19"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E68" s="18">
+        <f t="shared" si="20"/>
+        <v>2.3584771096751E-2</v>
+      </c>
+      <c r="F68" s="19">
+        <f t="shared" si="21"/>
+        <v>9.3967940276332307</v>
+      </c>
+      <c r="G68" s="19">
+        <f t="shared" si="22"/>
+        <v>9.3967940276332307</v>
+      </c>
+      <c r="H68" s="19">
+        <f t="shared" si="23"/>
+        <v>4.6983970138166153</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="16">
+        <f t="shared" si="6"/>
+        <v>1.4420402899156326</v>
+      </c>
+      <c r="C69" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D69" s="17">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="18">
+        <f t="shared" si="20"/>
+        <v>2.523570507352357E-2</v>
+      </c>
+      <c r="F69" s="19" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G69" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H69" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="16">
+        <f t="shared" si="6"/>
+        <v>1.5429831102097269</v>
+      </c>
+      <c r="C70" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D70" s="17">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="18">
+        <f t="shared" si="20"/>
+        <v>2.7002204428670223E-2</v>
+      </c>
+      <c r="F70" s="19" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G70" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H70" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="16">
+        <f t="shared" si="6"/>
+        <v>1.6509919279244079</v>
+      </c>
+      <c r="C71" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D71" s="17">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="18">
+        <f t="shared" si="20"/>
+        <v>2.889235873867714E-2</v>
+      </c>
+      <c r="F71" s="19" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G71" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H71" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="16">
+        <f t="shared" si="6"/>
+        <v>1.7665613628791166</v>
+      </c>
+      <c r="C72" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D72" s="17">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="18">
+        <f t="shared" si="20"/>
+        <v>3.0914823850384542E-2</v>
+      </c>
+      <c r="F72" s="19" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G72" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H72" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="16">
+        <f t="shared" si="6"/>
+        <v>1.8902206582806549</v>
+      </c>
+      <c r="C73" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D73" s="17">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="18">
+        <f t="shared" si="20"/>
+        <v>3.3078861519911462E-2</v>
+      </c>
+      <c r="F73" s="19" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G73" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H73" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="16">
+        <f t="shared" si="6"/>
+        <v>2.022536104360301</v>
+      </c>
+      <c r="C74" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D74" s="17">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="18">
+        <f t="shared" si="20"/>
+        <v>3.5394381826305263E-2</v>
+      </c>
+      <c r="F74" s="19" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G74" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H74" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="16">
+        <f t="shared" si="6"/>
+        <v>2.1641136316655221</v>
+      </c>
+      <c r="C75" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D75" s="17">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="18">
+        <f t="shared" si="20"/>
+        <v>3.7871988554146641E-2</v>
+      </c>
+      <c r="F75" s="19" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G75" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H75" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="16">
+        <f t="shared" si="6"/>
+        <v>2.3156015858821086</v>
+      </c>
+      <c r="C76" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D76" s="17">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="18">
+        <f t="shared" si="20"/>
+        <v>4.0523027752936897E-2</v>
+      </c>
+      <c r="F76" s="19" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G76" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H76" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="2"/>
@@ -3784,15 +4559,16 @@
       <c r="F84" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A3:A7"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A12:A17"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="E9:I9"/>
@@ -3879,8 +4655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D45F05-62BB-4D9F-A672-3298C8683E81}">
   <dimension ref="C2:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3933,11 +4709,11 @@
         <v>159</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" ref="N4:N12" si="0">L4*L4*$O$2</f>
+        <f t="shared" ref="N4:N11" si="0">L4*L4*$O$2</f>
         <v>155</v>
       </c>
-      <c r="O4" s="24">
-        <f t="shared" ref="O4:O12" si="1">(M4-N4)/M4</f>
+      <c r="O4" s="10">
+        <f t="shared" ref="O4:O11" si="1">(M4-N4)/M4</f>
         <v>2.5157232704402517E-2</v>
       </c>
     </row>
@@ -3968,7 +4744,7 @@
         <f t="shared" si="0"/>
         <v>620</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="10">
         <f t="shared" si="1"/>
         <v>2.0537124802527645E-2</v>
       </c>
@@ -3990,7 +4766,7 @@
         <f t="shared" si="0"/>
         <v>1395</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="10">
         <f t="shared" si="1"/>
         <v>-1.824817518248175E-2</v>
       </c>
@@ -4015,7 +4791,7 @@
         <f t="shared" si="0"/>
         <v>2480</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="10">
         <f t="shared" si="1"/>
         <v>1.4308426073131956E-2</v>
       </c>
@@ -4024,7 +4800,7 @@
       <c r="C8" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="9">
         <v>0.4</v>
       </c>
       <c r="L8">
@@ -4037,7 +4813,7 @@
         <f t="shared" si="0"/>
         <v>3875</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="10">
         <f t="shared" si="1"/>
         <v>-0.10714285714285714</v>
       </c>
@@ -4063,7 +4839,7 @@
         <f t="shared" si="0"/>
         <v>5580</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="10">
         <f t="shared" si="1"/>
         <v>-2.9520295202952029E-2</v>
       </c>
@@ -4089,7 +4865,7 @@
         <f t="shared" si="0"/>
         <v>7595</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="10">
         <f t="shared" si="1"/>
         <v>-3.192934782608696E-2</v>
       </c>
@@ -4098,7 +4874,7 @@
       <c r="C11" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="9">
         <v>0.7</v>
       </c>
       <c r="L11">
@@ -4111,7 +4887,7 @@
         <f t="shared" si="0"/>
         <v>9920</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="10">
         <f t="shared" si="1"/>
         <v>-2.9045643153526972E-2</v>
       </c>
@@ -4127,7 +4903,7 @@
       <c r="E12" t="s">
         <v>88</v>
       </c>
-      <c r="O12" s="24"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
@@ -4157,7 +4933,7 @@
       <c r="M16">
         <v>2.5</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="10">
         <f>L16/M16</f>
         <v>0.38800000000000001</v>
       </c>

--- a/Planar_XFMR/track_calc.xlsx
+++ b/Planar_XFMR/track_calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nxp1-my.sharepoint.com/personal/xavier_bourlot_nxp_com/Documents/Documents/Kicad/PCB_Kicad/Planar_XFMR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="860" documentId="8_{DD615B7A-EA43-4BF0-8AA8-17BECC04831E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67153B65-259B-437D-BCEE-8D03EDD3B539}"/>
+  <xr:revisionPtr revIDLastSave="1137" documentId="8_{DD615B7A-EA43-4BF0-8AA8-17BECC04831E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98B8429B-0E34-424C-972C-9E4F34956C79}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{579F1847-482E-4316-B27D-C170499B655C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="161">
   <si>
     <t>Sw</t>
   </si>
@@ -415,6 +415,132 @@
   </si>
   <si>
     <t>Nsec targ</t>
+  </si>
+  <si>
+    <t>Ae</t>
+  </si>
+  <si>
+    <t>mm²</t>
+  </si>
+  <si>
+    <t>Ipk</t>
+  </si>
+  <si>
+    <t>Idc</t>
+  </si>
+  <si>
+    <t>Bmax</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>mT</t>
+  </si>
+  <si>
+    <t>Ve</t>
+  </si>
+  <si>
+    <t>mm^3</t>
+  </si>
+  <si>
+    <t>PV@300kHz</t>
+  </si>
+  <si>
+    <t>kW/m^3</t>
+  </si>
+  <si>
+    <t>PV@500kHz</t>
+  </si>
+  <si>
+    <t>P 300k</t>
+  </si>
+  <si>
+    <t>P 500k</t>
+  </si>
+  <si>
+    <t>mW</t>
+  </si>
+  <si>
+    <t>Core losses</t>
+  </si>
+  <si>
+    <t>Keep below 390mT</t>
+  </si>
+  <si>
+    <t>kOhm</t>
+  </si>
+  <si>
+    <t>Conductor width W</t>
+  </si>
+  <si>
+    <t>Conductor height</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Er eff</t>
+  </si>
+  <si>
+    <t>pF/cm</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Cap+edge</t>
+  </si>
+  <si>
+    <t>L (cm)</t>
+  </si>
+  <si>
+    <t>height (mm)</t>
+  </si>
+  <si>
+    <t>W (mm)</t>
+  </si>
+  <si>
+    <t>W(mm)</t>
+  </si>
+  <si>
+    <t>t(µm)</t>
+  </si>
+  <si>
+    <t>g(mm)</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Cap in pf/m</t>
+  </si>
+  <si>
+    <t>With DC bias</t>
+  </si>
+  <si>
+    <t>L 100k</t>
+  </si>
+  <si>
+    <t>6 turns</t>
+  </si>
+  <si>
+    <t>7 turns</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>10 turns</t>
   </si>
 </sst>
 </file>
@@ -572,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -624,17 +750,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -644,15 +762,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1848,16 +1976,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2182,10 +2310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCACB57-2272-4DED-A779-F191F701A3DD}">
-  <dimension ref="A2:U84"/>
+  <dimension ref="A2:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2201,9 +2329,11 @@
     <col min="12" max="12" width="11.33203125" customWidth="1"/>
     <col min="13" max="13" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5546875" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K2" t="s">
         <v>51</v>
       </c>
@@ -2225,9 +2355,18 @@
       <c r="R2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="W2" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="X2" s="43">
+        <v>8.81</v>
+      </c>
+      <c r="Y2" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -2260,9 +2399,18 @@
       <c r="R3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="W3" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" s="43">
+        <v>100</v>
+      </c>
+      <c r="Y3" s="43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
       <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
@@ -2272,13 +2420,13 @@
       <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="11"/>
@@ -2294,9 +2442,18 @@
       <c r="R4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="W4" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="X4" s="43">
+        <v>16</v>
+      </c>
+      <c r="Y4" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="45"/>
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
@@ -2306,13 +2463,13 @@
       <c r="D5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="43"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="5"/>
       <c r="K5" s="8"/>
       <c r="L5" s="5"/>
@@ -2324,9 +2481,18 @@
       <c r="Q5" s="9">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
+      <c r="W5" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="X5" s="43">
+        <v>100</v>
+      </c>
+      <c r="Y5" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="45"/>
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
@@ -2336,13 +2502,13 @@
       <c r="D6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="5"/>
       <c r="K6" s="8"/>
       <c r="L6" s="5"/>
@@ -2358,9 +2524,19 @@
       <c r="R6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="53"/>
+      <c r="W6" t="s">
+        <v>121</v>
+      </c>
+      <c r="X6" s="42">
+        <f>2*X5/T10</f>
+        <v>476.1904761904762</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="45"/>
       <c r="B7" s="13" t="s">
         <v>34</v>
       </c>
@@ -2370,13 +2546,13 @@
       <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -2391,9 +2567,22 @@
       <c r="R7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
+      <c r="W7" t="s">
+        <v>123</v>
+      </c>
+      <c r="X7" s="42">
+        <f>X3*X6/(X4*X2)</f>
+        <v>337.81957732014484</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="45"/>
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
@@ -2404,13 +2593,13 @@
       <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="5"/>
       <c r="K8" s="20" t="s">
         <v>43</v>
@@ -2433,8 +2622,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54"/>
+    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="46"/>
       <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
@@ -2443,13 +2632,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="5"/>
       <c r="K9" s="24" t="s">
         <v>44</v>
@@ -2476,13 +2665,22 @@
       <c r="U9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="W9" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="X9" s="43">
+        <v>120</v>
+      </c>
+      <c r="Y9" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="5"/>
       <c r="K10" s="39" t="s">
         <v>60</v>
@@ -2507,13 +2705,22 @@
       <c r="T10" s="9">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="W10" t="s">
+        <v>128</v>
+      </c>
+      <c r="X10">
+        <v>390</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="5"/>
       <c r="K11" s="24" t="s">
         <v>46</v>
@@ -2529,16 +2736,25 @@
       <c r="S11" t="s">
         <v>114</v>
       </c>
-      <c r="T11" s="59">
+      <c r="T11" s="41">
         <f>Q5*T10*T10*Q7*Q7/(2*T9*Q4)*1000</f>
         <v>118.54079999999999</v>
       </c>
       <c r="U11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52" t="s">
+      <c r="W11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11">
+        <v>215</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -2580,9 +2796,22 @@
       <c r="U12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="57"/>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12">
+        <f>X9*X10/1000</f>
+        <v>46.8</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="55"/>
       <c r="B13" s="13" t="s">
         <v>21</v>
       </c>
@@ -2592,11 +2821,11 @@
       <c r="D13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -2604,16 +2833,26 @@
       <c r="S13" t="s">
         <v>116</v>
       </c>
-      <c r="T13" s="59">
+      <c r="T13" s="41">
         <f>T12*Q10</f>
         <v>41.555555555555557</v>
       </c>
       <c r="U13" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="57"/>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13">
+        <f>X11*X9/1000</f>
+        <v>25.8</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="55"/>
       <c r="B14" s="13" t="s">
         <v>37</v>
       </c>
@@ -2623,11 +2862,11 @@
       <c r="D14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -2644,8 +2883,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="57"/>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="55"/>
       <c r="B15" s="13" t="s">
         <v>38</v>
       </c>
@@ -2655,11 +2894,11 @@
       <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
       <c r="K15" s="20" t="s">
         <v>42</v>
       </c>
@@ -2684,8 +2923,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="55"/>
       <c r="B16" s="13" t="s">
         <v>58</v>
       </c>
@@ -2695,11 +2934,11 @@
       <c r="D16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
       <c r="K16" s="24" t="s">
         <v>45</v>
       </c>
@@ -2715,7 +2954,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="58"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="14" t="s">
         <v>39</v>
       </c>
@@ -2723,11 +2962,11 @@
         <v>2</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
       <c r="J17" s="5"/>
       <c r="K17" s="24" t="s">
         <v>61</v>
@@ -2765,7 +3004,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="44" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -2791,7 +3030,7 @@
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="13" t="s">
         <v>12</v>
       </c>
@@ -2801,13 +3040,13 @@
       <c r="D20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
       <c r="J20" s="5"/>
       <c r="K20" s="20" t="s">
         <v>55</v>
@@ -2822,7 +3061,7 @@
       <c r="N20" s="23"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="13" t="s">
         <v>14</v>
       </c>
@@ -2832,13 +3071,13 @@
       <c r="D21" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="50"/>
       <c r="J21" s="5"/>
       <c r="K21" s="33" t="s">
         <v>56</v>
@@ -2853,7 +3092,7 @@
       <c r="N21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="13" t="s">
         <v>23</v>
       </c>
@@ -2863,11 +3102,11 @@
       <c r="D22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="49"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="59"/>
       <c r="J22" s="6"/>
       <c r="K22" s="24" t="s">
         <v>62</v>
@@ -2882,7 +3121,7 @@
       <c r="N22" s="37"/>
     </row>
     <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="54"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="14" t="s">
         <v>25</v>
       </c>
@@ -2892,11 +3131,11 @@
       <c r="D23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="5"/>
       <c r="K23" s="33" t="s">
         <v>57</v>
@@ -2926,13 +3165,13 @@
       <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
       <c r="J24" s="6"/>
       <c r="K24" s="24" t="s">
         <v>63</v>
@@ -4560,15 +4799,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A12:A17"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="E9:I9"/>
@@ -4584,6 +4814,15 @@
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E16:I16"/>
     <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A12:A17"/>
   </mergeCells>
   <conditionalFormatting sqref="L15:L17">
     <cfRule type="dataBar" priority="2">
@@ -4653,15 +4892,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D45F05-62BB-4D9F-A672-3298C8683E81}">
-  <dimension ref="C2:P16"/>
+  <dimension ref="C2:AO32"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="28" max="28" width="7.77734375" customWidth="1"/>
+    <col min="29" max="29" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:41" x14ac:dyDescent="0.3">
       <c r="N2" t="s">
         <v>34</v>
       </c>
@@ -4671,8 +4914,23 @@
       <c r="P2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="R2" t="s">
+        <v>152</v>
+      </c>
+      <c r="U2" t="s">
+        <v>154</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y2" s="4"/>
+      <c r="AA2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+    </row>
+    <row r="3" spans="3:41" x14ac:dyDescent="0.3">
       <c r="L3" t="s">
         <v>97</v>
       </c>
@@ -4685,8 +4943,48 @@
       <c r="O3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="R3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" t="s">
+        <v>153</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC3" s="4"/>
+      <c r="AJ3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>80</v>
       </c>
@@ -4716,8 +5014,48 @@
         <f t="shared" ref="O4:O11" si="1">(M4-N4)/M4</f>
         <v>2.5157232704402517E-2</v>
       </c>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="R4" s="4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>150</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>4.87</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>6.31</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>14.22</v>
+      </c>
+      <c r="AC4" s="4"/>
+      <c r="AJ4">
+        <v>0.127</v>
+      </c>
+      <c r="AK4">
+        <v>0.254</v>
+      </c>
+      <c r="AL4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM4">
+        <v>2.9</v>
+      </c>
+      <c r="AN4">
+        <v>0.67079999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>79</v>
       </c>
@@ -4748,8 +5086,59 @@
         <f t="shared" si="1"/>
         <v>2.0537124802527645E-2</v>
       </c>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="R5" s="4">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>582</v>
+      </c>
+      <c r="U5">
+        <v>0.1</v>
+      </c>
+      <c r="V5">
+        <v>4.87</v>
+      </c>
+      <c r="W5" s="10">
+        <f t="shared" ref="W5:W7" si="2">(V5-$V$4)/$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0.1</v>
+      </c>
+      <c r="Y5">
+        <v>6.4</v>
+      </c>
+      <c r="Z5" s="10">
+        <f>(Y5-$Y$4)/$Y$4</f>
+        <v>1.4263074484944651E-2</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>14.29</v>
+      </c>
+      <c r="AC5" s="10">
+        <f>(AB5-$AB$4)/$AB$4</f>
+        <v>4.9226441631503868E-3</v>
+      </c>
+      <c r="AJ5">
+        <v>0.254</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>0.254</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM5">
+        <v>3.1</v>
+      </c>
+      <c r="AN5">
+        <v>0.89559999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="3:41" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>95</v>
       </c>
@@ -4770,8 +5159,59 @@
         <f t="shared" si="1"/>
         <v>-1.824817518248175E-2</v>
       </c>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="R6" s="4">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>1000</v>
+      </c>
+      <c r="U6">
+        <v>0.3</v>
+      </c>
+      <c r="V6">
+        <v>4.88</v>
+      </c>
+      <c r="W6" s="10">
+        <f t="shared" si="2"/>
+        <v>2.0533880903490323E-3</v>
+      </c>
+      <c r="X6">
+        <v>0.2</v>
+      </c>
+      <c r="Y6">
+        <v>6.44</v>
+      </c>
+      <c r="Z6" s="10">
+        <f t="shared" ref="Z6:Z16" si="3">(Y6-$Y$4)/$Y$4</f>
+        <v>2.0602218700475562E-2</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>14.33</v>
+      </c>
+      <c r="AC6" s="10">
+        <f>(AB6-$AB$4)/$AB$4</f>
+        <v>7.7355836849507332E-3</v>
+      </c>
+      <c r="AJ6">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>0.254</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM6">
+        <v>3.3412000000000002</v>
+      </c>
+      <c r="AN6">
+        <v>1.3143</v>
+      </c>
+    </row>
+    <row r="7" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>86</v>
       </c>
@@ -4795,8 +5235,59 @@
         <f t="shared" si="1"/>
         <v>1.4308426073131956E-2</v>
       </c>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="R7" s="4">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>1818</v>
+      </c>
+      <c r="U7">
+        <v>0.5</v>
+      </c>
+      <c r="V7">
+        <v>4.88</v>
+      </c>
+      <c r="W7" s="10">
+        <f t="shared" si="2"/>
+        <v>2.0533880903490323E-3</v>
+      </c>
+      <c r="X7">
+        <v>0.4</v>
+      </c>
+      <c r="Y7">
+        <v>6.48</v>
+      </c>
+      <c r="Z7" s="10">
+        <f t="shared" si="3"/>
+        <v>2.6941362916006472E-2</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="AC7" s="10">
+        <f>(AB7-$AB$4)/$AB$4</f>
+        <v>5.625879043600567E-3</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>0.254</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM7">
+        <v>3.6095000000000002</v>
+      </c>
+      <c r="AN7">
+        <v>2.0973999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>84</v>
       </c>
@@ -4817,8 +5308,59 @@
         <f t="shared" si="1"/>
         <v>-0.10714285714285714</v>
       </c>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="R8" s="4">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>2900</v>
+      </c>
+      <c r="U8">
+        <v>0.7</v>
+      </c>
+      <c r="V8" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="W8" s="10">
+        <f t="shared" ref="W8:W13" si="4">(V8-$V$4)/$V$4</f>
+        <v>2.0533880903490323E-3</v>
+      </c>
+      <c r="X8">
+        <v>0.6</v>
+      </c>
+      <c r="Y8">
+        <v>6.5</v>
+      </c>
+      <c r="Z8" s="10">
+        <f t="shared" si="3"/>
+        <v>3.0110935023771854E-2</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="AC8" s="10">
+        <f>(AB8-$AB$4)/$AB$4</f>
+        <v>-1.4064697609002354E-3</v>
+      </c>
+      <c r="AJ8">
+        <v>2</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>0.254</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM8">
+        <v>3.8887999999999998</v>
+      </c>
+      <c r="AN8">
+        <v>3.6715</v>
+      </c>
+    </row>
+    <row r="9" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>85</v>
       </c>
@@ -4843,8 +5385,59 @@
         <f t="shared" si="1"/>
         <v>-2.9520295202952029E-2</v>
       </c>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="R9" s="4">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>4630</v>
+      </c>
+      <c r="U9">
+        <v>1.44</v>
+      </c>
+      <c r="V9">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="W9" s="10">
+        <f t="shared" si="4"/>
+        <v>-4.1067761806982466E-3</v>
+      </c>
+      <c r="X9">
+        <v>0.9</v>
+      </c>
+      <c r="Y9">
+        <v>6.51</v>
+      </c>
+      <c r="Z9" s="10">
+        <f t="shared" si="3"/>
+        <v>3.1695721077654546E-2</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>14</v>
+      </c>
+      <c r="AC9" s="10">
+        <f>(AB9-$AB$4)/$AB$4</f>
+        <v>-1.5471167369901591E-2</v>
+      </c>
+      <c r="AJ9">
+        <v>20</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>0.254</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM9">
+        <v>4.4530000000000003</v>
+      </c>
+      <c r="AN9">
+        <v>32.2164</v>
+      </c>
+    </row>
+    <row r="10" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>87</v>
       </c>
@@ -4869,8 +5462,44 @@
         <f t="shared" si="1"/>
         <v>-3.192934782608696E-2</v>
       </c>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="R10" s="4">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>6.31</v>
+      </c>
+      <c r="U10">
+        <v>1.9</v>
+      </c>
+      <c r="V10">
+        <v>4.8</v>
+      </c>
+      <c r="W10" s="10">
+        <f t="shared" si="4"/>
+        <v>-1.437371663244359E-2</v>
+      </c>
+      <c r="X10">
+        <v>1.2</v>
+      </c>
+      <c r="Y10">
+        <v>6.5</v>
+      </c>
+      <c r="Z10" s="10">
+        <f t="shared" si="3"/>
+        <v>3.0110935023771854E-2</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="AC10" s="10">
+        <f>(AB10-$AB$4)/$AB$4</f>
+        <v>-4.3600562587904429E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>89</v>
       </c>
@@ -4891,8 +5520,41 @@
         <f t="shared" si="1"/>
         <v>-2.9045643153526972E-2</v>
       </c>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="R11" s="4">
+        <v>8</v>
+      </c>
+      <c r="U11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V11">
+        <v>4.78</v>
+      </c>
+      <c r="W11" s="10">
+        <f t="shared" si="4"/>
+        <v>-1.8480492813141656E-2</v>
+      </c>
+      <c r="X11">
+        <v>1.5</v>
+      </c>
+      <c r="Y11">
+        <v>6.5</v>
+      </c>
+      <c r="Z11" s="10">
+        <f t="shared" si="3"/>
+        <v>3.0110935023771854E-2</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="AC11" s="10">
+        <f>(AB11-$AB$4)/$AB$4</f>
+        <v>-9.2827004219409301E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>90</v>
       </c>
@@ -4904,8 +5566,38 @@
         <v>88</v>
       </c>
       <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="U12">
+        <v>2.6</v>
+      </c>
+      <c r="V12">
+        <v>4.67</v>
+      </c>
+      <c r="W12" s="10">
+        <f t="shared" si="4"/>
+        <v>-4.1067761806981552E-2</v>
+      </c>
+      <c r="X12">
+        <v>1.8</v>
+      </c>
+      <c r="Y12">
+        <v>6.43</v>
+      </c>
+      <c r="Z12" s="10">
+        <f t="shared" si="3"/>
+        <v>1.9017432646592728E-2</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="AC12" s="10">
+        <f>(AB12-$AB$4)/$AB$4</f>
+        <v>-0.20534458509142053</v>
+      </c>
+    </row>
+    <row r="13" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>91</v>
       </c>
@@ -4916,8 +5608,106 @@
       <c r="E13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="U13">
+        <v>2.8</v>
+      </c>
+      <c r="V13">
+        <v>4.62</v>
+      </c>
+      <c r="W13" s="10">
+        <f t="shared" si="4"/>
+        <v>-5.1334702258726897E-2</v>
+      </c>
+      <c r="X13">
+        <v>2.1</v>
+      </c>
+      <c r="Y13">
+        <v>6.36</v>
+      </c>
+      <c r="Z13" s="10">
+        <f t="shared" si="3"/>
+        <v>7.9239302694137422E-3</v>
+      </c>
+      <c r="AA13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB13">
+        <v>9.9</v>
+      </c>
+      <c r="AC13" s="10">
+        <f>(AB13-$AB$4)/$AB$4</f>
+        <v>-0.30379746835443039</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>4.59</v>
+      </c>
+      <c r="W14" s="10">
+        <f>(V14-$V$4)/$V$4</f>
+        <v>-5.7494866529774175E-2</v>
+      </c>
+      <c r="X14">
+        <v>2.5</v>
+      </c>
+      <c r="Y14">
+        <v>6.19</v>
+      </c>
+      <c r="Z14" s="10">
+        <f t="shared" si="3"/>
+        <v>-1.9017432646592586E-2</v>
+      </c>
+      <c r="AA14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="AC14" s="10">
+        <f>(AB14-$AB$4)/$AB$4</f>
+        <v>-0.4655414908579466</v>
+      </c>
+      <c r="AJ14">
+        <v>0.15</v>
+      </c>
+      <c r="AK14">
+        <v>0.21</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
+        <v>4.2</v>
+      </c>
+      <c r="AN14">
+        <v>2.6549999999999998</v>
+      </c>
+      <c r="AO14">
+        <v>3.1076999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>92</v>
       </c>
@@ -4925,8 +5715,29 @@
         <f>2*D7*H4*H5/(H6*H6*D11*D4*1000)</f>
         <v>8.9285714285714288E-11</v>
       </c>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="X15">
+        <v>2.9</v>
+      </c>
+      <c r="Y15">
+        <v>5.77</v>
+      </c>
+      <c r="Z15" s="10">
+        <f t="shared" si="3"/>
+        <v>-8.5578446909667205E-2</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>5</v>
+      </c>
+      <c r="AC15" s="10">
+        <f>(AB15-$AB$4)/$AB$4</f>
+        <v>-0.64838255977496484</v>
+      </c>
+      <c r="AO15" s="4"/>
+    </row>
+    <row r="16" spans="3:41" x14ac:dyDescent="0.3">
       <c r="L16">
         <v>0.97</v>
       </c>
@@ -4936,6 +5747,121 @@
       <c r="N16" s="10">
         <f>L16/M16</f>
         <v>0.38800000000000001</v>
+      </c>
+      <c r="X16">
+        <v>2.8</v>
+      </c>
+      <c r="Y16">
+        <v>5.95</v>
+      </c>
+      <c r="Z16" s="10">
+        <f t="shared" si="3"/>
+        <v>-5.7052297939778042E-2</v>
+      </c>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="10"/>
+    </row>
+    <row r="17" spans="12:40" x14ac:dyDescent="0.3">
+      <c r="AJ17" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="12:40" x14ac:dyDescent="0.3">
+      <c r="AJ18">
+        <v>10</v>
+      </c>
+      <c r="AK18">
+        <v>2</v>
+      </c>
+      <c r="AL18">
+        <v>0.5</v>
+      </c>
+      <c r="AM18">
+        <v>3.5</v>
+      </c>
+      <c r="AN18" s="42">
+        <f>0.12*AK18/AJ18+0.09*(1+AM18)*LOG10(1+2*AJ18/AL18+AJ18*AJ18/AL18)</f>
+        <v>0.9887169022428216</v>
+      </c>
+    </row>
+    <row r="27" spans="12:40" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>48</v>
+      </c>
+      <c r="M27" t="s">
+        <v>83</v>
+      </c>
+      <c r="O27">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="28" spans="12:40" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>24</v>
+      </c>
+      <c r="M28" t="s">
+        <v>83</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="12:40" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>10</v>
+      </c>
+      <c r="M29" t="s">
+        <v>124</v>
+      </c>
+      <c r="O29">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="12:40" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <f>L27-L28</f>
+        <v>24</v>
+      </c>
+      <c r="M30" t="s">
+        <v>83</v>
+      </c>
+      <c r="O30">
+        <f>O27*O28/(O29+O28)</f>
+        <v>4.7263681592039797</v>
+      </c>
+      <c r="P30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="12:40" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <f>L30/L29</f>
+        <v>2.4</v>
+      </c>
+      <c r="M31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="12:40" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <f>L30*L29</f>
+        <v>240</v>
+      </c>
+      <c r="M32" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Planar_XFMR/track_calc.xlsx
+++ b/Planar_XFMR/track_calc.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nxp1-my.sharepoint.com/personal/xavier_bourlot_nxp_com/Documents/Documents/Kicad/PCB_Kicad/Planar_XFMR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1137" documentId="8_{DD615B7A-EA43-4BF0-8AA8-17BECC04831E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98B8429B-0E34-424C-972C-9E4F34956C79}"/>
+  <xr:revisionPtr revIDLastSave="1391" documentId="8_{DD615B7A-EA43-4BF0-8AA8-17BECC04831E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C974DB39-86F8-4EDE-9B72-FC8D80203591}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{579F1847-482E-4316-B27D-C170499B655C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{579F1847-482E-4316-B27D-C170499B655C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ER11-12V" sheetId="1" r:id="rId1"/>
+    <sheet name="ER9.5-48V" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="189">
   <si>
     <t>Sw</t>
   </si>
@@ -528,19 +529,103 @@
     <t>7 turns</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>10 turns</t>
+  </si>
+  <si>
+    <t>100kHz standalone</t>
+  </si>
+  <si>
+    <t>Max energy transfer:</t>
+  </si>
+  <si>
+    <t>Lpri</t>
+  </si>
+  <si>
+    <t>I sat (+margin)</t>
+  </si>
+  <si>
+    <t>E pulse</t>
+  </si>
+  <si>
+    <t>Pin calc</t>
+  </si>
+  <si>
+    <t>237/+6°C</t>
+  </si>
+  <si>
+    <t>1388/+0°C</t>
+  </si>
+  <si>
+    <t>+4°C</t>
+  </si>
+  <si>
+    <t>Order options:</t>
+  </si>
+  <si>
+    <t>Material: FR4 TG155</t>
+  </si>
+  <si>
+    <t>HASL</t>
+  </si>
+  <si>
+    <t>Inner &amp; outer copper weight 1oz</t>
+  </si>
+  <si>
+    <t>Plugged vias</t>
+  </si>
+  <si>
+    <t>Min size/hole diameter 0.3mm/0.45mm</t>
+  </si>
+  <si>
+    <t>No extra charge for hole&lt;0.3mm if pad&gt;=0.45mm</t>
+  </si>
+  <si>
+    <t>Confirm production file: yes</t>
+  </si>
+  <si>
+    <t>Remove order number: specify a location</t>
+  </si>
+  <si>
+    <t>$3</t>
+  </si>
+  <si>
+    <t>$0</t>
+  </si>
+  <si>
+    <t>$15</t>
+  </si>
+  <si>
+    <t>$0.5</t>
+  </si>
+  <si>
+    <t>Board outline tolerance: +/-0.1mm (precision)</t>
+  </si>
+  <si>
+    <t>$8</t>
+  </si>
+  <si>
+    <t>4Layer 50x50mm</t>
+  </si>
+  <si>
+    <t>$2</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>4Layer 100x100mm</t>
+  </si>
+  <si>
+    <t>$7</t>
+  </si>
+  <si>
+    <t>proto</t>
+  </si>
+  <si>
+    <t>$55</t>
+  </si>
+  <si>
+    <t>HB 4L 15x15</t>
   </si>
 </sst>
 </file>
@@ -698,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -753,6 +838,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -813,6 +909,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Al curve, 0 bias</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -828,7 +979,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100kHz</c:v>
+                  <c:v>100kHz standalone</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -874,8 +1025,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.34969116360454944"/>
-                  <c:y val="4.3758019830854478E-2"/>
+                  <c:x val="-0.21126157943492357"/>
+                  <c:y val="-9.0993154506333662E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1092,6 +1243,162 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With DC bias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$4:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$S$4:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4630</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6310</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2058-4D50-AD62-3597512ED9E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1124,6 +1431,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of turns</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1186,6 +1548,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Inductance (nH)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1235,6 +1652,790 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6 turns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$X$4:$X$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$V$4:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-57C6-465B-BD6D-94C008200DED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Z$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7 turns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$AC$4:$AC$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.599999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$AA$4:$AA$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-57C6-465B-BD6D-94C008200DED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AE$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 turns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$AH$4:$AH$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$AF$4:$AF$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>14.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-57C6-465B-BD6D-94C008200DED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2099290912"/>
+        <c:axId val="7288336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2099290912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current (A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7288336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="7288336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Inductance (µH)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2099290912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1319,7 +2520,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1969,23 +3726,221 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>573413</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781929</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>98745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0AD947-3216-F7C7-34B8-2EBAE5BA1DEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="573413" y="13969365"/>
+          <a:ext cx="7110331" cy="2520000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>587760</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>132163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2871B01E-B0B6-423F-8142-1A651D119E8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11753850" y="6303645"/>
+          <a:ext cx="7299075" cy="5148028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>764401</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>40788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2209B9-8B82-4DFE-A083-253DD9CD08D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8168640" y="6282690"/>
+          <a:ext cx="3568561" cy="5616723"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>515356</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>15806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9700957A-D316-49A0-A419-C8641AC5798E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11765280" y="11612880"/>
+          <a:ext cx="7215241" cy="4065836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2005,6 +3960,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>168592</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>103822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>587692</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>126682</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C369E35-D3DB-6B2F-B97A-2E50DBC3B062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2312,8 +4303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCACB57-2272-4DED-A779-F191F701A3DD}">
   <dimension ref="A2:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2329,7 +4320,7 @@
     <col min="12" max="12" width="11.33203125" customWidth="1"/>
     <col min="13" max="13" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5546875" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2350,7 +4341,7 @@
         <v>104</v>
       </c>
       <c r="Q2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
         <v>83</v>
@@ -2366,25 +4357,25 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="55" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="12">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -2403,30 +4394,30 @@
         <v>47</v>
       </c>
       <c r="X3" s="43">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Y3" s="43" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="13">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="11"/>
@@ -2437,7 +4428,7 @@
       </c>
       <c r="Q4">
         <f>Q3*Q2</f>
-        <v>2.4000000000000004</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="s">
         <v>4</v>
@@ -2446,30 +4437,30 @@
         <v>111</v>
       </c>
       <c r="X4" s="43">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y4" s="43" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="13">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
       <c r="J5" s="5"/>
       <c r="K5" s="8"/>
       <c r="L5" s="5"/>
@@ -2492,23 +4483,23 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="5"/>
       <c r="K6" s="8"/>
       <c r="L6" s="5"/>
@@ -2519,7 +4510,7 @@
       </c>
       <c r="Q6">
         <f>Q4/Q5</f>
-        <v>3.4285714285714293</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="R6" t="s">
         <v>4</v>
@@ -2536,23 +4527,23 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="45"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="13">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -2562,7 +4553,7 @@
         <v>103</v>
       </c>
       <c r="Q7">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="R7" t="s">
         <v>83</v>
@@ -2572,7 +4563,7 @@
       </c>
       <c r="X7" s="42">
         <f>X3*X6/(X4*X2)</f>
-        <v>337.81957732014484</v>
+        <v>308.86361354984678</v>
       </c>
       <c r="Y7" t="s">
         <v>125</v>
@@ -2582,30 +4573,30 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="13">
         <f>(C3-C4)/2-C6</f>
-        <v>2</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
       <c r="J8" s="5"/>
       <c r="K8" s="20" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="23" t="s">
@@ -2616,35 +4607,35 @@
       </c>
       <c r="Q8">
         <f>Q6/Q7</f>
-        <v>7.1428571428571438E-2</v>
+        <v>0.12500000000000003</v>
       </c>
       <c r="R8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="14">
         <f>FLOOR((C8-(2*C12)+C13)/(C20+C19),1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
       <c r="J9" s="5"/>
       <c r="K9" s="24" t="s">
         <v>44</v>
       </c>
       <c r="L9" s="26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M9" s="26"/>
       <c r="N9" s="27" t="s">
@@ -2660,7 +4651,7 @@
         <v>80</v>
       </c>
       <c r="T9">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="U9" t="s">
         <v>81</v>
@@ -2676,11 +4667,11 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
       <c r="J10" s="5"/>
       <c r="K10" s="39" t="s">
         <v>60</v>
@@ -2697,7 +4688,7 @@
       </c>
       <c r="Q10">
         <f>Q2/Q7*(1-Q9)/Q9</f>
-        <v>0.61111111111111116</v>
+        <v>1.0694444444444446</v>
       </c>
       <c r="S10" t="s">
         <v>107</v>
@@ -2716,18 +4707,18 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
       <c r="J11" s="5"/>
       <c r="K11" s="24" t="s">
         <v>46</v>
       </c>
       <c r="L11" s="26">
         <f>IF(C17&gt;1,IF(C17&gt;2,L8+L9+L10,L8+L9),L8)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M11" s="26"/>
       <c r="N11" s="27" t="s">
@@ -2738,7 +4729,7 @@
       </c>
       <c r="T11" s="41">
         <f>Q5*T10*T10*Q7*Q7/(2*T9*Q4)*1000</f>
-        <v>118.54079999999999</v>
+        <v>67.737600000000015</v>
       </c>
       <c r="U11" t="s">
         <v>48</v>
@@ -2754,7 +4745,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="55" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -2766,20 +4757,20 @@
       <c r="D12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
       <c r="J12" s="5"/>
       <c r="K12" s="28" t="s">
         <v>47</v>
       </c>
       <c r="L12" s="40">
         <f>L11*L11*C7/1000</f>
-        <v>78.400000000000006</v>
+        <v>5.76</v>
       </c>
       <c r="M12" s="30" t="s">
         <v>48</v>
@@ -2791,7 +4782,7 @@
         <v>115</v>
       </c>
       <c r="T12">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
         <v>48</v>
@@ -2811,7 +4802,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="13" t="s">
         <v>21</v>
       </c>
@@ -2821,11 +4812,11 @@
       <c r="D13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
       <c r="J13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -2834,8 +4825,8 @@
         <v>116</v>
       </c>
       <c r="T13" s="41">
-        <f>T12*Q10</f>
-        <v>41.555555555555557</v>
+        <f>T12*Q10*Q10</f>
+        <v>68.622685185185219</v>
       </c>
       <c r="U13" s="4" t="s">
         <v>48</v>
@@ -2852,21 +4843,21 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="55"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="13">
-        <v>17.5</v>
+        <v>35</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -2877,34 +4868,34 @@
       </c>
       <c r="T14" s="1">
         <f>SQRT(T12/(C7/1000))</f>
-        <v>13.038404810405298</v>
+        <v>19.364916731037084</v>
       </c>
       <c r="U14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="13">
-        <v>17.5</v>
+        <v>35</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="61"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="72"/>
       <c r="K15" s="20" t="s">
         <v>42</v>
       </c>
       <c r="L15" s="21">
         <f>_xlfn.XLOOKUP(L8,C28:C66,F28:F66,FALSE,0,-1)</f>
-        <v>1051.348637343787</v>
+        <v>59.201071575397059</v>
       </c>
       <c r="M15" s="22" t="s">
         <v>50</v>
@@ -2917,14 +4908,14 @@
       </c>
       <c r="T15" s="1">
         <f>SQRT(T13/C7*1000)</f>
-        <v>10.192589900947103</v>
+        <v>20.709702615136887</v>
       </c>
       <c r="U15" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="13" t="s">
         <v>58</v>
       </c>
@@ -2934,17 +4925,17 @@
       <c r="D16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="61"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="72"/>
       <c r="K16" s="24" t="s">
         <v>45</v>
       </c>
       <c r="L16" s="25">
         <f>IF(C17&gt;1,_xlfn.XLOOKUP(L9,C28:C66,G28:G66,FALSE,0,-1),0)</f>
-        <v>1051.348637343787</v>
+        <v>59.201071575397052</v>
       </c>
       <c r="M16" s="26" t="s">
         <v>50</v>
@@ -2953,8 +4944,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="56"/>
+    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="67"/>
       <c r="B17" s="14" t="s">
         <v>39</v>
       </c>
@@ -2962,11 +4953,11 @@
         <v>2</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="65"/>
       <c r="J17" s="5"/>
       <c r="K17" s="24" t="s">
         <v>61</v>
@@ -2982,7 +4973,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -2994,7 +4985,7 @@
       </c>
       <c r="L18" s="29">
         <f>L16+L15+L17</f>
-        <v>2102.697274687574</v>
+        <v>118.4021431507941</v>
       </c>
       <c r="M18" s="30" t="s">
         <v>50</v>
@@ -3002,9 +4993,12 @@
       <c r="N18" s="31" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="44" t="s">
+      <c r="W18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="55" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -3016,21 +5010,30 @@
       <c r="D19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
+      <c r="W19" t="s">
+        <v>159</v>
+      </c>
+      <c r="X19">
+        <v>60</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="56"/>
       <c r="B20" s="13" t="s">
         <v>12</v>
       </c>
@@ -3040,28 +5043,37 @@
       <c r="D20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="61"/>
       <c r="J20" s="5"/>
       <c r="K20" s="20" t="s">
         <v>55</v>
       </c>
       <c r="L20" s="32">
         <f>_xlfn.XLOOKUP(L8,C28:C80,E28:E80,,0,-1)*1550</f>
-        <v>2.9906362237500006</v>
+        <v>24.765831649906588</v>
       </c>
       <c r="M20" s="22" t="s">
         <v>53</v>
       </c>
       <c r="N20" s="23"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
+      <c r="W20" t="s">
+        <v>160</v>
+      </c>
+      <c r="X20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="56"/>
       <c r="B21" s="13" t="s">
         <v>14</v>
       </c>
@@ -3071,28 +5083,38 @@
       <c r="D21" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
       <c r="J21" s="5"/>
       <c r="K21" s="33" t="s">
         <v>56</v>
       </c>
       <c r="L21" s="34">
         <f>(L2/((IF(C14=35,0.048,0.024))*(L20)^0.725))^(1/0.44)</f>
-        <v>4.2138800857774221</v>
+        <v>2.677702158691404E-2</v>
       </c>
       <c r="M21" s="35" t="s">
         <v>54</v>
       </c>
       <c r="N21" s="27"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
+      <c r="W21" t="s">
+        <v>161</v>
+      </c>
+      <c r="X21">
+        <f>0.5*X19*X20*X20</f>
+        <v>36.300000000000004</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="56"/>
       <c r="B22" s="13" t="s">
         <v>23</v>
       </c>
@@ -3102,26 +5124,35 @@
       <c r="D22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="59"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="70"/>
       <c r="J22" s="6"/>
       <c r="K22" s="24" t="s">
         <v>62</v>
       </c>
       <c r="L22" s="36">
         <f>_xlfn.XLOOKUP(L9,C28:C85,E28:E85,,0,-1)*1550*C15/C14</f>
-        <v>2.9906362237500006</v>
+        <v>24.765831649906588</v>
       </c>
       <c r="M22" s="26" t="s">
         <v>53</v>
       </c>
       <c r="N22" s="37"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="46"/>
+      <c r="W22" t="s">
+        <v>80</v>
+      </c>
+      <c r="X22">
+        <v>100</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="57"/>
       <c r="B23" s="14" t="s">
         <v>25</v>
       </c>
@@ -3131,31 +5162,41 @@
       <c r="D23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
       <c r="J23" s="5"/>
       <c r="K23" s="33" t="s">
         <v>57</v>
       </c>
       <c r="L23" s="34">
         <f>IF(C17&gt;1,(L2/((IF(C15=35,0.048,0.024))*(L22)^0.725))^(1/0.44),0)</f>
-        <v>4.2138800857774221</v>
+        <v>2.677702158691404E-2</v>
       </c>
       <c r="M23" s="35" t="s">
         <v>54</v>
       </c>
       <c r="N23" s="27"/>
       <c r="P23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q23" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W23" t="s">
+        <v>162</v>
+      </c>
+      <c r="X23">
+        <f>X22*X21/1000</f>
+        <v>3.6300000000000003</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -3165,13 +5206,13 @@
       <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
       <c r="J24" s="6"/>
       <c r="K24" s="24" t="s">
         <v>63</v>
@@ -3185,7 +5226,7 @@
       </c>
       <c r="N24" s="37"/>
       <c r="P24">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q24" t="s">
         <v>76</v>
@@ -3195,10 +5236,10 @@
       </c>
       <c r="S24">
         <f>P24/P29</f>
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="3"/>
       <c r="K25" s="28" t="s">
         <v>64</v>
@@ -3212,13 +5253,13 @@
       </c>
       <c r="N25" s="38"/>
       <c r="P25">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -3226,13 +5267,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P26">
-        <v>419</v>
+        <v>2775</v>
       </c>
       <c r="Q26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B27" s="15" t="s">
         <v>30</v>
       </c>
@@ -3254,59 +5298,62 @@
       <c r="H27" s="15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P27" s="54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28" s="16">
         <f>C20</f>
         <v>0.09</v>
       </c>
       <c r="C28" s="17">
         <f>FLOOR(($C$8-2*$C$12+$C$13)/(B28+$C$13),1)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17">
         <f>C28*(2*$C$5+2*$C$8+2*PI()*($C$12+(C28-1)*B28/2+(C28-1)*$C$13/2))</f>
-        <v>115.26459852072369</v>
+        <v>176.49158783049324</v>
       </c>
       <c r="E28" s="18">
         <f>B28*$C$14/1000</f>
-        <v>1.575E-3</v>
-      </c>
-      <c r="F28" s="19" t="str">
+        <v>3.15E-3</v>
+      </c>
+      <c r="F28" s="19">
         <f>IF(C28=C29,"",$C$24*D28/E28*1000000)</f>
-        <v/>
-      </c>
-      <c r="G28" s="19" t="str">
+        <v>963.70009862999473</v>
+      </c>
+      <c r="G28" s="19">
         <f>IF(C28=C29,"",F28*$C$14/$C$15)</f>
-        <v/>
-      </c>
-      <c r="H28" s="19" t="str">
+        <v>963.70009862999473</v>
+      </c>
+      <c r="H28" s="19">
         <f>IF(C28=C29,"",F28*$C$14/$C$16)</f>
-        <v/>
-      </c>
-      <c r="P28" t="s">
-        <v>78</v>
+        <v>963.70009862999473</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="Q28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" s="16">
         <f>B28*(1+$B$26)</f>
         <v>9.6299999999999997E-2</v>
       </c>
       <c r="C29" s="17">
         <f t="shared" ref="C29:C54" si="0">FLOOR(($C$8-2*$C$12+$C$13)/(B29+$C$13),1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" s="17">
         <f t="shared" ref="D29:D37" si="1">C29*(2*$C$5+2*$C$8+2*PI()*($C$12+(C29-1)*B29/2+(C29-1)*$C$13/2))</f>
-        <v>116.09586393686354</v>
+        <v>153.21454445961288</v>
       </c>
       <c r="E29" s="18">
         <f t="shared" ref="E29:E37" si="2">B29*$C$14/1000</f>
-        <v>1.6852499999999999E-3</v>
+        <v>3.3704999999999998E-3</v>
       </c>
       <c r="F29" s="19" t="str">
         <f t="shared" ref="F29:F46" si="3">IF(C29=C30,"",$C$24*D29/E29*1000000)</f>
@@ -3321,28 +5368,28 @@
         <v/>
       </c>
       <c r="P29" s="4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30" s="16">
         <f t="shared" ref="B30:B76" si="6">B29*(1+$B$26)</f>
         <v>0.10304100000000001</v>
       </c>
       <c r="C30" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="17">
         <f t="shared" si="1"/>
-        <v>116.9853179321332</v>
+        <v>154.40048311997242</v>
       </c>
       <c r="E30" s="18">
         <f t="shared" si="2"/>
-        <v>1.8032175000000001E-3</v>
+        <v>3.6064350000000003E-3</v>
       </c>
       <c r="F30" s="19" t="str">
         <f t="shared" si="3"/>
@@ -3357,64 +5404,67 @@
         <v/>
       </c>
       <c r="P30" s="4">
-        <v>78.400000000000006</v>
+        <v>5.8</v>
       </c>
       <c r="Q30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31" s="16">
         <f t="shared" si="6"/>
         <v>0.11025387000000002</v>
       </c>
       <c r="C31" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="17">
         <f t="shared" si="1"/>
-        <v>117.93703370707172</v>
+        <v>155.66943748655711</v>
       </c>
       <c r="E31" s="18">
         <f t="shared" si="2"/>
-        <v>1.9294427250000003E-3</v>
+        <v>3.8588854500000006E-3</v>
       </c>
       <c r="F31" s="19">
         <f t="shared" si="3"/>
-        <v>1051.348637343787</v>
+        <v>693.85690750907929</v>
       </c>
       <c r="G31" s="19">
         <f t="shared" si="4"/>
-        <v>1051.348637343787</v>
+        <v>693.85690750907929</v>
       </c>
       <c r="H31" s="19">
         <f t="shared" si="5"/>
-        <v>525.6743186718935</v>
+        <v>693.85690750907929</v>
       </c>
       <c r="P31" s="4">
-        <v>1934</v>
+        <v>118</v>
       </c>
       <c r="Q31" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B32" s="16">
         <f t="shared" si="6"/>
         <v>0.11797164090000002</v>
       </c>
       <c r="C32" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="17">
         <f t="shared" si="1"/>
-        <v>97.85307672519383</v>
+        <v>132.60536958625593</v>
       </c>
       <c r="E32" s="18">
         <f t="shared" si="2"/>
-        <v>2.0645037157500002E-3</v>
+        <v>4.1290074315000003E-3</v>
       </c>
       <c r="F32" s="19" t="str">
         <f t="shared" si="3"/>
@@ -3436,15 +5486,15 @@
       </c>
       <c r="C33" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" s="17">
         <f t="shared" si="1"/>
-        <v>98.631376289998911</v>
+        <v>133.69498897698304</v>
       </c>
       <c r="E33" s="18">
         <f t="shared" si="2"/>
-        <v>2.2090189758525005E-3</v>
+        <v>4.4180379517050009E-3</v>
       </c>
       <c r="F33" s="19" t="str">
         <f t="shared" si="3"/>
@@ -3466,15 +5516,15 @@
       </c>
       <c r="C34" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" si="1"/>
-        <v>99.464156824340364</v>
+        <v>134.86088172506106</v>
       </c>
       <c r="E34" s="18">
         <f t="shared" si="2"/>
-        <v>2.3636503041621756E-3</v>
+        <v>4.7273006083243512E-3</v>
       </c>
       <c r="F34" s="19" t="str">
         <f t="shared" si="3"/>
@@ -3496,27 +5546,27 @@
       </c>
       <c r="C35" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" s="17">
         <f t="shared" si="1"/>
-        <v>100.35523199608571</v>
+        <v>136.10838696550456</v>
       </c>
       <c r="E35" s="18">
         <f t="shared" si="2"/>
-        <v>2.5291058254535283E-3</v>
+        <v>5.0582116509070565E-3</v>
       </c>
       <c r="F35" s="19">
         <f t="shared" si="3"/>
-        <v>682.49812758354699</v>
+        <v>462.82449556788913</v>
       </c>
       <c r="G35" s="19">
         <f t="shared" si="4"/>
-        <v>682.49812758354699</v>
+        <v>462.82449556788913</v>
       </c>
       <c r="H35" s="19">
         <f t="shared" si="5"/>
-        <v>341.24906379177349</v>
+        <v>462.82449556788913</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
@@ -3526,15 +5576,15 @@
       </c>
       <c r="C36" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" s="17">
         <f t="shared" si="1"/>
-        <v>80.424077212056005</v>
+        <v>113.0086824298532</v>
       </c>
       <c r="E36" s="18">
         <f t="shared" si="2"/>
-        <v>2.7061432332352751E-3</v>
+        <v>5.4122864664705502E-3</v>
       </c>
       <c r="F36" s="19" t="str">
         <f t="shared" si="3"/>
@@ -3556,15 +5606,15 @@
       </c>
       <c r="C37" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" s="17">
         <f t="shared" si="1"/>
-        <v>81.10420518814351</v>
+        <v>114.02887439398445</v>
       </c>
       <c r="E37" s="18">
         <f t="shared" si="2"/>
-        <v>2.8955732595617443E-3</v>
+        <v>5.7911465191234886E-3</v>
       </c>
       <c r="F37" s="19" t="str">
         <f t="shared" si="3"/>
@@ -3586,27 +5636,27 @@
       </c>
       <c r="C38" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" s="17">
         <f t="shared" ref="D38:D46" si="7">C38*(2*$C$5+2*$C$8+2*PI()*($C$12+(C38-1)*B38/2+(C38-1)*$C$13/2))</f>
-        <v>81.831942122557138</v>
+        <v>115.12047979560487</v>
       </c>
       <c r="E38" s="18">
         <f t="shared" ref="E38:E46" si="8">B38*$C$14/1000</f>
-        <v>3.0982633877310664E-3</v>
-      </c>
-      <c r="F38" s="19" t="str">
+        <v>6.1965267754621328E-3</v>
+      </c>
+      <c r="F38" s="19">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G38" s="19" t="str">
+        <v>319.54550092890236</v>
+      </c>
+      <c r="G38" s="19">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H38" s="19" t="str">
+        <v>319.54550092890236</v>
+      </c>
+      <c r="H38" s="19">
         <f t="shared" si="5"/>
-        <v/>
+        <v>319.54550092890236</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
@@ -3620,23 +5670,23 @@
       </c>
       <c r="D39" s="17">
         <f t="shared" si="7"/>
-        <v>82.6106206423797</v>
+        <v>92.3606206423797</v>
       </c>
       <c r="E39" s="18">
         <f t="shared" si="8"/>
-        <v>3.3151418248722414E-3</v>
-      </c>
-      <c r="F39" s="19">
+        <v>6.6302836497444829E-3</v>
+      </c>
+      <c r="F39" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>428.6099208149833</v>
-      </c>
-      <c r="G39" s="19">
+        <v/>
+      </c>
+      <c r="G39" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>428.6099208149833</v>
-      </c>
-      <c r="H39" s="19">
+        <v/>
+      </c>
+      <c r="H39" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>214.30496040749165</v>
+        <v/>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
@@ -3646,15 +5696,15 @@
       </c>
       <c r="C40" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" s="17">
         <f t="shared" si="7"/>
-        <v>62.951239587307789</v>
+        <v>93.19380665858985</v>
       </c>
       <c r="E40" s="18">
         <f t="shared" si="8"/>
-        <v>3.5472017526132988E-3</v>
+        <v>7.0944035052265975E-3</v>
       </c>
       <c r="F40" s="19" t="str">
         <f t="shared" si="3"/>
@@ -3676,15 +5726,15 @@
       </c>
       <c r="C41" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" s="17">
         <f t="shared" si="7"/>
-        <v>63.486145009714704</v>
+        <v>94.08531569593471</v>
       </c>
       <c r="E41" s="18">
         <f t="shared" si="8"/>
-        <v>3.7955058752962303E-3</v>
+        <v>7.5910117505924605E-3</v>
       </c>
       <c r="F41" s="19" t="str">
         <f t="shared" si="3"/>
@@ -3706,27 +5756,27 @@
       </c>
       <c r="C42" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" s="17">
         <f t="shared" si="7"/>
-        <v>64.058493811690113</v>
+        <v>95.039230365893715</v>
       </c>
       <c r="E42" s="18">
         <f t="shared" si="8"/>
-        <v>4.0611912865669668E-3</v>
-      </c>
-      <c r="F42" s="19" t="str">
+        <v>8.1223825731339336E-3</v>
+      </c>
+      <c r="F42" s="19">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G42" s="19" t="str">
+        <v>201.25557342008457</v>
+      </c>
+      <c r="G42" s="19">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H42" s="19" t="str">
+        <v>201.25557342008457</v>
+      </c>
+      <c r="H42" s="19">
         <f t="shared" si="5"/>
-        <v/>
+        <v>201.25557342008457</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
@@ -3740,11 +5790,11 @@
       </c>
       <c r="D43" s="17">
         <f t="shared" si="7"/>
-        <v>64.670907029803786</v>
+        <v>72.470907029803783</v>
       </c>
       <c r="E43" s="18">
         <f t="shared" si="8"/>
-        <v>4.3454746766266542E-3</v>
+        <v>8.6909493532533084E-3</v>
       </c>
       <c r="F43" s="19" t="str">
         <f t="shared" si="3"/>
@@ -3770,23 +5820,23 @@
       </c>
       <c r="D44" s="17">
         <f t="shared" si="7"/>
-        <v>65.326189173185426</v>
+        <v>73.126189173185423</v>
       </c>
       <c r="E44" s="18">
         <f t="shared" si="8"/>
-        <v>4.6496579039905211E-3</v>
-      </c>
-      <c r="F44" s="19">
+        <v>9.2993158079810422E-3</v>
+      </c>
+      <c r="F44" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>241.65443501003853</v>
-      </c>
-      <c r="G44" s="19">
+        <v/>
+      </c>
+      <c r="G44" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>241.65443501003855</v>
-      </c>
-      <c r="H44" s="19">
+        <v/>
+      </c>
+      <c r="H44" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>120.82721750501928</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
@@ -3796,15 +5846,15 @@
       </c>
       <c r="C45" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" s="17">
         <f t="shared" si="7"/>
-        <v>45.89862612545577</v>
+        <v>73.827341066603779</v>
       </c>
       <c r="E45" s="18">
         <f t="shared" si="8"/>
-        <v>4.9751339572698576E-3</v>
+        <v>9.9502679145397153E-3</v>
       </c>
       <c r="F45" s="19" t="str">
         <f t="shared" si="3"/>
@@ -3826,15 +5876,15 @@
       </c>
       <c r="C46" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" s="17">
         <f t="shared" si="7"/>
-        <v>46.273742388434584</v>
+        <v>74.577573592561407</v>
       </c>
       <c r="E46" s="18">
         <f t="shared" si="8"/>
-        <v>5.323393334278748E-3</v>
+        <v>1.0646786668557496E-2</v>
       </c>
       <c r="F46" s="19" t="str">
         <f t="shared" si="3"/>
@@ -3856,27 +5906,27 @@
       </c>
       <c r="C47" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" s="17">
         <f t="shared" ref="D47:D54" si="9">C47*(2*$C$5+2*$C$8+2*PI()*($C$12+(C47-1)*B47/2+(C47-1)*$C$13/2))</f>
-        <v>46.675116789821921</v>
+        <v>75.380322395336094</v>
       </c>
       <c r="E47" s="18">
         <f t="shared" ref="E47:E54" si="10">B47*$C$14/1000</f>
-        <v>5.6960308676782603E-3</v>
-      </c>
-      <c r="F47" s="19" t="str">
+        <v>1.1392061735356521E-2</v>
+      </c>
+      <c r="F47" s="19">
         <f t="shared" ref="F47:F54" si="11">IF(C47=C48,"",$C$24*D47/E47*1000000)</f>
-        <v/>
-      </c>
-      <c r="G47" s="19" t="str">
+        <v>113.81096550555209</v>
+      </c>
+      <c r="G47" s="19">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H47" s="19" t="str">
+        <v>113.81096550555209</v>
+      </c>
+      <c r="H47" s="19">
         <f t="shared" si="5"/>
-        <v/>
+        <v>113.81096550555209</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
@@ -3890,11 +5940,11 @@
       </c>
       <c r="D48" s="17">
         <f t="shared" si="9"/>
-        <v>47.104587399306368</v>
+        <v>52.954587399306369</v>
       </c>
       <c r="E48" s="18">
         <f t="shared" si="10"/>
-        <v>6.094753028415739E-3</v>
+        <v>1.2189506056831478E-2</v>
       </c>
       <c r="F48" s="19" t="str">
         <f t="shared" si="11"/>
@@ -3920,11 +5970,11 @@
       </c>
       <c r="D49" s="17">
         <f t="shared" si="9"/>
-        <v>47.564120951454726</v>
+        <v>53.414120951454727</v>
       </c>
       <c r="E49" s="18">
         <f t="shared" si="10"/>
-        <v>6.5213857404048418E-3</v>
+        <v>1.3042771480809684E-2</v>
       </c>
       <c r="F49" s="19" t="str">
         <f t="shared" si="11"/>
@@ -3950,23 +6000,23 @@
       </c>
       <c r="D50" s="17">
         <f t="shared" si="9"/>
-        <v>48.055821852253473</v>
+        <v>53.905821852253474</v>
       </c>
       <c r="E50" s="18">
         <f t="shared" si="10"/>
-        <v>6.9778827422331815E-3</v>
-      </c>
-      <c r="F50" s="19">
+        <v>1.3955765484466363E-2</v>
+      </c>
+      <c r="F50" s="19" t="str">
         <f t="shared" si="11"/>
-        <v>118.45428855604841</v>
-      </c>
-      <c r="G50" s="19">
+        <v/>
+      </c>
+      <c r="G50" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>118.45428855604841</v>
-      </c>
-      <c r="H50" s="19">
+        <v/>
+      </c>
+      <c r="H50" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>59.227144278024205</v>
+        <v/>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
@@ -3976,15 +6026,15 @@
       </c>
       <c r="C51" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" s="17">
         <f t="shared" si="9"/>
-        <v>29.078936197523255</v>
+        <v>54.431941816108136</v>
       </c>
       <c r="E51" s="18">
         <f t="shared" si="10"/>
-        <v>7.4663345341895041E-3</v>
+        <v>1.4932669068379008E-2</v>
       </c>
       <c r="F51" s="19" t="str">
         <f t="shared" si="11"/>
@@ -4006,27 +6056,27 @@
       </c>
       <c r="C52" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" s="17">
         <f t="shared" si="9"/>
-        <v>29.266585651298083</v>
+        <v>54.994890177432623</v>
       </c>
       <c r="E52" s="18">
         <f t="shared" si="10"/>
-        <v>7.9889779515827705E-3</v>
-      </c>
-      <c r="F52" s="19" t="str">
+        <v>1.5977955903165541E-2</v>
+      </c>
+      <c r="F52" s="19">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G52" s="19" t="str">
+        <v>59.201071575397059</v>
+      </c>
+      <c r="G52" s="19">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H52" s="19" t="str">
+        <v>59.201071575397052</v>
+      </c>
+      <c r="H52" s="19">
         <f t="shared" si="5"/>
-        <v/>
+        <v>59.201071575397052</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
@@ -4040,11 +6090,11 @@
       </c>
       <c r="D53" s="17">
         <f t="shared" si="9"/>
-        <v>29.46737056683715</v>
+        <v>33.367370566837153</v>
       </c>
       <c r="E53" s="18">
         <f t="shared" si="10"/>
-        <v>8.5482064081935649E-3</v>
+        <v>1.709641281638713E-2</v>
       </c>
       <c r="F53" s="19" t="str">
         <f t="shared" si="11"/>
@@ -4070,11 +6120,11 @@
       </c>
       <c r="D54" s="17">
         <f t="shared" si="9"/>
-        <v>29.682210426463953</v>
+        <v>33.582210426463952</v>
       </c>
       <c r="E54" s="18">
         <f t="shared" si="10"/>
-        <v>9.1465808567671152E-3</v>
+        <v>1.829316171353423E-2</v>
       </c>
       <c r="F54" s="19" t="str">
         <f t="shared" si="11"/>
@@ -4100,11 +6150,11 @@
       </c>
       <c r="D55" s="17">
         <f t="shared" ref="D55:D66" si="13">C55*(2*$C$5+2*$C$8+2*PI()*($C$12+(C55-1)*B55/2+(C55-1)*$C$13/2))</f>
-        <v>29.912089076264628</v>
+        <v>33.812089076264627</v>
       </c>
       <c r="E55" s="18">
         <f t="shared" ref="E55:E66" si="14">B55*$C$14/1000</f>
-        <v>9.7868415167408143E-3</v>
+        <v>1.9573683033481629E-2</v>
       </c>
       <c r="F55" s="19" t="str">
         <f t="shared" ref="F55:F66" si="15">IF(C55=C56,"",$C$24*D55/E55*1000000)</f>
@@ -4130,11 +6180,11 @@
       </c>
       <c r="D56" s="17">
         <f t="shared" si="13"/>
-        <v>30.158059231551352</v>
+        <v>34.058059231551354</v>
       </c>
       <c r="E56" s="18">
         <f t="shared" si="14"/>
-        <v>1.0471920422912673E-2</v>
+        <v>2.0943840845825346E-2</v>
       </c>
       <c r="F56" s="19" t="str">
         <f t="shared" si="15"/>
@@ -4160,23 +6210,23 @@
       </c>
       <c r="D57" s="17">
         <f t="shared" si="13"/>
-        <v>30.421247297708149</v>
+        <v>34.321247297708148</v>
       </c>
       <c r="E57" s="18">
         <f t="shared" si="14"/>
-        <v>1.1204954852516559E-2</v>
-      </c>
-      <c r="F57" s="19">
+        <v>2.2409909705033117E-2</v>
+      </c>
+      <c r="F57" s="19" t="str">
         <f t="shared" si="15"/>
-        <v>46.697685123029544</v>
-      </c>
-      <c r="G57" s="19">
+        <v/>
+      </c>
+      <c r="G57" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>46.697685123029544</v>
-      </c>
-      <c r="H57" s="19">
+        <v/>
+      </c>
+      <c r="H57" s="19" t="str">
         <f t="shared" si="17"/>
-        <v>23.348842561514772</v>
+        <v/>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
@@ -4186,15 +6236,15 @@
       </c>
       <c r="C58" s="17">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" s="17">
         <f t="shared" si="13"/>
-        <v>12.884955592153876</v>
+        <v>34.602858528495915</v>
       </c>
       <c r="E58" s="18">
         <f t="shared" si="14"/>
-        <v>1.1989301692192721E-2</v>
+        <v>2.3978603384385441E-2</v>
       </c>
       <c r="F58" s="19" t="str">
         <f t="shared" si="15"/>
@@ -4216,27 +6266,27 @@
       </c>
       <c r="C59" s="17">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="17">
         <f t="shared" si="13"/>
-        <v>12.884955592153876</v>
+        <v>34.904182545438829</v>
       </c>
       <c r="E59" s="18">
         <f t="shared" si="14"/>
-        <v>1.282855281064621E-2</v>
-      </c>
-      <c r="F59" s="19" t="str">
+        <v>2.565710562129242E-2</v>
+      </c>
+      <c r="F59" s="19">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G59" s="19" t="str">
+        <v>23.399051656213526</v>
+      </c>
+      <c r="G59" s="19">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="H59" s="19" t="str">
+        <v>23.399051656213526</v>
+      </c>
+      <c r="H59" s="19">
         <f t="shared" si="17"/>
-        <v/>
+        <v>23.399051656213526</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
@@ -4250,11 +6300,11 @@
       </c>
       <c r="D60" s="17">
         <f t="shared" si="13"/>
-        <v>12.884955592153876</v>
+        <v>14.834955592153875</v>
       </c>
       <c r="E60" s="18">
         <f t="shared" si="14"/>
-        <v>1.3726551507391445E-2</v>
+        <v>2.745310301478289E-2</v>
       </c>
       <c r="F60" s="19" t="str">
         <f t="shared" si="15"/>
@@ -4280,11 +6330,11 @@
       </c>
       <c r="D61" s="17">
         <f t="shared" si="13"/>
-        <v>12.884955592153876</v>
+        <v>14.834955592153875</v>
       </c>
       <c r="E61" s="18">
         <f t="shared" si="14"/>
-        <v>1.4687410112908849E-2</v>
+        <v>2.9374820225817697E-2</v>
       </c>
       <c r="F61" s="19" t="str">
         <f t="shared" si="15"/>
@@ -4310,11 +6360,11 @@
       </c>
       <c r="D62" s="17">
         <f t="shared" si="13"/>
-        <v>12.884955592153876</v>
+        <v>14.834955592153875</v>
       </c>
       <c r="E62" s="18">
         <f t="shared" si="14"/>
-        <v>1.5715528820812466E-2</v>
+        <v>3.1431057641624932E-2</v>
       </c>
       <c r="F62" s="19" t="str">
         <f t="shared" si="15"/>
@@ -4340,11 +6390,11 @@
       </c>
       <c r="D63" s="17">
         <f t="shared" si="13"/>
-        <v>12.884955592153876</v>
+        <v>14.834955592153875</v>
       </c>
       <c r="E63" s="18">
         <f t="shared" si="14"/>
-        <v>1.6815615838269342E-2</v>
+        <v>3.3631231676538684E-2</v>
       </c>
       <c r="F63" s="19" t="str">
         <f t="shared" si="15"/>
@@ -4370,11 +6420,11 @@
       </c>
       <c r="D64" s="17">
         <f t="shared" si="13"/>
-        <v>12.884955592153876</v>
+        <v>14.834955592153875</v>
       </c>
       <c r="E64" s="18">
         <f t="shared" si="14"/>
-        <v>1.7992708946948197E-2</v>
+        <v>3.5985417893896393E-2</v>
       </c>
       <c r="F64" s="19" t="str">
         <f t="shared" si="15"/>
@@ -4400,11 +6450,11 @@
       </c>
       <c r="D65" s="17">
         <f t="shared" si="13"/>
-        <v>12.884955592153876</v>
+        <v>14.834955592153875</v>
       </c>
       <c r="E65" s="18">
         <f t="shared" si="14"/>
-        <v>1.9252198573234569E-2</v>
+        <v>3.8504397146469138E-2</v>
       </c>
       <c r="F65" s="19" t="str">
         <f t="shared" si="15"/>
@@ -4430,11 +6480,11 @@
       </c>
       <c r="D66" s="17">
         <f t="shared" si="13"/>
-        <v>12.884955592153876</v>
+        <v>14.834955592153875</v>
       </c>
       <c r="E66" s="18">
         <f t="shared" si="14"/>
-        <v>2.0599852473360991E-2</v>
+        <v>4.1199704946721982E-2</v>
       </c>
       <c r="F66" s="19" t="str">
         <f t="shared" si="15"/>
@@ -4460,11 +6510,11 @@
       </c>
       <c r="D67" s="17">
         <f t="shared" ref="D67:D76" si="19">C67*(2*$C$5+2*$C$8+2*PI()*($C$12+(C67-1)*B67/2+(C67-1)*$C$13/2))</f>
-        <v>12.884955592153876</v>
+        <v>14.834955592153875</v>
       </c>
       <c r="E67" s="18">
         <f t="shared" ref="E67:E76" si="20">B67*$C$14/1000</f>
-        <v>2.2041842146496262E-2</v>
+        <v>4.4083684292992524E-2</v>
       </c>
       <c r="F67" s="19" t="str">
         <f t="shared" ref="F67:F76" si="21">IF(C67=C68,"",$C$24*D67/E67*1000000)</f>
@@ -4490,23 +6540,23 @@
       </c>
       <c r="D68" s="17">
         <f t="shared" si="19"/>
-        <v>12.884955592153876</v>
+        <v>14.834955592153875</v>
       </c>
       <c r="E68" s="18">
         <f t="shared" si="20"/>
-        <v>2.3584771096751E-2</v>
-      </c>
-      <c r="F68" s="19">
+        <v>4.7169542193502001E-2</v>
+      </c>
+      <c r="F68" s="19" t="str">
         <f t="shared" si="21"/>
-        <v>9.3967940276332307</v>
-      </c>
-      <c r="G68" s="19">
+        <v/>
+      </c>
+      <c r="G68" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>9.3967940276332307</v>
-      </c>
-      <c r="H68" s="19">
+        <v/>
+      </c>
+      <c r="H68" s="19" t="str">
         <f t="shared" si="23"/>
-        <v>4.6983970138166153</v>
+        <v/>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
@@ -4516,15 +6566,15 @@
       </c>
       <c r="C69" s="17">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="17">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>14.834955592153875</v>
       </c>
       <c r="E69" s="18">
         <f t="shared" si="20"/>
-        <v>2.523570507352357E-2</v>
+        <v>5.047141014704714E-2</v>
       </c>
       <c r="F69" s="19" t="str">
         <f t="shared" si="21"/>
@@ -4546,27 +6596,27 @@
       </c>
       <c r="C70" s="17">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="17">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>14.834955592153875</v>
       </c>
       <c r="E70" s="18">
         <f t="shared" si="20"/>
-        <v>2.7002204428670223E-2</v>
-      </c>
-      <c r="F70" s="19" t="str">
+        <v>5.4004408857340445E-2</v>
+      </c>
+      <c r="F70" s="19">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="G70" s="19" t="str">
+        <v>4.7248223169905943</v>
+      </c>
+      <c r="G70" s="19">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="H70" s="19" t="str">
+        <v>4.7248223169905943</v>
+      </c>
+      <c r="H70" s="19">
         <f t="shared" si="23"/>
-        <v/>
+        <v>4.7248223169905943</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
@@ -4584,7 +6634,7 @@
       </c>
       <c r="E71" s="18">
         <f t="shared" si="20"/>
-        <v>2.889235873867714E-2</v>
+        <v>5.778471747735428E-2</v>
       </c>
       <c r="F71" s="19" t="str">
         <f t="shared" si="21"/>
@@ -4614,7 +6664,7 @@
       </c>
       <c r="E72" s="18">
         <f t="shared" si="20"/>
-        <v>3.0914823850384542E-2</v>
+        <v>6.1829647700769083E-2</v>
       </c>
       <c r="F72" s="19" t="str">
         <f t="shared" si="21"/>
@@ -4644,7 +6694,7 @@
       </c>
       <c r="E73" s="18">
         <f t="shared" si="20"/>
-        <v>3.3078861519911462E-2</v>
+        <v>6.6157723039822924E-2</v>
       </c>
       <c r="F73" s="19" t="str">
         <f t="shared" si="21"/>
@@ -4674,7 +6724,7 @@
       </c>
       <c r="E74" s="18">
         <f t="shared" si="20"/>
-        <v>3.5394381826305263E-2</v>
+        <v>7.0788763652610526E-2</v>
       </c>
       <c r="F74" s="19" t="str">
         <f t="shared" si="21"/>
@@ -4704,7 +6754,7 @@
       </c>
       <c r="E75" s="18">
         <f t="shared" si="20"/>
-        <v>3.7871988554146641E-2</v>
+        <v>7.5743977108293281E-2</v>
       </c>
       <c r="F75" s="19" t="str">
         <f t="shared" si="21"/>
@@ -4734,7 +6784,7 @@
       </c>
       <c r="E76" s="18">
         <f t="shared" si="20"/>
-        <v>4.0523027752936897E-2</v>
+        <v>8.1046055505873793E-2</v>
       </c>
       <c r="F76" s="19" t="str">
         <f t="shared" si="21"/>
@@ -4852,6 +6902,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C15 C16" xr:uid="{3A21EAD5-C7BA-4B8F-A999-978E42F64A50}">
+      <formula1>"17.5,35"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{1E2F7F73-B107-4F94-9958-A065034E7FC1}">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4891,20 +6949,2736 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D45F05-62BB-4D9F-A672-3298C8683E81}">
-  <dimension ref="C2:AO32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF03EE8-29D7-4019-8083-16EB681C1971}">
+  <dimension ref="A2:Z84"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="28" max="28" width="7.77734375" customWidth="1"/>
-    <col min="29" max="29" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="17.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="8.88671875" style="4"/>
+    <col min="23" max="23" width="13.6640625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>24</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="X2" s="43">
+        <v>8.81</v>
+      </c>
+      <c r="Y2" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="P3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" s="43">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="56"/>
+      <c r="B4" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="52">
+        <v>3.5</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="P4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>Q3*Q2</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="X4" s="43">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="56"/>
+      <c r="B5" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="52">
+        <v>3.5</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="P5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="W5" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="X5" s="43">
+        <v>100</v>
+      </c>
+      <c r="Y5" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="56"/>
+      <c r="B6" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="52">
+        <v>1</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="P6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>Q4/Q5</f>
+        <v>3.4285714285714293</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X6" s="42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="56"/>
+      <c r="B7" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="52">
+        <v>400</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="P7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>30</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X7" s="42">
+        <f>X3*X6/(X4*X2)*1000</f>
+        <v>249.71623155505108</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
+      <c r="B8" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="52">
+        <f>(C3-C4)/2-C6</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="12">
+        <v>5</v>
+      </c>
+      <c r="M8" s="49"/>
+      <c r="N8" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>Q6/Q7</f>
+        <v>0.11428571428571431</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="57"/>
+      <c r="B9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14">
+        <f>FLOOR((C8-(2*C12)+C13)/(C20+C19),1)</f>
+        <v>8</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="45">
+        <v>5</v>
+      </c>
+      <c r="M9" s="45"/>
+      <c r="N9" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9" s="4">
+        <v>500</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="W9" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="X9" s="43">
+        <v>120</v>
+      </c>
+      <c r="Y9" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="52">
+        <v>2</v>
+      </c>
+      <c r="M10" s="45"/>
+      <c r="N10" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>Q2/Q7*(1-Q9)/Q9</f>
+        <v>0.97777777777777786</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="X10" s="4">
+        <v>390</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="45">
+        <f>IF(C17&gt;1,IF(C17&gt;2,L8+L9+L10,L8+L9),L8)</f>
+        <v>10</v>
+      </c>
+      <c r="M11" s="45"/>
+      <c r="N11" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="T11" s="41">
+        <f>Q5*T10*T10*Q7*Q7/(2*T9*Q4)*1000</f>
+        <v>46.304999999999986</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" s="4">
+        <v>215</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="40">
+        <f>L11*L11*C7/1000</f>
+        <v>40</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="T12" s="4">
+        <v>40</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" s="4">
+        <f>X9*X10/1000</f>
+        <v>46.8</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="66"/>
+      <c r="B13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="S13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="T13" s="41">
+        <f>T12*Q10*Q10</f>
+        <v>38.241975308641983</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" s="4">
+        <f>X11*X9/1000</f>
+        <v>25.8</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="66"/>
+      <c r="B14" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="52">
+        <v>35</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="S14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T14" s="1">
+        <f>SQRT(T12/(C7/1000))</f>
+        <v>10</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="66"/>
+      <c r="B15" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="52">
+        <v>35</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="72"/>
+      <c r="K15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="21">
+        <f>_xlfn.XLOOKUP(L8,C28:C66,F28:F66,FALSE,0,-1)</f>
+        <v>214.30496040749165</v>
+      </c>
+      <c r="M15" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T15" s="1">
+        <f>SQRT(T13/C7*1000)</f>
+        <v>9.7777777777777786</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="66"/>
+      <c r="B16" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="52">
+        <v>35</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="72"/>
+      <c r="K16" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="25">
+        <f>IF(C17&gt;1,_xlfn.XLOOKUP(L9,C28:C66,G28:G66,FALSE,0,-1),0)</f>
+        <v>214.30496040749165</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="67"/>
+      <c r="B17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="14">
+        <v>2</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="25">
+        <f>IF(C17&gt;2,_xlfn.XLOOKUP(L10,C28:C54,H28:H54,FALSE,0,-1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="29">
+        <f>L16+L15+L17</f>
+        <v>428.6099208149833</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="W19" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="X19" s="4">
+        <v>60</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="56"/>
+      <c r="B20" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="52">
+        <v>0.09</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="32">
+        <f>_xlfn.XLOOKUP(L8,C28:C80,E28:E80,,0,-1)*1550</f>
+        <v>10.276939657103949</v>
+      </c>
+      <c r="M20" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" s="50"/>
+      <c r="W20" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="X20" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="56"/>
+      <c r="B21" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="34">
+        <f>(L2/((IF(C14=35,0.048,0.024))*(L20)^0.725))^(1/0.44)</f>
+        <v>0.11407123486728137</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="46"/>
+      <c r="W21" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="X21" s="4">
+        <f>0.5*X19*X20*X20</f>
+        <v>36.300000000000004</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="56"/>
+      <c r="B22" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="52">
+        <v>17.5</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="36">
+        <f>_xlfn.XLOOKUP(L9,C28:C85,E28:E85,,0,-1)*1550*C15/C14</f>
+        <v>10.276939657103949</v>
+      </c>
+      <c r="M22" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" s="51"/>
+      <c r="W22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="X22" s="4">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="57"/>
+      <c r="B23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="14">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="34">
+        <f>IF(C17&gt;1,(L2/((IF(C15=35,0.048,0.024))*(L22)^0.725))^(1/0.44),0)</f>
+        <v>0.11407123486728137</v>
+      </c>
+      <c r="M23" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="46"/>
+      <c r="P23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="X23" s="4">
+        <f>X22*X21/1000</f>
+        <v>3.6300000000000003</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1.7199999999999999E-8</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="36">
+        <f>_xlfn.XLOOKUP(L10,C28:C54,E28:E54,,0,-1)*1550*C16/C14</f>
+        <v>28.354400655978058</v>
+      </c>
+      <c r="M24" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="N24" s="51"/>
+      <c r="P24" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S24" s="4">
+        <f>P24/P29</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="3"/>
+      <c r="K25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="29">
+        <f>IF(C17&gt;2,(L2/((IF(C16=35,0.048,0.024))*(L24)^0.725))^(1/0.44),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="38"/>
+      <c r="P25" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P26" s="4">
+        <v>429</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B28" s="16">
+        <f>C20</f>
+        <v>0.09</v>
+      </c>
+      <c r="C28" s="17">
+        <f>FLOOR(($C$8-2*$C$12+$C$13)/(B28+$C$13),1)</f>
+        <v>7</v>
+      </c>
+      <c r="D28" s="17">
+        <f>C28*(2*$C$5+2*$C$8+2*PI()*($C$12+(C28-1)*B28/2+(C28-1)*$C$13/2))</f>
+        <v>115.26459852072369</v>
+      </c>
+      <c r="E28" s="18">
+        <f>B28*$C$14/1000</f>
+        <v>3.15E-3</v>
+      </c>
+      <c r="F28" s="19" t="str">
+        <f>IF(C28=C29,"",$C$24*D28/E28*1000000)</f>
+        <v/>
+      </c>
+      <c r="G28" s="19" t="str">
+        <f>IF(C28=C29,"",F28*$C$14/$C$15)</f>
+        <v/>
+      </c>
+      <c r="H28" s="19" t="str">
+        <f>IF(C28=C29,"",F28*$C$14/$C$16)</f>
+        <v/>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B29" s="16">
+        <f>B28*(1+$B$26)</f>
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="C29" s="17">
+        <f t="shared" ref="C29:C76" si="0">FLOOR(($C$8-2*$C$12+$C$13)/(B29+$C$13),1)</f>
+        <v>7</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" ref="D29:D76" si="1">C29*(2*$C$5+2*$C$8+2*PI()*($C$12+(C29-1)*B29/2+(C29-1)*$C$13/2))</f>
+        <v>116.09586393686354</v>
+      </c>
+      <c r="E29" s="18">
+        <f t="shared" ref="E29:E76" si="2">B29*$C$14/1000</f>
+        <v>3.3704999999999998E-3</v>
+      </c>
+      <c r="F29" s="19" t="str">
+        <f t="shared" ref="F29:F76" si="3">IF(C29=C30,"",$C$24*D29/E29*1000000)</f>
+        <v/>
+      </c>
+      <c r="G29" s="19" t="str">
+        <f t="shared" ref="G29:G76" si="4">IF(C29=C30,"",F29*$C$14/$C$15)</f>
+        <v/>
+      </c>
+      <c r="H29" s="19" t="str">
+        <f t="shared" ref="H29:H76" si="5">IF(C29=C30,"",F29*$C$14/$C$16)</f>
+        <v/>
+      </c>
+      <c r="P29" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B30" s="16">
+        <f t="shared" ref="B30:B76" si="6">B29*(1+$B$26)</f>
+        <v>0.10304100000000001</v>
+      </c>
+      <c r="C30" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D30" s="17">
+        <f t="shared" si="1"/>
+        <v>116.9853179321332</v>
+      </c>
+      <c r="E30" s="18">
+        <f t="shared" si="2"/>
+        <v>3.6064350000000003E-3</v>
+      </c>
+      <c r="F30" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G30" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H30" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P30" s="4">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B31" s="16">
+        <f t="shared" si="6"/>
+        <v>0.11025387000000002</v>
+      </c>
+      <c r="C31" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D31" s="17">
+        <f t="shared" si="1"/>
+        <v>117.93703370707172</v>
+      </c>
+      <c r="E31" s="18">
+        <f t="shared" si="2"/>
+        <v>3.8588854500000006E-3</v>
+      </c>
+      <c r="F31" s="19">
+        <f t="shared" si="3"/>
+        <v>525.6743186718935</v>
+      </c>
+      <c r="G31" s="19">
+        <f t="shared" si="4"/>
+        <v>525.6743186718935</v>
+      </c>
+      <c r="H31" s="19">
+        <f t="shared" si="5"/>
+        <v>525.6743186718935</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1934</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B32" s="16">
+        <f t="shared" si="6"/>
+        <v>0.11797164090000002</v>
+      </c>
+      <c r="C32" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D32" s="17">
+        <f t="shared" si="1"/>
+        <v>97.85307672519383</v>
+      </c>
+      <c r="E32" s="18">
+        <f t="shared" si="2"/>
+        <v>4.1290074315000003E-3</v>
+      </c>
+      <c r="F32" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G32" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H32" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B33" s="16">
+        <f t="shared" si="6"/>
+        <v>0.12622965576300002</v>
+      </c>
+      <c r="C33" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D33" s="17">
+        <f t="shared" si="1"/>
+        <v>98.631376289998911</v>
+      </c>
+      <c r="E33" s="18">
+        <f t="shared" si="2"/>
+        <v>4.4180379517050009E-3</v>
+      </c>
+      <c r="F33" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G33" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H33" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B34" s="16">
+        <f t="shared" si="6"/>
+        <v>0.13506573166641003</v>
+      </c>
+      <c r="C34" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D34" s="17">
+        <f t="shared" si="1"/>
+        <v>99.464156824340364</v>
+      </c>
+      <c r="E34" s="18">
+        <f t="shared" si="2"/>
+        <v>4.7273006083243512E-3</v>
+      </c>
+      <c r="F34" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G34" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H34" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B35" s="16">
+        <f t="shared" si="6"/>
+        <v>0.14452033288305874</v>
+      </c>
+      <c r="C35" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D35" s="17">
+        <f t="shared" si="1"/>
+        <v>100.35523199608571</v>
+      </c>
+      <c r="E35" s="18">
+        <f t="shared" si="2"/>
+        <v>5.0582116509070565E-3</v>
+      </c>
+      <c r="F35" s="19">
+        <f t="shared" si="3"/>
+        <v>341.24906379177349</v>
+      </c>
+      <c r="G35" s="19">
+        <f t="shared" si="4"/>
+        <v>341.24906379177349</v>
+      </c>
+      <c r="H35" s="19">
+        <f t="shared" si="5"/>
+        <v>341.24906379177349</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B36" s="16">
+        <f t="shared" si="6"/>
+        <v>0.15463675618487285</v>
+      </c>
+      <c r="C36" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D36" s="17">
+        <f t="shared" si="1"/>
+        <v>80.424077212056005</v>
+      </c>
+      <c r="E36" s="18">
+        <f t="shared" si="2"/>
+        <v>5.4122864664705502E-3</v>
+      </c>
+      <c r="F36" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G36" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H36" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B37" s="16">
+        <f t="shared" si="6"/>
+        <v>0.16546132911781397</v>
+      </c>
+      <c r="C37" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D37" s="17">
+        <f t="shared" si="1"/>
+        <v>81.10420518814351</v>
+      </c>
+      <c r="E37" s="18">
+        <f t="shared" si="2"/>
+        <v>5.7911465191234886E-3</v>
+      </c>
+      <c r="F37" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G37" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H37" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B38" s="16">
+        <f t="shared" si="6"/>
+        <v>0.17704362215606095</v>
+      </c>
+      <c r="C38" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D38" s="17">
+        <f t="shared" si="1"/>
+        <v>81.831942122557138</v>
+      </c>
+      <c r="E38" s="18">
+        <f t="shared" si="2"/>
+        <v>6.1965267754621328E-3</v>
+      </c>
+      <c r="F38" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G38" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H38" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="X38" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B39" s="16">
+        <f t="shared" si="6"/>
+        <v>0.18943667570698522</v>
+      </c>
+      <c r="C39" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D39" s="17">
+        <f t="shared" si="1"/>
+        <v>82.6106206423797</v>
+      </c>
+      <c r="E39" s="18">
+        <f t="shared" si="2"/>
+        <v>6.6302836497444829E-3</v>
+      </c>
+      <c r="F39" s="19">
+        <f t="shared" si="3"/>
+        <v>214.30496040749165</v>
+      </c>
+      <c r="G39" s="19">
+        <f t="shared" si="4"/>
+        <v>214.30496040749165</v>
+      </c>
+      <c r="H39" s="19">
+        <f t="shared" si="5"/>
+        <v>214.30496040749165</v>
+      </c>
+      <c r="X39" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B40" s="16">
+        <f t="shared" si="6"/>
+        <v>0.20269724300647421</v>
+      </c>
+      <c r="C40" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D40" s="17">
+        <f t="shared" si="1"/>
+        <v>62.951239587307789</v>
+      </c>
+      <c r="E40" s="18">
+        <f t="shared" si="2"/>
+        <v>7.0944035052265975E-3</v>
+      </c>
+      <c r="F40" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G40" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H40" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="X40" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B41" s="16">
+        <f t="shared" si="6"/>
+        <v>0.21688605001692743</v>
+      </c>
+      <c r="C41" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D41" s="17">
+        <f t="shared" si="1"/>
+        <v>63.486145009714704</v>
+      </c>
+      <c r="E41" s="18">
+        <f t="shared" si="2"/>
+        <v>7.5910117505924605E-3</v>
+      </c>
+      <c r="F41" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G41" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H41" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="X41" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B42" s="16">
+        <f t="shared" si="6"/>
+        <v>0.23206807351811237</v>
+      </c>
+      <c r="C42" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D42" s="17">
+        <f t="shared" si="1"/>
+        <v>64.058493811690113</v>
+      </c>
+      <c r="E42" s="18">
+        <f t="shared" si="2"/>
+        <v>8.1223825731339336E-3</v>
+      </c>
+      <c r="F42" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G42" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H42" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="X42" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B43" s="16">
+        <f t="shared" si="6"/>
+        <v>0.24831283866438025</v>
+      </c>
+      <c r="C43" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D43" s="17">
+        <f t="shared" si="1"/>
+        <v>64.670907029803786</v>
+      </c>
+      <c r="E43" s="18">
+        <f t="shared" si="2"/>
+        <v>8.6909493532533084E-3</v>
+      </c>
+      <c r="F43" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G43" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H43" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="X43" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B44" s="16">
+        <f t="shared" si="6"/>
+        <v>0.26569473737088689</v>
+      </c>
+      <c r="C44" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D44" s="17">
+        <f t="shared" si="1"/>
+        <v>65.326189173185426</v>
+      </c>
+      <c r="E44" s="18">
+        <f t="shared" si="2"/>
+        <v>9.2993158079810422E-3</v>
+      </c>
+      <c r="F44" s="19">
+        <f t="shared" si="3"/>
+        <v>120.82721750501926</v>
+      </c>
+      <c r="G44" s="19">
+        <f t="shared" si="4"/>
+        <v>120.82721750501928</v>
+      </c>
+      <c r="H44" s="19">
+        <f t="shared" si="5"/>
+        <v>120.82721750501928</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="X44" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B45" s="16">
+        <f t="shared" si="6"/>
+        <v>0.28429336898684898</v>
+      </c>
+      <c r="C45" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D45" s="17">
+        <f t="shared" si="1"/>
+        <v>45.89862612545577</v>
+      </c>
+      <c r="E45" s="18">
+        <f t="shared" si="2"/>
+        <v>9.9502679145397153E-3</v>
+      </c>
+      <c r="F45" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G45" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H45" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B46" s="16">
+        <f t="shared" si="6"/>
+        <v>0.30419390481592845</v>
+      </c>
+      <c r="C46" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D46" s="17">
+        <f t="shared" si="1"/>
+        <v>46.273742388434584</v>
+      </c>
+      <c r="E46" s="18">
+        <f t="shared" si="2"/>
+        <v>1.0646786668557496E-2</v>
+      </c>
+      <c r="F46" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G46" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H46" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y46" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B47" s="16">
+        <f t="shared" si="6"/>
+        <v>0.32548747815304346</v>
+      </c>
+      <c r="C47" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D47" s="17">
+        <f t="shared" si="1"/>
+        <v>46.675116789821921</v>
+      </c>
+      <c r="E47" s="18">
+        <f t="shared" si="2"/>
+        <v>1.1392061735356521E-2</v>
+      </c>
+      <c r="F47" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G47" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H47" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W47" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="X47" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B48" s="16">
+        <f t="shared" si="6"/>
+        <v>0.34827160162375653</v>
+      </c>
+      <c r="C48" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D48" s="17">
+        <f t="shared" si="1"/>
+        <v>47.104587399306368</v>
+      </c>
+      <c r="E48" s="18">
+        <f t="shared" si="2"/>
+        <v>1.2189506056831478E-2</v>
+      </c>
+      <c r="F48" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G48" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H48" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B49" s="16">
+        <f t="shared" si="6"/>
+        <v>0.37265061373741953</v>
+      </c>
+      <c r="C49" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D49" s="17">
+        <f t="shared" si="1"/>
+        <v>47.564120951454726</v>
+      </c>
+      <c r="E49" s="18">
+        <f t="shared" si="2"/>
+        <v>1.3042771480809684E-2</v>
+      </c>
+      <c r="F49" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G49" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H49" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W49" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="X49" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B50" s="16">
+        <f t="shared" si="6"/>
+        <v>0.39873615669903895</v>
+      </c>
+      <c r="C50" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D50" s="17">
+        <f t="shared" si="1"/>
+        <v>48.055821852253473</v>
+      </c>
+      <c r="E50" s="18">
+        <f t="shared" si="2"/>
+        <v>1.3955765484466363E-2</v>
+      </c>
+      <c r="F50" s="19">
+        <f t="shared" si="3"/>
+        <v>59.227144278024205</v>
+      </c>
+      <c r="G50" s="19">
+        <f t="shared" si="4"/>
+        <v>59.227144278024205</v>
+      </c>
+      <c r="H50" s="19">
+        <f t="shared" si="5"/>
+        <v>59.227144278024205</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B51" s="16">
+        <f t="shared" si="6"/>
+        <v>0.42664768766797168</v>
+      </c>
+      <c r="C51" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D51" s="17">
+        <f t="shared" si="1"/>
+        <v>29.078936197523255</v>
+      </c>
+      <c r="E51" s="18">
+        <f t="shared" si="2"/>
+        <v>1.4932669068379008E-2</v>
+      </c>
+      <c r="F51" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G51" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H51" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B52" s="16">
+        <f t="shared" si="6"/>
+        <v>0.45651302580472974</v>
+      </c>
+      <c r="C52" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D52" s="17">
+        <f t="shared" si="1"/>
+        <v>29.266585651298083</v>
+      </c>
+      <c r="E52" s="18">
+        <f t="shared" si="2"/>
+        <v>1.5977955903165541E-2</v>
+      </c>
+      <c r="F52" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G52" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H52" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B53" s="16">
+        <f t="shared" si="6"/>
+        <v>0.48846893761106086</v>
+      </c>
+      <c r="C53" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D53" s="17">
+        <f t="shared" si="1"/>
+        <v>29.46737056683715</v>
+      </c>
+      <c r="E53" s="18">
+        <f t="shared" si="2"/>
+        <v>1.709641281638713E-2</v>
+      </c>
+      <c r="F53" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G53" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H53" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="X53" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B54" s="16">
+        <f t="shared" si="6"/>
+        <v>0.52266176324383518</v>
+      </c>
+      <c r="C54" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D54" s="17">
+        <f t="shared" si="1"/>
+        <v>29.682210426463953</v>
+      </c>
+      <c r="E54" s="18">
+        <f t="shared" si="2"/>
+        <v>1.829316171353423E-2</v>
+      </c>
+      <c r="F54" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G54" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H54" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W54" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="X54" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B55" s="16">
+        <f t="shared" si="6"/>
+        <v>0.55924808667090364</v>
+      </c>
+      <c r="C55" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D55" s="17">
+        <f t="shared" si="1"/>
+        <v>29.912089076264628</v>
+      </c>
+      <c r="E55" s="18">
+        <f t="shared" si="2"/>
+        <v>1.9573683033481629E-2</v>
+      </c>
+      <c r="F55" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G55" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H55" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B56" s="16">
+        <f t="shared" si="6"/>
+        <v>0.59839545273786698</v>
+      </c>
+      <c r="C56" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D56" s="17">
+        <f t="shared" si="1"/>
+        <v>30.158059231551352</v>
+      </c>
+      <c r="E56" s="18">
+        <f t="shared" si="2"/>
+        <v>2.0943840845825346E-2</v>
+      </c>
+      <c r="F56" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G56" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H56" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B57" s="16">
+        <f t="shared" si="6"/>
+        <v>0.64028313442951768</v>
+      </c>
+      <c r="C57" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D57" s="17">
+        <f t="shared" si="1"/>
+        <v>30.421247297708149</v>
+      </c>
+      <c r="E57" s="18">
+        <f t="shared" si="2"/>
+        <v>2.2409909705033117E-2</v>
+      </c>
+      <c r="F57" s="19">
+        <f t="shared" si="3"/>
+        <v>23.348842561514772</v>
+      </c>
+      <c r="G57" s="19">
+        <f t="shared" si="4"/>
+        <v>23.348842561514772</v>
+      </c>
+      <c r="H57" s="19">
+        <f t="shared" si="5"/>
+        <v>23.348842561514772</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B58" s="16">
+        <f t="shared" si="6"/>
+        <v>0.68510295383958397</v>
+      </c>
+      <c r="C58" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="17">
+        <f t="shared" si="1"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E58" s="18">
+        <f t="shared" si="2"/>
+        <v>2.3978603384385441E-2</v>
+      </c>
+      <c r="F58" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G58" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H58" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B59" s="16">
+        <f t="shared" si="6"/>
+        <v>0.73306016060835488</v>
+      </c>
+      <c r="C59" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D59" s="17">
+        <f t="shared" si="1"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E59" s="18">
+        <f t="shared" si="2"/>
+        <v>2.565710562129242E-2</v>
+      </c>
+      <c r="F59" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G59" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H59" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B60" s="16">
+        <f t="shared" si="6"/>
+        <v>0.78437437185093972</v>
+      </c>
+      <c r="C60" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D60" s="17">
+        <f t="shared" si="1"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E60" s="18">
+        <f t="shared" si="2"/>
+        <v>2.745310301478289E-2</v>
+      </c>
+      <c r="F60" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G60" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H60" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B61" s="16">
+        <f t="shared" si="6"/>
+        <v>0.83928057788050558</v>
+      </c>
+      <c r="C61" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D61" s="17">
+        <f t="shared" si="1"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E61" s="18">
+        <f t="shared" si="2"/>
+        <v>2.9374820225817697E-2</v>
+      </c>
+      <c r="F61" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G61" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H61" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B62" s="16">
+        <f t="shared" si="6"/>
+        <v>0.89803021833214103</v>
+      </c>
+      <c r="C62" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D62" s="17">
+        <f t="shared" si="1"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E62" s="18">
+        <f t="shared" si="2"/>
+        <v>3.1431057641624932E-2</v>
+      </c>
+      <c r="F62" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G62" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H62" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B63" s="16">
+        <f t="shared" si="6"/>
+        <v>0.96089233361539095</v>
+      </c>
+      <c r="C63" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="17">
+        <f t="shared" si="1"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E63" s="18">
+        <f t="shared" si="2"/>
+        <v>3.3631231676538684E-2</v>
+      </c>
+      <c r="F63" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G63" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H63" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B64" s="16">
+        <f t="shared" si="6"/>
+        <v>1.0281547969684683</v>
+      </c>
+      <c r="C64" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D64" s="17">
+        <f t="shared" si="1"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E64" s="18">
+        <f t="shared" si="2"/>
+        <v>3.5985417893896393E-2</v>
+      </c>
+      <c r="F64" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G64" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H64" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="16">
+        <f t="shared" si="6"/>
+        <v>1.1001256327562612</v>
+      </c>
+      <c r="C65" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D65" s="17">
+        <f t="shared" si="1"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E65" s="18">
+        <f t="shared" si="2"/>
+        <v>3.8504397146469138E-2</v>
+      </c>
+      <c r="F65" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G65" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H65" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="16">
+        <f t="shared" si="6"/>
+        <v>1.1771344270491995</v>
+      </c>
+      <c r="C66" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="17">
+        <f t="shared" si="1"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E66" s="18">
+        <f t="shared" si="2"/>
+        <v>4.1199704946721982E-2</v>
+      </c>
+      <c r="F66" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G66" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H66" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="16">
+        <f t="shared" si="6"/>
+        <v>1.2595338369426434</v>
+      </c>
+      <c r="C67" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D67" s="17">
+        <f t="shared" si="1"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E67" s="18">
+        <f t="shared" si="2"/>
+        <v>4.4083684292992524E-2</v>
+      </c>
+      <c r="F67" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G67" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H67" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="16">
+        <f t="shared" si="6"/>
+        <v>1.3477012055286286</v>
+      </c>
+      <c r="C68" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="17">
+        <f t="shared" si="1"/>
+        <v>12.884955592153876</v>
+      </c>
+      <c r="E68" s="18">
+        <f t="shared" si="2"/>
+        <v>4.7169542193502001E-2</v>
+      </c>
+      <c r="F68" s="19">
+        <f t="shared" si="3"/>
+        <v>4.6983970138166153</v>
+      </c>
+      <c r="G68" s="19">
+        <f t="shared" si="4"/>
+        <v>4.6983970138166153</v>
+      </c>
+      <c r="H68" s="19">
+        <f t="shared" si="5"/>
+        <v>4.6983970138166153</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="16">
+        <f t="shared" si="6"/>
+        <v>1.4420402899156326</v>
+      </c>
+      <c r="C69" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D69" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="18">
+        <f t="shared" si="2"/>
+        <v>5.047141014704714E-2</v>
+      </c>
+      <c r="F69" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G69" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H69" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="16">
+        <f t="shared" si="6"/>
+        <v>1.5429831102097269</v>
+      </c>
+      <c r="C70" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D70" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="18">
+        <f t="shared" si="2"/>
+        <v>5.4004408857340445E-2</v>
+      </c>
+      <c r="F70" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G70" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H70" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="16">
+        <f t="shared" si="6"/>
+        <v>1.6509919279244079</v>
+      </c>
+      <c r="C71" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D71" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="18">
+        <f t="shared" si="2"/>
+        <v>5.778471747735428E-2</v>
+      </c>
+      <c r="F71" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G71" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H71" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="16">
+        <f t="shared" si="6"/>
+        <v>1.7665613628791166</v>
+      </c>
+      <c r="C72" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D72" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="18">
+        <f t="shared" si="2"/>
+        <v>6.1829647700769083E-2</v>
+      </c>
+      <c r="F72" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G72" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H72" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="16">
+        <f t="shared" si="6"/>
+        <v>1.8902206582806549</v>
+      </c>
+      <c r="C73" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D73" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="18">
+        <f t="shared" si="2"/>
+        <v>6.6157723039822924E-2</v>
+      </c>
+      <c r="F73" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G73" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H73" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="16">
+        <f t="shared" si="6"/>
+        <v>2.022536104360301</v>
+      </c>
+      <c r="C74" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D74" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="18">
+        <f t="shared" si="2"/>
+        <v>7.0788763652610526E-2</v>
+      </c>
+      <c r="F74" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G74" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H74" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="16">
+        <f t="shared" si="6"/>
+        <v>2.1641136316655221</v>
+      </c>
+      <c r="C75" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D75" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="18">
+        <f t="shared" si="2"/>
+        <v>7.5743977108293281E-2</v>
+      </c>
+      <c r="F75" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G75" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H75" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="16">
+        <f t="shared" si="6"/>
+        <v>2.3156015858821086</v>
+      </c>
+      <c r="C76" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D76" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="18">
+        <f t="shared" si="2"/>
+        <v>8.1046055505873793E-2</v>
+      </c>
+      <c r="F76" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G76" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H76" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="2"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="2"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="2"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="2"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="2"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="2"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="2"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="2"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="2"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="2"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="2"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="2"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83" s="2"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="2"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="2"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="2"/>
+      <c r="F84" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L15:L17">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{60181404-56F7-4476-8142-94B4F862D272}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23 L21 L25">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{299F9F8B-5AA0-4C13-9798-C1440D5265A6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{60181404-56F7-4476-8142-94B4F862D272}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L15:L17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{299F9F8B-5AA0-4C13-9798-C1440D5265A6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L23 L21 L25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D45F05-62BB-4D9F-A672-3298C8683E81}">
+  <dimension ref="C2:AS32"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK18" sqref="AK18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="24" max="25" width="8.88671875" style="4"/>
+    <col min="29" max="30" width="8.88671875" style="4"/>
+    <col min="32" max="32" width="7.77734375" customWidth="1"/>
+    <col min="33" max="33" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:45" x14ac:dyDescent="0.3">
       <c r="N2" t="s">
         <v>34</v>
       </c>
@@ -4920,22 +9694,22 @@
       <c r="U2" t="s">
         <v>154</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="AA2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-    </row>
-    <row r="3" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="AA2" s="4"/>
+      <c r="AE2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+    </row>
+    <row r="3" spans="3:45" x14ac:dyDescent="0.3">
       <c r="L3" t="s">
         <v>97</v>
       </c>
       <c r="M3" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="N3" t="s">
         <v>99</v>
@@ -4955,36 +9729,37 @@
       <c r="V3" t="s">
         <v>153</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AC3" s="4"/>
-      <c r="AJ3" t="s">
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AN3" t="s">
         <v>137</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AO3" t="s">
         <v>138</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AP3" t="s">
         <v>139</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AQ3" t="s">
         <v>140</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AR3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:45" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>80</v>
       </c>
@@ -5026,36 +9801,48 @@
       <c r="V4">
         <v>4.87</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="4">
+        <f>U4*6</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
         <v>6.31</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AC4" s="4">
+        <f>Z4*7</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
         <v>14.22</v>
       </c>
-      <c r="AC4" s="4"/>
-      <c r="AJ4">
+      <c r="AG4" s="4"/>
+      <c r="AH4">
+        <f>AE4*10</f>
+        <v>0</v>
+      </c>
+      <c r="AN4">
         <v>0.127</v>
       </c>
-      <c r="AK4">
+      <c r="AO4">
         <v>0.254</v>
       </c>
-      <c r="AL4">
+      <c r="AP4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AM4">
+      <c r="AQ4">
         <v>2.9</v>
       </c>
-      <c r="AN4">
+      <c r="AR4">
         <v>0.67079999999999995</v>
       </c>
     </row>
-    <row r="5" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:45" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>79</v>
       </c>
@@ -5102,43 +9889,58 @@
         <f t="shared" ref="W5:W7" si="2">(V5-$V$4)/$V$4</f>
         <v>0</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="4">
+        <f t="shared" ref="X5:X14" si="3">U5*6</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="Z5">
         <v>0.1</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>6.4</v>
       </c>
-      <c r="Z5" s="10">
-        <f>(Y5-$Y$4)/$Y$4</f>
+      <c r="AB5" s="10">
+        <f>(AA5-$AA$4)/$AA$4</f>
         <v>1.4263074484944651E-2</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AC5" s="4">
+        <f t="shared" ref="AC5:AC16" si="4">Z5*7</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="AE5" s="4">
         <v>0.2</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AF5" s="4">
         <v>14.29</v>
       </c>
-      <c r="AC5" s="10">
-        <f>(AB5-$AB$4)/$AB$4</f>
+      <c r="AG5" s="10">
+        <f t="shared" ref="AG5:AG15" si="5">(AF5-$AF$4)/$AF$4</f>
         <v>4.9226441631503868E-3</v>
       </c>
-      <c r="AJ5">
+      <c r="AH5" s="4">
+        <f t="shared" ref="AH5:AH16" si="6">AE5*10</f>
+        <v>2</v>
+      </c>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AN5">
         <v>0.254</v>
       </c>
-      <c r="AK5" s="4">
+      <c r="AO5" s="4">
         <v>0.254</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AP5" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AM5">
+      <c r="AQ5">
         <v>3.1</v>
       </c>
-      <c r="AN5">
+      <c r="AR5">
         <v>0.89559999999999995</v>
       </c>
     </row>
-    <row r="6" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:45" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>95</v>
       </c>
@@ -5175,43 +9977,58 @@
         <f t="shared" si="2"/>
         <v>2.0533880903490323E-3</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="Z6">
         <v>0.2</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>6.44</v>
       </c>
-      <c r="Z6" s="10">
-        <f t="shared" ref="Z6:Z16" si="3">(Y6-$Y$4)/$Y$4</f>
+      <c r="AB6" s="10">
+        <f t="shared" ref="AB6:AB16" si="7">(AA6-$AA$4)/$AA$4</f>
         <v>2.0602218700475562E-2</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AC6" s="4">
+        <f t="shared" si="4"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="AE6" s="4">
         <v>0.4</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AF6" s="4">
         <v>14.33</v>
       </c>
-      <c r="AC6" s="10">
-        <f>(AB6-$AB$4)/$AB$4</f>
+      <c r="AG6" s="10">
+        <f t="shared" si="5"/>
         <v>7.7355836849507332E-3</v>
       </c>
-      <c r="AJ6">
+      <c r="AH6" s="4">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AN6">
         <v>0.50800000000000001</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AO6" s="4">
         <v>0.254</v>
       </c>
-      <c r="AL6" s="4">
+      <c r="AP6" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AM6">
+      <c r="AQ6">
         <v>3.3412000000000002</v>
       </c>
-      <c r="AN6">
+      <c r="AR6">
         <v>1.3143</v>
       </c>
     </row>
-    <row r="7" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:45" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>86</v>
       </c>
@@ -5251,43 +10068,58 @@
         <f t="shared" si="2"/>
         <v>2.0533880903490323E-3</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Z7">
         <v>0.4</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>6.48</v>
       </c>
-      <c r="Z7" s="10">
-        <f t="shared" si="3"/>
+      <c r="AB7" s="10">
+        <f t="shared" si="7"/>
         <v>2.6941362916006472E-2</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AC7" s="4">
+        <f t="shared" si="4"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="AE7" s="4">
         <v>0.6</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AF7" s="4">
         <v>14.3</v>
       </c>
-      <c r="AC7" s="10">
-        <f>(AB7-$AB$4)/$AB$4</f>
+      <c r="AG7" s="10">
+        <f t="shared" si="5"/>
         <v>5.625879043600567E-3</v>
       </c>
-      <c r="AJ7">
+      <c r="AH7" s="4">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AN7">
         <v>1</v>
       </c>
-      <c r="AK7" s="4">
+      <c r="AO7" s="4">
         <v>0.254</v>
       </c>
-      <c r="AL7" s="4">
+      <c r="AP7" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AM7">
+      <c r="AQ7">
         <v>3.6095000000000002</v>
       </c>
-      <c r="AN7">
+      <c r="AR7">
         <v>2.0973999999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:45" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>84</v>
       </c>
@@ -5321,46 +10153,61 @@
         <v>4.88</v>
       </c>
       <c r="W8" s="10">
-        <f t="shared" ref="W8:W13" si="4">(V8-$V$4)/$V$4</f>
+        <f t="shared" ref="W8:W13" si="8">(V8-$V$4)/$V$4</f>
         <v>2.0533880903490323E-3</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="4">
+        <f t="shared" si="3"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="Z8">
         <v>0.6</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>6.5</v>
       </c>
-      <c r="Z8" s="10">
-        <f t="shared" si="3"/>
+      <c r="AB8" s="10">
+        <f t="shared" si="7"/>
         <v>3.0110935023771854E-2</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AC8" s="4">
+        <f t="shared" si="4"/>
+        <v>4.2</v>
+      </c>
+      <c r="AE8" s="4">
         <v>0.9</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AF8" s="4">
         <v>14.2</v>
       </c>
-      <c r="AC8" s="10">
-        <f>(AB8-$AB$4)/$AB$4</f>
+      <c r="AG8" s="10">
+        <f t="shared" si="5"/>
         <v>-1.4064697609002354E-3</v>
       </c>
-      <c r="AJ8">
+      <c r="AH8" s="4">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AN8">
         <v>2</v>
       </c>
-      <c r="AK8" s="4">
+      <c r="AO8" s="4">
         <v>0.254</v>
       </c>
-      <c r="AL8" s="4">
+      <c r="AP8" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AM8">
+      <c r="AQ8">
         <v>3.8887999999999998</v>
       </c>
-      <c r="AN8">
+      <c r="AR8">
         <v>3.6715</v>
       </c>
     </row>
-    <row r="9" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:45" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>85</v>
       </c>
@@ -5398,46 +10245,61 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="W9" s="10">
+        <f t="shared" si="8"/>
+        <v>-4.1067761806982466E-3</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="3"/>
+        <v>8.64</v>
+      </c>
+      <c r="Z9">
+        <v>0.9</v>
+      </c>
+      <c r="AA9">
+        <v>6.51</v>
+      </c>
+      <c r="AB9" s="10">
+        <f t="shared" si="7"/>
+        <v>3.1695721077654546E-2</v>
+      </c>
+      <c r="AC9" s="4">
         <f t="shared" si="4"/>
-        <v>-4.1067761806982466E-3</v>
-      </c>
-      <c r="X9">
-        <v>0.9</v>
-      </c>
-      <c r="Y9">
-        <v>6.51</v>
-      </c>
-      <c r="Z9" s="10">
-        <f t="shared" si="3"/>
-        <v>3.1695721077654546E-2</v>
-      </c>
-      <c r="AA9" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="AE9" s="4">
         <v>1.2</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AF9" s="4">
         <v>14</v>
       </c>
-      <c r="AC9" s="10">
-        <f>(AB9-$AB$4)/$AB$4</f>
+      <c r="AG9" s="10">
+        <f t="shared" si="5"/>
         <v>-1.5471167369901591E-2</v>
       </c>
-      <c r="AJ9">
+      <c r="AH9" s="4">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AN9">
         <v>20</v>
       </c>
-      <c r="AK9" s="4">
+      <c r="AO9" s="4">
         <v>0.254</v>
       </c>
-      <c r="AL9" s="4">
+      <c r="AP9" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AM9">
+      <c r="AQ9">
         <v>4.4530000000000003</v>
       </c>
-      <c r="AN9">
+      <c r="AR9">
         <v>32.2164</v>
       </c>
     </row>
-    <row r="10" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:45" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>87</v>
       </c>
@@ -5466,7 +10328,7 @@
         <v>7</v>
       </c>
       <c r="S10">
-        <v>6.31</v>
+        <v>6310</v>
       </c>
       <c r="U10">
         <v>1.9</v>
@@ -5475,31 +10337,46 @@
         <v>4.8</v>
       </c>
       <c r="W10" s="10">
+        <f t="shared" si="8"/>
+        <v>-1.437371663244359E-2</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="3"/>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="Z10">
+        <v>1.2</v>
+      </c>
+      <c r="AA10">
+        <v>6.5</v>
+      </c>
+      <c r="AB10" s="10">
+        <f t="shared" si="7"/>
+        <v>3.0110935023771854E-2</v>
+      </c>
+      <c r="AC10" s="4">
         <f t="shared" si="4"/>
-        <v>-1.437371663244359E-2</v>
-      </c>
-      <c r="X10">
-        <v>1.2</v>
-      </c>
-      <c r="Y10">
-        <v>6.5</v>
-      </c>
-      <c r="Z10" s="10">
-        <f t="shared" si="3"/>
-        <v>3.0110935023771854E-2</v>
-      </c>
-      <c r="AA10" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="AE10" s="4">
         <v>1.5</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AF10" s="4">
         <v>13.6</v>
       </c>
-      <c r="AC10" s="10">
-        <f>(AB10-$AB$4)/$AB$4</f>
+      <c r="AG10" s="10">
+        <f t="shared" si="5"/>
         <v>-4.3600562587904429E-2</v>
       </c>
-    </row>
-    <row r="11" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="AH10" s="4">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+    </row>
+    <row r="11" spans="3:45" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>89</v>
       </c>
@@ -5521,7 +10398,10 @@
         <v>-2.9045643153526972E-2</v>
       </c>
       <c r="R11" s="4">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>14220</v>
       </c>
       <c r="U11">
         <v>2.2000000000000002</v>
@@ -5530,31 +10410,46 @@
         <v>4.78</v>
       </c>
       <c r="W11" s="10">
+        <f t="shared" si="8"/>
+        <v>-1.8480492813141656E-2</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="3"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="Z11">
+        <v>1.5</v>
+      </c>
+      <c r="AA11">
+        <v>6.5</v>
+      </c>
+      <c r="AB11" s="10">
+        <f t="shared" si="7"/>
+        <v>3.0110935023771854E-2</v>
+      </c>
+      <c r="AC11" s="4">
         <f t="shared" si="4"/>
-        <v>-1.8480492813141656E-2</v>
-      </c>
-      <c r="X11">
-        <v>1.5</v>
-      </c>
-      <c r="Y11">
-        <v>6.5</v>
-      </c>
-      <c r="Z11" s="10">
-        <f t="shared" si="3"/>
-        <v>3.0110935023771854E-2</v>
-      </c>
-      <c r="AA11" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="AE11" s="4">
         <v>1.8</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AF11" s="4">
         <v>12.9</v>
       </c>
-      <c r="AC11" s="10">
-        <f>(AB11-$AB$4)/$AB$4</f>
+      <c r="AG11" s="10">
+        <f t="shared" si="5"/>
         <v>-9.2827004219409301E-2</v>
       </c>
-    </row>
-    <row r="12" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="AH11" s="4">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+    </row>
+    <row r="12" spans="3:45" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>90</v>
       </c>
@@ -5573,31 +10468,46 @@
         <v>4.67</v>
       </c>
       <c r="W12" s="10">
+        <f t="shared" si="8"/>
+        <v>-4.1067761806981552E-2</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="3"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="Z12">
+        <v>1.8</v>
+      </c>
+      <c r="AA12">
+        <v>6.43</v>
+      </c>
+      <c r="AB12" s="10">
+        <f t="shared" si="7"/>
+        <v>1.9017432646592728E-2</v>
+      </c>
+      <c r="AC12" s="4">
         <f t="shared" si="4"/>
-        <v>-4.1067761806981552E-2</v>
-      </c>
-      <c r="X12">
-        <v>1.8</v>
-      </c>
-      <c r="Y12">
-        <v>6.43</v>
-      </c>
-      <c r="Z12" s="10">
-        <f t="shared" si="3"/>
-        <v>1.9017432646592728E-2</v>
-      </c>
-      <c r="AA12" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="AE12" s="4">
         <v>2.1</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AF12" s="4">
         <v>11.3</v>
       </c>
-      <c r="AC12" s="10">
-        <f>(AB12-$AB$4)/$AB$4</f>
+      <c r="AG12" s="10">
+        <f t="shared" si="5"/>
         <v>-0.20534458509142053</v>
       </c>
-    </row>
-    <row r="13" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="AH12" s="4">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+    </row>
+    <row r="13" spans="3:45" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>91</v>
       </c>
@@ -5615,49 +10525,64 @@
         <v>4.62</v>
       </c>
       <c r="W13" s="10">
+        <f t="shared" si="8"/>
+        <v>-5.1334702258726897E-2</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="3"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="Z13">
+        <v>2.1</v>
+      </c>
+      <c r="AA13">
+        <v>6.36</v>
+      </c>
+      <c r="AB13" s="10">
+        <f t="shared" si="7"/>
+        <v>7.9239302694137422E-3</v>
+      </c>
+      <c r="AC13" s="4">
         <f t="shared" si="4"/>
-        <v>-5.1334702258726897E-2</v>
-      </c>
-      <c r="X13">
-        <v>2.1</v>
-      </c>
-      <c r="Y13">
-        <v>6.36</v>
-      </c>
-      <c r="Z13" s="10">
-        <f t="shared" si="3"/>
-        <v>7.9239302694137422E-3</v>
-      </c>
-      <c r="AA13">
+        <v>14.700000000000001</v>
+      </c>
+      <c r="AE13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AB13">
+      <c r="AF13">
         <v>9.9</v>
       </c>
-      <c r="AC13" s="10">
-        <f>(AB13-$AB$4)/$AB$4</f>
+      <c r="AG13" s="10">
+        <f t="shared" si="5"/>
         <v>-0.30379746835443039</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AH13" s="4">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AN13" t="s">
         <v>146</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AO13" t="s">
         <v>145</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AP13" t="s">
         <v>144</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AQ13" t="s">
         <v>139</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AR13" t="s">
         <v>142</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AS13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:45" x14ac:dyDescent="0.3">
       <c r="U14">
         <v>3</v>
       </c>
@@ -5668,46 +10593,61 @@
         <f>(V14-$V$4)/$V$4</f>
         <v>-5.7494866529774175E-2</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="4">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="Z14">
         <v>2.5</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>6.19</v>
       </c>
-      <c r="Z14" s="10">
-        <f t="shared" si="3"/>
+      <c r="AB14" s="10">
+        <f t="shared" si="7"/>
         <v>-1.9017432646592586E-2</v>
       </c>
-      <c r="AA14">
+      <c r="AC14" s="4">
+        <f t="shared" si="4"/>
+        <v>17.5</v>
+      </c>
+      <c r="AE14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB14" s="4">
+      <c r="AF14" s="4">
         <v>7.6</v>
       </c>
-      <c r="AC14" s="10">
-        <f>(AB14-$AB$4)/$AB$4</f>
+      <c r="AG14" s="10">
+        <f t="shared" si="5"/>
         <v>-0.4655414908579466</v>
       </c>
-      <c r="AJ14">
+      <c r="AH14" s="4">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AN14">
         <v>0.15</v>
       </c>
-      <c r="AK14">
+      <c r="AO14">
         <v>0.21</v>
       </c>
-      <c r="AL14">
+      <c r="AP14">
         <v>1</v>
       </c>
-      <c r="AM14">
+      <c r="AQ14">
         <v>4.2</v>
       </c>
-      <c r="AN14">
+      <c r="AR14">
         <v>2.6549999999999998</v>
       </c>
-      <c r="AO14">
+      <c r="AS14">
         <v>3.1076999999999999</v>
       </c>
     </row>
-    <row r="15" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:45" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>92</v>
       </c>
@@ -5715,29 +10655,37 @@
         <f>2*D7*H4*H5/(H6*H6*D11*D4*1000)</f>
         <v>8.9285714285714288E-11</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>2.9</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>5.77</v>
       </c>
-      <c r="Z15" s="10">
-        <f t="shared" si="3"/>
+      <c r="AB15" s="10">
+        <f t="shared" si="7"/>
         <v>-8.5578446909667205E-2</v>
       </c>
-      <c r="AA15" s="4">
+      <c r="AC15" s="4">
+        <f t="shared" si="4"/>
+        <v>20.3</v>
+      </c>
+      <c r="AE15" s="4">
         <v>2.5</v>
       </c>
-      <c r="AB15" s="4">
+      <c r="AF15" s="4">
         <v>5</v>
       </c>
-      <c r="AC15" s="10">
-        <f>(AB15-$AB$4)/$AB$4</f>
+      <c r="AG15" s="10">
+        <f t="shared" si="5"/>
         <v>-0.64838255977496484</v>
       </c>
-      <c r="AO15" s="4"/>
-    </row>
-    <row r="16" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="AH15" s="4">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="AS15" s="4"/>
+    </row>
+    <row r="16" spans="3:45" x14ac:dyDescent="0.3">
       <c r="L16">
         <v>0.97</v>
       </c>
@@ -5748,56 +10696,64 @@
         <f>L16/M16</f>
         <v>0.38800000000000001</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>2.8</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>5.95</v>
       </c>
-      <c r="Z16" s="10">
-        <f t="shared" si="3"/>
+      <c r="AB16" s="10">
+        <f t="shared" si="7"/>
         <v>-5.7052297939778042E-2</v>
       </c>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="10"/>
-    </row>
-    <row r="17" spans="12:40" x14ac:dyDescent="0.3">
-      <c r="AJ17" t="s">
+      <c r="AC16" s="4">
+        <f t="shared" si="4"/>
+        <v>19.599999999999998</v>
+      </c>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="12:44" x14ac:dyDescent="0.3">
+      <c r="AN17" t="s">
         <v>147</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AO17" t="s">
         <v>148</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AP17" t="s">
         <v>149</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AQ17" t="s">
         <v>150</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AR17" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="12:40" x14ac:dyDescent="0.3">
-      <c r="AJ18">
+    <row r="18" spans="12:44" x14ac:dyDescent="0.3">
+      <c r="AN18">
         <v>10</v>
       </c>
-      <c r="AK18">
+      <c r="AO18">
         <v>2</v>
       </c>
-      <c r="AL18">
+      <c r="AP18">
         <v>0.5</v>
       </c>
-      <c r="AM18">
+      <c r="AQ18">
         <v>3.5</v>
       </c>
-      <c r="AN18" s="42">
-        <f>0.12*AK18/AJ18+0.09*(1+AM18)*LOG10(1+2*AJ18/AL18+AJ18*AJ18/AL18)</f>
+      <c r="AR18" s="42">
+        <f>0.12*AO18/AN18+0.09*(1+AQ18)*LOG10(1+2*AN18/AP18+AN18*AN18/AP18)</f>
         <v>0.9887169022428216</v>
       </c>
     </row>
-    <row r="27" spans="12:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="12:44" x14ac:dyDescent="0.3">
       <c r="L27">
         <v>48</v>
       </c>
@@ -5808,7 +10764,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="28" spans="12:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="12:44" x14ac:dyDescent="0.3">
       <c r="L28">
         <v>24</v>
       </c>
@@ -5819,7 +10775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="12:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="12:44" x14ac:dyDescent="0.3">
       <c r="L29">
         <v>10</v>
       </c>
@@ -5830,7 +10786,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="12:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="12:44" x14ac:dyDescent="0.3">
       <c r="L30">
         <f>L27-L28</f>
         <v>24</v>
@@ -5846,7 +10802,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="12:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="12:44" x14ac:dyDescent="0.3">
       <c r="L31">
         <f>L30/L29</f>
         <v>2.4</v>
@@ -5855,7 +10811,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="12:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="12:44" x14ac:dyDescent="0.3">
       <c r="L32">
         <f>L30*L29</f>
         <v>240</v>

--- a/Planar_XFMR/track_calc.xlsx
+++ b/Planar_XFMR/track_calc.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nxp1-my.sharepoint.com/personal/xavier_bourlot_nxp_com/Documents/Documents/Kicad/PCB_Kicad/Planar_XFMR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1391" documentId="8_{DD615B7A-EA43-4BF0-8AA8-17BECC04831E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C974DB39-86F8-4EDE-9B72-FC8D80203591}"/>
+  <xr:revisionPtr revIDLastSave="1659" documentId="8_{DD615B7A-EA43-4BF0-8AA8-17BECC04831E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{017723C2-A941-498F-A602-E19117EE683A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{579F1847-482E-4316-B27D-C170499B655C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{579F1847-482E-4316-B27D-C170499B655C}"/>
   </bookViews>
   <sheets>
-    <sheet name="ER11-12V" sheetId="1" r:id="rId1"/>
-    <sheet name="ER9.5-48V" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="EELP22" sheetId="4" r:id="rId1"/>
+    <sheet name="ER11-12V" sheetId="1" r:id="rId2"/>
+    <sheet name="ER9.5-48V" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="222">
   <si>
     <t>Sw</t>
   </si>
@@ -627,6 +629,105 @@
   <si>
     <t>HB 4L 15x15</t>
   </si>
+  <si>
+    <t>1.2mm</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/epcos-tdk-electronics/B65525J0160A087/3913735</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/EPCOS-TDK/B65525J0160A087</t>
+  </si>
+  <si>
+    <t>Pout needed</t>
+  </si>
+  <si>
+    <t>burst duty</t>
+  </si>
+  <si>
+    <t>Pout pk</t>
+  </si>
+  <si>
+    <t>Est eff</t>
+  </si>
+  <si>
+    <t>Pin pk</t>
+  </si>
+  <si>
+    <t>P/Fsw</t>
+  </si>
+  <si>
+    <t>E=1/2Li²</t>
+  </si>
+  <si>
+    <t>i=sqrt(2E/L)</t>
+  </si>
+  <si>
+    <t>Ipri min</t>
+  </si>
+  <si>
+    <t>U=Ldi/dt</t>
+  </si>
+  <si>
+    <t>dt=Ldi/U</t>
+  </si>
+  <si>
+    <t>chg time</t>
+  </si>
+  <si>
+    <t>chg duty</t>
+  </si>
+  <si>
+    <t>Coil DCR</t>
+  </si>
+  <si>
+    <t>Ω</t>
+  </si>
+  <si>
+    <t>MOS Rdson</t>
+  </si>
+  <si>
+    <t>Shunt</t>
+  </si>
+  <si>
+    <t>Total R</t>
+  </si>
+  <si>
+    <t>i(t)=(v-v*exp(-rt/L))/r</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>chg time comp</t>
+  </si>
+  <si>
+    <t>chg duty comp</t>
+  </si>
+  <si>
+    <t>t(i)=-ln((V-Ri)/V)*L/R</t>
+  </si>
+  <si>
+    <t>Iavg</t>
+  </si>
+  <si>
+    <t>Irms</t>
+  </si>
+  <si>
+    <t>Pmos</t>
+  </si>
+  <si>
+    <t>Rth mos</t>
+  </si>
+  <si>
+    <t>°C/W</t>
+  </si>
+  <si>
+    <t>Trise MOS</t>
+  </si>
 </sst>
 </file>
 
@@ -637,7 +738,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +763,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -779,11 +888,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -849,6 +959,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -866,6 +989,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -873,12 +997,12 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -3597,6 +3721,143 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>591570</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>135973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936543F1-2A98-4032-82C9-63E1254CF41C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11753850" y="6307455"/>
+          <a:ext cx="7306695" cy="5144218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>764401</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>40788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B917550D-8333-4F35-9F28-044944830CE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8172450" y="6282690"/>
+          <a:ext cx="3564751" cy="5616723"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>511546</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>19616</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC5EBC5-E948-4CE5-B713-B29890282431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11769090" y="11612880"/>
+          <a:ext cx="7211431" cy="4065836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>116205</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
@@ -3790,7 +4051,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3927,7 +4188,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4300,11 +4561,6823 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45FDBDC-33AF-444F-8897-9F6D8E237B5E}">
+  <dimension ref="A2:Z214"/>
+  <sheetViews>
+    <sheetView topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="17.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="8.88671875" style="4"/>
+    <col min="23" max="23" width="13.6640625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>24</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="X2" s="43">
+        <v>78.5</v>
+      </c>
+      <c r="Y2" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12">
+        <v>21.8</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="P3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" s="43">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="69"/>
+      <c r="B4" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="64">
+        <v>5</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="P4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>Q3*Q2</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="X4" s="43">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="69"/>
+      <c r="B5" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="64">
+        <v>15.8</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="P5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="W5" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="X5" s="43">
+        <v>300</v>
+      </c>
+      <c r="Y5" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="69"/>
+      <c r="B6" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="P6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>Q4/Q5</f>
+        <v>3.6923076923076925</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X6" s="42">
+        <f>X5/0.45*3*2/1000</f>
+        <v>4</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="69"/>
+      <c r="B7" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="64">
+        <v>1520</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="P7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>24</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X7" s="42">
+        <f>X3*X6/(X4*X2)*1000</f>
+        <v>387.26114649681529</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="69"/>
+      <c r="B8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="64">
+        <f>(C3-C4)/2-C6</f>
+        <v>5.9</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="12">
+        <v>4</v>
+      </c>
+      <c r="M8" s="55"/>
+      <c r="N8" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>Q6/Q7</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="70"/>
+      <c r="B9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14">
+        <f>FLOOR((C8-(2*C12)+C13)/(C20+C19),1)</f>
+        <v>30</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="57">
+        <v>5</v>
+      </c>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9" s="4">
+        <v>300</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="W9" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="X9" s="43">
+        <v>120</v>
+      </c>
+      <c r="Y9" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="64">
+        <v>2</v>
+      </c>
+      <c r="M10" s="57"/>
+      <c r="N10" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>Q2/Q7*(1-Q9)/Q9</f>
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="X10" s="4">
+        <v>390</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="57">
+        <f>IF(C17&gt;1,IF(C17&gt;2,L8+L9+L10,L8+L9),L8)</f>
+        <v>4</v>
+      </c>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="T11" s="41">
+        <f>Q5*T10*T10*Q7*Q7/(2*T9*Q4)*1000</f>
+        <v>45.863999999999997</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" s="4">
+        <v>215</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="40">
+        <f>L11*L11*C7/1000</f>
+        <v>24.32</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="T12" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" s="4">
+        <f>X9*X10/1000</f>
+        <v>46.8</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="80"/>
+      <c r="B13" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="S13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="T13" s="41">
+        <f>T12*Q10*Q10</f>
+        <v>36.300000000000004</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" s="4">
+        <f>X11*X9/1000</f>
+        <v>25.8</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="80"/>
+      <c r="B14" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="64">
+        <v>35</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="S14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T14" s="1">
+        <f>SQRT(T12/(C7/1000))</f>
+        <v>3.9983549248738735</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="80"/>
+      <c r="B15" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="64">
+        <v>35</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
+      <c r="K15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="21">
+        <f>_xlfn.XLOOKUP(L8,C28:C214,F28:F214,FALSE,0,-1)</f>
+        <v>94.584405628349998</v>
+      </c>
+      <c r="M15" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T15" s="1">
+        <f>SQRT(T13/C7*1000)</f>
+        <v>4.8868782415125125</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="80"/>
+      <c r="B16" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="64">
+        <v>35</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
+      <c r="K16" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="25">
+        <f>IF(C17&gt;1,_xlfn.XLOOKUP(L9,C28:C66,G28:G66,FALSE,0,-1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="81"/>
+      <c r="B17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="25">
+        <f>IF(C17&gt;2,_xlfn.XLOOKUP(L10,C28:C214,H28:H214,FALSE,0,-1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="29">
+        <f>L16+L15+L17</f>
+        <v>94.584405628349998</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="W19" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="X19" s="4">
+        <v>60</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="69"/>
+      <c r="B20" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="64">
+        <v>0.09</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="32">
+        <f>_xlfn.XLOOKUP(L8,C28:C214,E28:E214,,0,-1)*1550</f>
+        <v>64.81493691537014</v>
+      </c>
+      <c r="M20" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" s="56"/>
+      <c r="W20" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="X20" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="69"/>
+      <c r="B21" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="64">
+        <v>0.3</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="34">
+        <f>(L2/((IF(C14=35,0.048,0.024))*(L20)^0.725))^(1/0.44)</f>
+        <v>5.4866247373966393E-3</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="58"/>
+      <c r="W21" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="X21" s="4">
+        <f>0.5*X19*X20*X20</f>
+        <v>36.300000000000004</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="69"/>
+      <c r="B22" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="64">
+        <v>17.5</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="36">
+        <f>_xlfn.XLOOKUP(L9,C28:C214,E28:E214,,0,-1)*1550*C15/C14</f>
+        <v>50.784199051194967</v>
+      </c>
+      <c r="M22" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" s="63"/>
+      <c r="W22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="X22" s="4">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="70"/>
+      <c r="B23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="14">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="34">
+        <f>IF(C17&gt;1,(L2/((IF(C15=35,0.048,0.024))*(L22)^0.725))^(1/0.44),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="58"/>
+      <c r="P23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="X23" s="4">
+        <f>X22*X21/1000</f>
+        <v>3.6300000000000003</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1.7199999999999999E-8</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="36">
+        <f>_xlfn.XLOOKUP(L10,C28:C214,E28:E214,,0,-1)*1550*C16/C14</f>
+        <v>134.74559880013317</v>
+      </c>
+      <c r="M24" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N24" s="63"/>
+      <c r="P24" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S24" s="4">
+        <f>P24/P29</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="3"/>
+      <c r="K25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="29">
+        <f>IF(C17&gt;2,(L2/((IF(C16=35,0.048,0.024))*(L24)^0.725))^(1/0.44),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="38"/>
+      <c r="P25" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="P26" s="4">
+        <v>429</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B28" s="16">
+        <f>C20</f>
+        <v>0.09</v>
+      </c>
+      <c r="C28" s="17">
+        <f>FLOOR(($C$8-2*$C$12+$C$13)/(B28+$C$13),1)</f>
+        <v>28</v>
+      </c>
+      <c r="D28" s="17">
+        <f>C28*(2*$C$5+2*$C$8+2*PI()*($C$12+(C28-1)*B28/2+(C28-1)*$C$13/2))</f>
+        <v>1719.2371253419467</v>
+      </c>
+      <c r="E28" s="18">
+        <f>B28*$C$14/1000</f>
+        <v>3.15E-3</v>
+      </c>
+      <c r="F28" s="19">
+        <f>IF(C28=C29,"",$C$24*D28/E28*1000000)</f>
+        <v>9387.580493930629</v>
+      </c>
+      <c r="G28" s="19">
+        <f>IF(C28=C29,"",F28*$C$14/$C$15)</f>
+        <v>9387.580493930629</v>
+      </c>
+      <c r="H28" s="19">
+        <f>IF(C28=C29,"",F28*$C$14/$C$16)</f>
+        <v>9387.580493930629</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B29" s="16">
+        <f>B28*(1+$B$26)</f>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="C29" s="17">
+        <f t="shared" ref="C29:C76" si="0">FLOOR(($C$8-2*$C$12+$C$13)/(B29+$C$13),1)</f>
+        <v>27</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" ref="D29:D76" si="1">C29*(2*$C$5+2*$C$8+2*PI()*($C$12+(C29-1)*B29/2+(C29-1)*$C$13/2))</f>
+        <v>1651.6437203166518</v>
+      </c>
+      <c r="E29" s="18">
+        <f t="shared" ref="E29:E76" si="2">B29*$C$14/1000</f>
+        <v>3.3075000000000001E-3</v>
+      </c>
+      <c r="F29" s="19" t="str">
+        <f t="shared" ref="F29:F76" si="3">IF(C29=C30,"",$C$24*D29/E29*1000000)</f>
+        <v/>
+      </c>
+      <c r="G29" s="19" t="str">
+        <f t="shared" ref="G29:G76" si="4">IF(C29=C30,"",F29*$C$14/$C$15)</f>
+        <v/>
+      </c>
+      <c r="H29" s="19" t="str">
+        <f t="shared" ref="H29:H76" si="5">IF(C29=C30,"",F29*$C$14/$C$16)</f>
+        <v/>
+      </c>
+      <c r="P29" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B30" s="16">
+        <f t="shared" ref="B30:B94" si="6">B29*(1+$B$26)</f>
+        <v>9.9225000000000008E-2</v>
+      </c>
+      <c r="C30" s="17">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D30" s="17">
+        <f t="shared" si="1"/>
+        <v>1662.0642260689763</v>
+      </c>
+      <c r="E30" s="18">
+        <f t="shared" si="2"/>
+        <v>3.4728750000000003E-3</v>
+      </c>
+      <c r="F30" s="19">
+        <f t="shared" si="3"/>
+        <v>8231.6537993410038</v>
+      </c>
+      <c r="G30" s="19">
+        <f t="shared" si="4"/>
+        <v>8231.6537993410038</v>
+      </c>
+      <c r="H30" s="19">
+        <f t="shared" si="5"/>
+        <v>8231.6537993410038</v>
+      </c>
+      <c r="P30" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B31" s="16">
+        <f t="shared" si="6"/>
+        <v>0.10418625000000001</v>
+      </c>
+      <c r="C31" s="17">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D31" s="17">
+        <f t="shared" si="1"/>
+        <v>1594.3643603226328</v>
+      </c>
+      <c r="E31" s="18">
+        <f t="shared" si="2"/>
+        <v>3.6465187500000001E-3</v>
+      </c>
+      <c r="F31" s="19">
+        <f t="shared" si="3"/>
+        <v>7520.341695089126</v>
+      </c>
+      <c r="G31" s="19">
+        <f t="shared" si="4"/>
+        <v>7520.341695089126</v>
+      </c>
+      <c r="H31" s="19">
+        <f t="shared" si="5"/>
+        <v>7520.341695089126</v>
+      </c>
+      <c r="P31" s="4">
+        <v>150</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B32" s="16">
+        <f t="shared" si="6"/>
+        <v>0.10939556250000002</v>
+      </c>
+      <c r="C32" s="17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D32" s="17">
+        <f t="shared" si="1"/>
+        <v>1526.8252263104284</v>
+      </c>
+      <c r="E32" s="18">
+        <f t="shared" si="2"/>
+        <v>3.8288446875000006E-3</v>
+      </c>
+      <c r="F32" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G32" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H32" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B33" s="16">
+        <f t="shared" si="6"/>
+        <v>0.11486534062500002</v>
+      </c>
+      <c r="C33" s="17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D33" s="17">
+        <f t="shared" si="1"/>
+        <v>1537.1355151749881</v>
+      </c>
+      <c r="E33" s="18">
+        <f t="shared" si="2"/>
+        <v>4.0202869218750005E-3</v>
+      </c>
+      <c r="F33" s="19">
+        <f t="shared" si="3"/>
+        <v>6576.3293453391561</v>
+      </c>
+      <c r="G33" s="19">
+        <f t="shared" si="4"/>
+        <v>6576.3293453391561</v>
+      </c>
+      <c r="H33" s="19">
+        <f t="shared" si="5"/>
+        <v>6576.3293453391561</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B34" s="16">
+        <f t="shared" si="6"/>
+        <v>0.12060860765625003</v>
+      </c>
+      <c r="C34" s="17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D34" s="17">
+        <f t="shared" si="1"/>
+        <v>1469.4093685963078</v>
+      </c>
+      <c r="E34" s="18">
+        <f t="shared" si="2"/>
+        <v>4.2213012679687516E-3</v>
+      </c>
+      <c r="F34" s="19">
+        <f t="shared" si="3"/>
+        <v>5987.2156795901974</v>
+      </c>
+      <c r="G34" s="19">
+        <f t="shared" si="4"/>
+        <v>5987.2156795901974</v>
+      </c>
+      <c r="H34" s="19">
+        <f t="shared" si="5"/>
+        <v>5987.2156795901974</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B35" s="16">
+        <f t="shared" si="6"/>
+        <v>0.12663903803906254</v>
+      </c>
+      <c r="C35" s="17">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D35" s="17">
+        <f t="shared" si="1"/>
+        <v>1401.8297923011487</v>
+      </c>
+      <c r="E35" s="18">
+        <f t="shared" si="2"/>
+        <v>4.432366331367189E-3</v>
+      </c>
+      <c r="F35" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G35" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H35" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B36" s="16">
+        <f t="shared" si="6"/>
+        <v>0.13297098994101567</v>
+      </c>
+      <c r="C36" s="17">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D36" s="17">
+        <f t="shared" si="1"/>
+        <v>1411.8953535716469</v>
+      </c>
+      <c r="E36" s="18">
+        <f t="shared" si="2"/>
+        <v>4.653984647935548E-3</v>
+      </c>
+      <c r="F36" s="19">
+        <f t="shared" si="3"/>
+        <v>5218.0232464249057</v>
+      </c>
+      <c r="G36" s="19">
+        <f t="shared" si="4"/>
+        <v>5218.0232464249057</v>
+      </c>
+      <c r="H36" s="19">
+        <f t="shared" si="5"/>
+        <v>5218.0232464249057</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B37" s="16">
+        <f t="shared" si="6"/>
+        <v>0.13961953943806646</v>
+      </c>
+      <c r="C37" s="17">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D37" s="17">
+        <f t="shared" si="1"/>
+        <v>1344.0566099842874</v>
+      </c>
+      <c r="E37" s="18">
+        <f t="shared" si="2"/>
+        <v>4.8866838803323254E-3</v>
+      </c>
+      <c r="F37" s="19">
+        <f t="shared" si="3"/>
+        <v>4730.7692205695912</v>
+      </c>
+      <c r="G37" s="19">
+        <f t="shared" si="4"/>
+        <v>4730.7692205695912</v>
+      </c>
+      <c r="H37" s="19">
+        <f t="shared" si="5"/>
+        <v>4730.7692205695912</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B38" s="16">
+        <f t="shared" si="6"/>
+        <v>0.14660051640996979</v>
+      </c>
+      <c r="C38" s="17">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D38" s="17">
+        <f t="shared" si="1"/>
+        <v>1276.3657831397359</v>
+      </c>
+      <c r="E38" s="18">
+        <f t="shared" si="2"/>
+        <v>5.131018074348943E-3</v>
+      </c>
+      <c r="F38" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G38" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H38" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="X38" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B39" s="16">
+        <f t="shared" si="6"/>
+        <v>0.15393054223046829</v>
+      </c>
+      <c r="C39" s="17">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D39" s="17">
+        <f t="shared" si="1"/>
+        <v>1286.0375243524227</v>
+      </c>
+      <c r="E39" s="18">
+        <f t="shared" si="2"/>
+        <v>5.3875689780663906E-3</v>
+      </c>
+      <c r="F39" s="19">
+        <f t="shared" si="3"/>
+        <v>4105.7192045085467</v>
+      </c>
+      <c r="G39" s="19">
+        <f t="shared" si="4"/>
+        <v>4105.7192045085467</v>
+      </c>
+      <c r="H39" s="19">
+        <f t="shared" si="5"/>
+        <v>4105.7192045085467</v>
+      </c>
+      <c r="X39" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B40" s="16">
+        <f t="shared" si="6"/>
+        <v>0.1616270693419917</v>
+      </c>
+      <c r="C40" s="17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D40" s="17">
+        <f t="shared" si="1"/>
+        <v>1218.0308698725885</v>
+      </c>
+      <c r="E40" s="18">
+        <f t="shared" si="2"/>
+        <v>5.6569474269697094E-3</v>
+      </c>
+      <c r="F40" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G40" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H40" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="X40" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B41" s="16">
+        <f t="shared" si="6"/>
+        <v>0.16970842280909129</v>
+      </c>
+      <c r="C41" s="17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D41" s="17">
+        <f t="shared" si="1"/>
+        <v>1227.6784317322436</v>
+      </c>
+      <c r="E41" s="18">
+        <f t="shared" si="2"/>
+        <v>5.9397947983181954E-3</v>
+      </c>
+      <c r="F41" s="19">
+        <f t="shared" si="3"/>
+        <v>3555.0165860567154</v>
+      </c>
+      <c r="G41" s="19">
+        <f t="shared" si="4"/>
+        <v>3555.0165860567154</v>
+      </c>
+      <c r="H41" s="19">
+        <f t="shared" si="5"/>
+        <v>3555.0165860567154</v>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="X41" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B42" s="16">
+        <f t="shared" si="6"/>
+        <v>0.17819384394954588</v>
+      </c>
+      <c r="C42" s="17">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D42" s="17">
+        <f t="shared" si="1"/>
+        <v>1159.3124901085469</v>
+      </c>
+      <c r="E42" s="18">
+        <f t="shared" si="2"/>
+        <v>6.2367845382341053E-3</v>
+      </c>
+      <c r="F42" s="19">
+        <f t="shared" si="3"/>
+        <v>3197.1883440297429</v>
+      </c>
+      <c r="G42" s="19">
+        <f t="shared" si="4"/>
+        <v>3197.1883440297429</v>
+      </c>
+      <c r="H42" s="19">
+        <f t="shared" si="5"/>
+        <v>3197.1883440297429</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="X42" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B43" s="16">
+        <f t="shared" si="6"/>
+        <v>0.18710353614702319</v>
+      </c>
+      <c r="C43" s="17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D43" s="17">
+        <f t="shared" si="1"/>
+        <v>1091.1296828123866</v>
+      </c>
+      <c r="E43" s="18">
+        <f t="shared" si="2"/>
+        <v>6.5486237651458121E-3</v>
+      </c>
+      <c r="F43" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G43" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H43" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="X43" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B44" s="16">
+        <f t="shared" si="6"/>
+        <v>0.19645871295437436</v>
+      </c>
+      <c r="C44" s="17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D44" s="17">
+        <f t="shared" si="1"/>
+        <v>1100.1230701600753</v>
+      </c>
+      <c r="E44" s="18">
+        <f t="shared" si="2"/>
+        <v>6.8760549534031034E-3</v>
+      </c>
+      <c r="F44" s="19">
+        <f t="shared" si="3"/>
+        <v>2751.8856284573963</v>
+      </c>
+      <c r="G44" s="19">
+        <f t="shared" si="4"/>
+        <v>2751.8856284573963</v>
+      </c>
+      <c r="H44" s="19">
+        <f t="shared" si="5"/>
+        <v>2751.8856284573963</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="X44" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B45" s="16">
+        <f t="shared" si="6"/>
+        <v>0.20628164860209308</v>
+      </c>
+      <c r="C45" s="17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D45" s="17">
+        <f t="shared" si="1"/>
+        <v>1031.565957258952</v>
+      </c>
+      <c r="E45" s="18">
+        <f t="shared" si="2"/>
+        <v>7.2198577010732573E-3</v>
+      </c>
+      <c r="F45" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G45" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H45" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B46" s="16">
+        <f t="shared" si="6"/>
+        <v>0.21659573103219776</v>
+      </c>
+      <c r="C46" s="17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D46" s="17">
+        <f t="shared" si="1"/>
+        <v>1040.3794768596867</v>
+      </c>
+      <c r="E46" s="18">
+        <f t="shared" si="2"/>
+        <v>7.5808505861269214E-3</v>
+      </c>
+      <c r="F46" s="19">
+        <f t="shared" si="3"/>
+        <v>2360.4906598124867</v>
+      </c>
+      <c r="G46" s="19">
+        <f t="shared" si="4"/>
+        <v>2360.4906598124867</v>
+      </c>
+      <c r="H46" s="19">
+        <f t="shared" si="5"/>
+        <v>2360.4906598124867</v>
+      </c>
+      <c r="Y46" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B47" s="16">
+        <f t="shared" si="6"/>
+        <v>0.22742551758380766</v>
+      </c>
+      <c r="C47" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D47" s="17">
+        <f t="shared" si="1"/>
+        <v>971.4323136278523</v>
+      </c>
+      <c r="E47" s="18">
+        <f t="shared" si="2"/>
+        <v>7.959893115433268E-3</v>
+      </c>
+      <c r="F47" s="19">
+        <f t="shared" si="3"/>
+        <v>2099.1030346881216</v>
+      </c>
+      <c r="G47" s="19">
+        <f t="shared" si="4"/>
+        <v>2099.1030346881216</v>
+      </c>
+      <c r="H47" s="19">
+        <f t="shared" si="5"/>
+        <v>2099.1030346881216</v>
+      </c>
+      <c r="W47" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="X47" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B48" s="16">
+        <f t="shared" si="6"/>
+        <v>0.23879679346299806</v>
+      </c>
+      <c r="C48" s="17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D48" s="17">
+        <f t="shared" si="1"/>
+        <v>902.79025253696614</v>
+      </c>
+      <c r="E48" s="18">
+        <f t="shared" si="2"/>
+        <v>8.3578877712049329E-3</v>
+      </c>
+      <c r="F48" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G48" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H48" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B49" s="16">
+        <f t="shared" si="6"/>
+        <v>0.25073663313614797</v>
+      </c>
+      <c r="C49" s="17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D49" s="17">
+        <f t="shared" si="1"/>
+        <v>910.66737618342984</v>
+      </c>
+      <c r="E49" s="18">
+        <f t="shared" si="2"/>
+        <v>8.7757821597651779E-3</v>
+      </c>
+      <c r="F49" s="19">
+        <f t="shared" si="3"/>
+        <v>1784.8527441996252</v>
+      </c>
+      <c r="G49" s="19">
+        <f t="shared" si="4"/>
+        <v>1784.8527441996252</v>
+      </c>
+      <c r="H49" s="19">
+        <f t="shared" si="5"/>
+        <v>1784.8527441996252</v>
+      </c>
+      <c r="W49" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="X49" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B50" s="16">
+        <f t="shared" si="6"/>
+        <v>0.26327346479295538</v>
+      </c>
+      <c r="C50" s="17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D50" s="17">
+        <f t="shared" si="1"/>
+        <v>841.69819746940823</v>
+      </c>
+      <c r="E50" s="18">
+        <f t="shared" si="2"/>
+        <v>9.2145712677534387E-3</v>
+      </c>
+      <c r="F50" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G50" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H50" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B51" s="16">
+        <f t="shared" si="6"/>
+        <v>0.27643713803260317</v>
+      </c>
+      <c r="C51" s="17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D51" s="17">
+        <f t="shared" si="1"/>
+        <v>849.22478911360429</v>
+      </c>
+      <c r="E51" s="18">
+        <f t="shared" si="2"/>
+        <v>9.6752998311411108E-3</v>
+      </c>
+      <c r="F51" s="19">
+        <f t="shared" si="3"/>
+        <v>1509.6861727985615</v>
+      </c>
+      <c r="G51" s="19">
+        <f t="shared" si="4"/>
+        <v>1509.6861727985615</v>
+      </c>
+      <c r="H51" s="19">
+        <f t="shared" si="5"/>
+        <v>1509.6861727985615</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B52" s="16">
+        <f t="shared" si="6"/>
+        <v>0.29025899493423335</v>
+      </c>
+      <c r="C52" s="17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D52" s="17">
+        <f t="shared" si="1"/>
+        <v>779.96585016930533</v>
+      </c>
+      <c r="E52" s="18">
+        <f t="shared" si="2"/>
+        <v>1.0159064822698167E-2</v>
+      </c>
+      <c r="F52" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G52" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H52" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B53" s="16">
+        <f t="shared" si="6"/>
+        <v>0.30477194468094504</v>
+      </c>
+      <c r="C53" s="17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D53" s="17">
+        <f t="shared" si="1"/>
+        <v>787.07847927307057</v>
+      </c>
+      <c r="E53" s="18">
+        <f t="shared" si="2"/>
+        <v>1.0667018063833076E-2</v>
+      </c>
+      <c r="F53" s="19">
+        <f t="shared" si="3"/>
+        <v>1269.1222385192223</v>
+      </c>
+      <c r="G53" s="19">
+        <f t="shared" si="4"/>
+        <v>1269.1222385192223</v>
+      </c>
+      <c r="H53" s="19">
+        <f t="shared" si="5"/>
+        <v>1269.1222385192223</v>
+      </c>
+      <c r="W53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="X53" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B54" s="16">
+        <f t="shared" si="6"/>
+        <v>0.32001054191499229</v>
+      </c>
+      <c r="C54" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D54" s="17">
+        <f t="shared" si="1"/>
+        <v>717.5937354500204</v>
+      </c>
+      <c r="E54" s="18">
+        <f t="shared" si="2"/>
+        <v>1.120036896702473E-2</v>
+      </c>
+      <c r="F54" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G54" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H54" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W54" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="X54" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B55" s="16">
+        <f t="shared" si="6"/>
+        <v>0.3360110690107419</v>
+      </c>
+      <c r="C55" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D55" s="17">
+        <f t="shared" si="1"/>
+        <v>724.2289977158598</v>
+      </c>
+      <c r="E55" s="18">
+        <f t="shared" si="2"/>
+        <v>1.1760387415375967E-2</v>
+      </c>
+      <c r="F55" s="19">
+        <f t="shared" si="3"/>
+        <v>1059.2115991371497</v>
+      </c>
+      <c r="G55" s="19">
+        <f t="shared" si="4"/>
+        <v>1059.2115991371497</v>
+      </c>
+      <c r="H55" s="19">
+        <f t="shared" si="5"/>
+        <v>1059.2115991371497</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B56" s="16">
+        <f t="shared" si="6"/>
+        <v>0.35281162246127901</v>
+      </c>
+      <c r="C56" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D56" s="17">
+        <f t="shared" si="1"/>
+        <v>654.61497483797984</v>
+      </c>
+      <c r="E56" s="18">
+        <f t="shared" si="2"/>
+        <v>1.2348406786144767E-2</v>
+      </c>
+      <c r="F56" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G56" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H56" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B57" s="16">
+        <f t="shared" si="6"/>
+        <v>0.370452203584343</v>
+      </c>
+      <c r="C57" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D57" s="17">
+        <f t="shared" si="1"/>
+        <v>660.7111220447199</v>
+      </c>
+      <c r="E57" s="18">
+        <f t="shared" si="2"/>
+        <v>1.2965827125452006E-2</v>
+      </c>
+      <c r="F57" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G57" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H57" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B58" s="16">
+        <f t="shared" si="6"/>
+        <v>0.38897481376356019</v>
+      </c>
+      <c r="C58" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D58" s="17">
+        <f t="shared" si="1"/>
+        <v>667.11207661179685</v>
+      </c>
+      <c r="E58" s="18">
+        <f t="shared" si="2"/>
+        <v>1.3614118481724606E-2</v>
+      </c>
+      <c r="F58" s="19">
+        <f t="shared" si="3"/>
+        <v>842.82561027552936</v>
+      </c>
+      <c r="G58" s="19">
+        <f t="shared" si="4"/>
+        <v>842.82561027552936</v>
+      </c>
+      <c r="H58" s="19">
+        <f t="shared" si="5"/>
+        <v>842.82561027552936</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B59" s="16">
+        <f t="shared" si="6"/>
+        <v>0.40842355445173822</v>
+      </c>
+      <c r="C59" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D59" s="17">
+        <f t="shared" si="1"/>
+        <v>596.60292924352211</v>
+      </c>
+      <c r="E59" s="18">
+        <f t="shared" si="2"/>
+        <v>1.4294824405810837E-2</v>
+      </c>
+      <c r="F59" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G59" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H59" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B60" s="16">
+        <f t="shared" si="6"/>
+        <v>0.42884473217432517</v>
+      </c>
+      <c r="C60" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D60" s="17">
+        <f t="shared" si="1"/>
+        <v>602.37688121550582</v>
+      </c>
+      <c r="E60" s="18">
+        <f t="shared" si="2"/>
+        <v>1.5009565626101382E-2</v>
+      </c>
+      <c r="F60" s="19">
+        <f t="shared" si="3"/>
+        <v>690.28528972812512</v>
+      </c>
+      <c r="G60" s="19">
+        <f t="shared" si="4"/>
+        <v>690.28528972812512</v>
+      </c>
+      <c r="H60" s="19">
+        <f t="shared" si="5"/>
+        <v>690.28528972812512</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B61" s="16">
+        <f t="shared" si="6"/>
+        <v>0.45028696878304147</v>
+      </c>
+      <c r="C61" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D61" s="17">
+        <f t="shared" si="1"/>
+        <v>532.03658022102479</v>
+      </c>
+      <c r="E61" s="18">
+        <f t="shared" si="2"/>
+        <v>1.5760043907406453E-2</v>
+      </c>
+      <c r="F61" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G61" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H61" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B62" s="16">
+        <f t="shared" si="6"/>
+        <v>0.4728013172221936</v>
+      </c>
+      <c r="C62" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D62" s="17">
+        <f t="shared" si="1"/>
+        <v>537.12920586031453</v>
+      </c>
+      <c r="E62" s="18">
+        <f t="shared" si="2"/>
+        <v>1.6548046102776777E-2</v>
+      </c>
+      <c r="F62" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G62" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H62" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B63" s="16">
+        <f t="shared" si="6"/>
+        <v>0.49644138308330332</v>
+      </c>
+      <c r="C63" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D63" s="17">
+        <f t="shared" si="1"/>
+        <v>542.47646278156867</v>
+      </c>
+      <c r="E63" s="18">
+        <f t="shared" si="2"/>
+        <v>1.7375448407915616E-2</v>
+      </c>
+      <c r="F63" s="19">
+        <f t="shared" si="3"/>
+        <v>536.9988123927958</v>
+      </c>
+      <c r="G63" s="19">
+        <f t="shared" si="4"/>
+        <v>536.9988123927958</v>
+      </c>
+      <c r="H63" s="19">
+        <f t="shared" si="5"/>
+        <v>536.9988123927958</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B64" s="16">
+        <f t="shared" si="6"/>
+        <v>0.52126345223746851</v>
+      </c>
+      <c r="C64" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D64" s="17">
+        <f t="shared" si="1"/>
+        <v>471.57801979684268</v>
+      </c>
+      <c r="E64" s="18">
+        <f t="shared" si="2"/>
+        <v>1.8244220828311397E-2</v>
+      </c>
+      <c r="F64" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G64" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H64" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="16">
+        <f t="shared" si="6"/>
+        <v>0.54732662484934191</v>
+      </c>
+      <c r="C65" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D65" s="17">
+        <f t="shared" si="1"/>
+        <v>476.16329260681812</v>
+      </c>
+      <c r="E65" s="18">
+        <f t="shared" si="2"/>
+        <v>1.9156431869726966E-2</v>
+      </c>
+      <c r="F65" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G65" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H65" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="16">
+        <f t="shared" si="6"/>
+        <v>0.57469295609180904</v>
+      </c>
+      <c r="C66" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D66" s="17">
+        <f t="shared" si="1"/>
+        <v>480.9778290572923</v>
+      </c>
+      <c r="E66" s="18">
+        <f t="shared" si="2"/>
+        <v>2.0114253463213317E-2</v>
+      </c>
+      <c r="F66" s="19">
+        <f t="shared" si="3"/>
+        <v>411.29135987649119</v>
+      </c>
+      <c r="G66" s="19">
+        <f t="shared" si="4"/>
+        <v>411.29135987649119</v>
+      </c>
+      <c r="H66" s="19">
+        <f t="shared" si="5"/>
+        <v>411.29135987649119</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="16">
+        <f t="shared" si="6"/>
+        <v>0.60342760389639949</v>
+      </c>
+      <c r="C67" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D67" s="17">
+        <f t="shared" si="1"/>
+        <v>409.80977483987152</v>
+      </c>
+      <c r="E67" s="18">
+        <f t="shared" si="2"/>
+        <v>2.1119966136373982E-2</v>
+      </c>
+      <c r="F67" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G67" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H67" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="16">
+        <f t="shared" si="6"/>
+        <v>0.63359898409121951</v>
+      </c>
+      <c r="C68" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D68" s="17">
+        <f t="shared" si="1"/>
+        <v>413.79079466735743</v>
+      </c>
+      <c r="E68" s="18">
+        <f t="shared" si="2"/>
+        <v>2.2175964443192683E-2</v>
+      </c>
+      <c r="F68" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G68" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H68" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="16">
+        <f t="shared" si="6"/>
+        <v>0.66527893329578047</v>
+      </c>
+      <c r="C69" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D69" s="17">
+        <f t="shared" si="1"/>
+        <v>417.97086548621758</v>
+      </c>
+      <c r="E69" s="18">
+        <f t="shared" si="2"/>
+        <v>2.3284762665352319E-2</v>
+      </c>
+      <c r="F69" s="19">
+        <f t="shared" si="3"/>
+        <v>308.74692560471345</v>
+      </c>
+      <c r="G69" s="19">
+        <f t="shared" si="4"/>
+        <v>308.74692560471345</v>
+      </c>
+      <c r="H69" s="19">
+        <f t="shared" si="5"/>
+        <v>308.74692560471345</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="16">
+        <f t="shared" si="6"/>
+        <v>0.69854287996056952</v>
+      </c>
+      <c r="C70" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D70" s="17">
+        <f t="shared" si="1"/>
+        <v>346.97062691074018</v>
+      </c>
+      <c r="E70" s="18">
+        <f t="shared" si="2"/>
+        <v>2.4449000798619936E-2</v>
+      </c>
+      <c r="F70" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G70" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H70" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="16">
+        <f t="shared" si="6"/>
+        <v>0.73347002395859806</v>
+      </c>
+      <c r="C71" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D71" s="17">
+        <f t="shared" si="1"/>
+        <v>350.2624326805925</v>
+      </c>
+      <c r="E71" s="18">
+        <f t="shared" si="2"/>
+        <v>2.5671450838550932E-2</v>
+      </c>
+      <c r="F71" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G71" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H71" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="16">
+        <f t="shared" si="6"/>
+        <v>0.77014352515652795</v>
+      </c>
+      <c r="C72" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D72" s="17">
+        <f t="shared" si="1"/>
+        <v>353.71882873893753</v>
+      </c>
+      <c r="E72" s="18">
+        <f t="shared" si="2"/>
+        <v>2.695502338047848E-2</v>
+      </c>
+      <c r="F72" s="19">
+        <f t="shared" si="3"/>
+        <v>225.70797911887132</v>
+      </c>
+      <c r="G72" s="19">
+        <f t="shared" si="4"/>
+        <v>225.70797911887132</v>
+      </c>
+      <c r="H72" s="19">
+        <f t="shared" si="5"/>
+        <v>225.70797911887132</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="16">
+        <f t="shared" si="6"/>
+        <v>0.80865070141435436</v>
+      </c>
+      <c r="C73" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D73" s="17">
+        <f t="shared" si="1"/>
+        <v>283.5169853256204</v>
+      </c>
+      <c r="E73" s="18">
+        <f t="shared" si="2"/>
+        <v>2.8302774549502401E-2</v>
+      </c>
+      <c r="F73" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G73" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H73" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="16">
+        <f t="shared" si="6"/>
+        <v>0.84908323648507211</v>
+      </c>
+      <c r="C74" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D74" s="17">
+        <f t="shared" si="1"/>
+        <v>286.05743642850393</v>
+      </c>
+      <c r="E74" s="18">
+        <f t="shared" si="2"/>
+        <v>2.9717913276977523E-2</v>
+      </c>
+      <c r="F74" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G74" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H74" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="16">
+        <f t="shared" si="6"/>
+        <v>0.89153739830932577</v>
+      </c>
+      <c r="C75" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D75" s="17">
+        <f t="shared" si="1"/>
+        <v>288.72491008653174</v>
+      </c>
+      <c r="E75" s="18">
+        <f t="shared" si="2"/>
+        <v>3.1203808940826402E-2</v>
+      </c>
+      <c r="F75" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G75" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H75" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="16">
+        <f t="shared" si="6"/>
+        <v>0.93611426822479205</v>
+      </c>
+      <c r="C76" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D76" s="17">
+        <f t="shared" si="1"/>
+        <v>291.52575742746086</v>
+      </c>
+      <c r="E76" s="18">
+        <f t="shared" si="2"/>
+        <v>3.2763999387867719E-2</v>
+      </c>
+      <c r="F76" s="19">
+        <f t="shared" si="3"/>
+        <v>153.0412379878467</v>
+      </c>
+      <c r="G76" s="19">
+        <f t="shared" si="4"/>
+        <v>153.0412379878467</v>
+      </c>
+      <c r="H76" s="19">
+        <f t="shared" si="5"/>
+        <v>153.0412379878467</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="16">
+        <f t="shared" si="6"/>
+        <v>0.98291998163603167</v>
+      </c>
+      <c r="C77" s="17">
+        <f t="shared" ref="C77:C94" si="7">FLOOR(($C$8-2*$C$12+$C$13)/(B77+$C$13),1)</f>
+        <v>4</v>
+      </c>
+      <c r="D77" s="17">
+        <f t="shared" ref="D77:D94" si="8">C77*(2*$C$5+2*$C$8+2*PI()*($C$12+(C77-1)*B77/2+(C77-1)*$C$13/2))</f>
+        <v>221.96494387341573</v>
+      </c>
+      <c r="E77" s="18">
+        <f t="shared" ref="E77:E94" si="9">B77*$C$14/1000</f>
+        <v>3.4402199357261111E-2</v>
+      </c>
+      <c r="F77" s="19" t="str">
+        <f t="shared" ref="F77:F94" si="10">IF(C77=C78,"",$C$24*D77/E77*1000000)</f>
+        <v/>
+      </c>
+      <c r="G77" s="19" t="str">
+        <f t="shared" ref="G77:G94" si="11">IF(C77=C78,"",F77*$C$14/$C$15)</f>
+        <v/>
+      </c>
+      <c r="H77" s="19" t="str">
+        <f t="shared" ref="H77:H94" si="12">IF(C77=C78,"",F77*$C$14/$C$16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="16">
+        <f t="shared" si="6"/>
+        <v>1.0320659807178334</v>
+      </c>
+      <c r="C78" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="D78" s="17">
+        <f t="shared" si="8"/>
+        <v>223.81770438944037</v>
+      </c>
+      <c r="E78" s="18">
+        <f t="shared" si="9"/>
+        <v>3.6122309325124169E-2</v>
+      </c>
+      <c r="F78" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G78" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H78" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="16">
+        <f t="shared" si="6"/>
+        <v>1.0836692797537251</v>
+      </c>
+      <c r="C79" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="D79" s="17">
+        <f t="shared" si="8"/>
+        <v>225.76310293126622</v>
+      </c>
+      <c r="E79" s="18">
+        <f t="shared" si="9"/>
+        <v>3.792842479138038E-2</v>
+      </c>
+      <c r="F79" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G79" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H79" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="16">
+        <f t="shared" si="6"/>
+        <v>1.1378527437414114</v>
+      </c>
+      <c r="C80" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="D80" s="17">
+        <f t="shared" si="8"/>
+        <v>227.80577140018337</v>
+      </c>
+      <c r="E80" s="18">
+        <f t="shared" si="9"/>
+        <v>3.98248460309494E-2</v>
+      </c>
+      <c r="F80" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G80" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H80" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B81" s="16">
+        <f t="shared" si="6"/>
+        <v>1.194745380928482</v>
+      </c>
+      <c r="C81" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="D81" s="17">
+        <f t="shared" si="8"/>
+        <v>229.95057329254638</v>
+      </c>
+      <c r="E81" s="18">
+        <f t="shared" si="9"/>
+        <v>4.1816088332496865E-2</v>
+      </c>
+      <c r="F81" s="19">
+        <f t="shared" si="10"/>
+        <v>94.584405628349998</v>
+      </c>
+      <c r="G81" s="19">
+        <f t="shared" si="11"/>
+        <v>94.584405628349998</v>
+      </c>
+      <c r="H81" s="19">
+        <f t="shared" si="12"/>
+        <v>94.584405628349998</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B82" s="16">
+        <f t="shared" si="6"/>
+        <v>1.2544826499749062</v>
+      </c>
+      <c r="C82" s="17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="D82" s="17">
+        <f t="shared" si="8"/>
+        <v>161.38626323191764</v>
+      </c>
+      <c r="E82" s="18">
+        <f t="shared" si="9"/>
+        <v>4.3906892749121719E-2</v>
+      </c>
+      <c r="F82" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G82" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H82" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83" s="16">
+        <f t="shared" si="6"/>
+        <v>1.3172067824736515</v>
+      </c>
+      <c r="C83" s="17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="D83" s="17">
+        <f t="shared" si="8"/>
+        <v>162.56858527508277</v>
+      </c>
+      <c r="E83" s="18">
+        <f t="shared" si="9"/>
+        <v>4.6102237386577802E-2</v>
+      </c>
+      <c r="F83" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G83" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H83" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B84" s="16">
+        <f t="shared" si="6"/>
+        <v>1.3830671215973342</v>
+      </c>
+      <c r="C84" s="17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="D84" s="17">
+        <f t="shared" si="8"/>
+        <v>163.81002342040611</v>
+      </c>
+      <c r="E84" s="18">
+        <f t="shared" si="9"/>
+        <v>4.8407349255906701E-2</v>
+      </c>
+      <c r="F84" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G84" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H84" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B85" s="16">
+        <f t="shared" si="6"/>
+        <v>1.452220477677201</v>
+      </c>
+      <c r="C85" s="17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="D85" s="17">
+        <f t="shared" si="8"/>
+        <v>165.11353347299564</v>
+      </c>
+      <c r="E85" s="18">
+        <f t="shared" si="9"/>
+        <v>5.0827716718702037E-2</v>
+      </c>
+      <c r="F85" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G85" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H85" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B86" s="16">
+        <f t="shared" si="6"/>
+        <v>1.5248315015610612</v>
+      </c>
+      <c r="C86" s="17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="D86" s="17">
+        <f t="shared" si="8"/>
+        <v>166.48221902821467</v>
+      </c>
+      <c r="E86" s="18">
+        <f t="shared" si="9"/>
+        <v>5.3369102554637136E-2</v>
+      </c>
+      <c r="F86" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G86" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H86" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B87" s="16">
+        <f t="shared" si="6"/>
+        <v>1.6010730766391144</v>
+      </c>
+      <c r="C87" s="17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="D87" s="17">
+        <f t="shared" si="8"/>
+        <v>167.91933886119463</v>
+      </c>
+      <c r="E87" s="18">
+        <f t="shared" si="9"/>
+        <v>5.6037557682369003E-2</v>
+      </c>
+      <c r="F87" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G87" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H87" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B88" s="16">
+        <f t="shared" si="6"/>
+        <v>1.6811267304710702</v>
+      </c>
+      <c r="C88" s="17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="D88" s="17">
+        <f t="shared" si="8"/>
+        <v>169.42831468582358</v>
+      </c>
+      <c r="E88" s="18">
+        <f t="shared" si="9"/>
+        <v>5.8839435566487457E-2</v>
+      </c>
+      <c r="F88" s="19">
+        <f t="shared" si="10"/>
+        <v>49.527446763203756</v>
+      </c>
+      <c r="G88" s="19">
+        <f t="shared" si="11"/>
+        <v>49.527446763203756</v>
+      </c>
+      <c r="H88" s="19">
+        <f t="shared" si="12"/>
+        <v>49.527446763203756</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B89" s="16">
+        <f t="shared" si="6"/>
+        <v>1.7651830669946238</v>
+      </c>
+      <c r="C89" s="17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D89" s="17">
+        <f t="shared" si="8"/>
+        <v>102.28920202604854</v>
+      </c>
+      <c r="E89" s="18">
+        <f t="shared" si="9"/>
+        <v>6.1781407344811835E-2</v>
+      </c>
+      <c r="F89" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G89" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H89" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B90" s="16">
+        <f t="shared" si="6"/>
+        <v>1.853442220344355</v>
+      </c>
+      <c r="C90" s="17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D90" s="17">
+        <f t="shared" si="8"/>
+        <v>102.84375064159968</v>
+      </c>
+      <c r="E90" s="18">
+        <f t="shared" si="9"/>
+        <v>6.4870477712052427E-2</v>
+      </c>
+      <c r="F90" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G90" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H90" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B91" s="16">
+        <f t="shared" si="6"/>
+        <v>1.9461143313615727</v>
+      </c>
+      <c r="C91" s="17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D91" s="17">
+        <f t="shared" si="8"/>
+        <v>103.42602668792838</v>
+      </c>
+      <c r="E91" s="18">
+        <f t="shared" si="9"/>
+        <v>6.8114001597655044E-2</v>
+      </c>
+      <c r="F91" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G91" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H91" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B92" s="16">
+        <f t="shared" si="6"/>
+        <v>2.0434200479296516</v>
+      </c>
+      <c r="C92" s="17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D92" s="17">
+        <f t="shared" si="8"/>
+        <v>104.03741653657352</v>
+      </c>
+      <c r="E92" s="18">
+        <f t="shared" si="9"/>
+        <v>7.1519701677537809E-2</v>
+      </c>
+      <c r="F92" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G92" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H92" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B93" s="16">
+        <f t="shared" si="6"/>
+        <v>2.1455910503261344</v>
+      </c>
+      <c r="C93" s="17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D93" s="17">
+        <f t="shared" si="8"/>
+        <v>104.6793758776509</v>
+      </c>
+      <c r="E93" s="18">
+        <f t="shared" si="9"/>
+        <v>7.5095686761414704E-2</v>
+      </c>
+      <c r="F93" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G93" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H93" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B94" s="16">
+        <f t="shared" si="6"/>
+        <v>2.252870602842441</v>
+      </c>
+      <c r="C94" s="17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D94" s="17">
+        <f t="shared" si="8"/>
+        <v>105.35343318578217</v>
+      </c>
+      <c r="E94" s="18">
+        <f t="shared" si="9"/>
+        <v>7.8850471099485425E-2</v>
+      </c>
+      <c r="F94" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G94" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H94" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B95" s="16">
+        <f t="shared" ref="B95:B158" si="13">B94*(1+$B$26)</f>
+        <v>2.365514132984563</v>
+      </c>
+      <c r="C95" s="17">
+        <f t="shared" ref="C95:C130" si="14">FLOOR(($C$8-2*$C$12+$C$13)/(B95+$C$13),1)</f>
+        <v>2</v>
+      </c>
+      <c r="D95" s="17">
+        <f t="shared" ref="D95:D130" si="15">C95*(2*$C$5+2*$C$8+2*PI()*($C$12+(C95-1)*B95/2+(C95-1)*$C$13/2))</f>
+        <v>106.06119335931999</v>
+      </c>
+      <c r="E95" s="18">
+        <f t="shared" ref="E95:E130" si="16">B95*$C$14/1000</f>
+        <v>8.2792994654459703E-2</v>
+      </c>
+      <c r="F95" s="19" t="str">
+        <f t="shared" ref="F95:F130" si="17">IF(C95=C96,"",$C$24*D95/E95*1000000)</f>
+        <v/>
+      </c>
+      <c r="G95" s="19" t="str">
+        <f t="shared" ref="G95:G130" si="18">IF(C95=C96,"",F95*$C$14/$C$15)</f>
+        <v/>
+      </c>
+      <c r="H95" s="19" t="str">
+        <f t="shared" ref="H95:H130" si="19">IF(C95=C96,"",F95*$C$14/$C$16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B96" s="16">
+        <f t="shared" si="13"/>
+        <v>2.4837898396337912</v>
+      </c>
+      <c r="C96" s="17">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D96" s="17">
+        <f t="shared" si="15"/>
+        <v>106.8043415415347</v>
+      </c>
+      <c r="E96" s="18">
+        <f t="shared" si="16"/>
+        <v>8.6932644387182692E-2</v>
+      </c>
+      <c r="F96" s="19">
+        <f t="shared" si="17"/>
+        <v>21.131701301211635</v>
+      </c>
+      <c r="G96" s="19">
+        <f t="shared" si="18"/>
+        <v>21.131701301211635</v>
+      </c>
+      <c r="H96" s="19">
+        <f t="shared" si="19"/>
+        <v>21.131701301211635</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97" s="16">
+        <f t="shared" si="13"/>
+        <v>2.6079793316154807</v>
+      </c>
+      <c r="C97" s="17">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D97" s="17">
+        <f t="shared" si="15"/>
+        <v>45.284955592153878</v>
+      </c>
+      <c r="E97" s="18">
+        <f t="shared" si="16"/>
+        <v>9.1279276606541823E-2</v>
+      </c>
+      <c r="F97" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G97" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H97" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B98" s="16">
+        <f t="shared" si="13"/>
+        <v>2.7383782981962548</v>
+      </c>
+      <c r="C98" s="17">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D98" s="17">
+        <f t="shared" si="15"/>
+        <v>45.284955592153878</v>
+      </c>
+      <c r="E98" s="18">
+        <f t="shared" si="16"/>
+        <v>9.5843240436868912E-2</v>
+      </c>
+      <c r="F98" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G98" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H98" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99" s="16">
+        <f t="shared" si="13"/>
+        <v>2.8752972131060677</v>
+      </c>
+      <c r="C99" s="17">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D99" s="17">
+        <f t="shared" si="15"/>
+        <v>45.284955592153878</v>
+      </c>
+      <c r="E99" s="18">
+        <f t="shared" si="16"/>
+        <v>0.10063540245871236</v>
+      </c>
+      <c r="F99" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G99" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H99" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B100" s="16">
+        <f t="shared" si="13"/>
+        <v>3.0190620737613711</v>
+      </c>
+      <c r="C100" s="17">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D100" s="17">
+        <f t="shared" si="15"/>
+        <v>45.284955592153878</v>
+      </c>
+      <c r="E100" s="18">
+        <f t="shared" si="16"/>
+        <v>0.10566717258164798</v>
+      </c>
+      <c r="F100" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G100" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H100" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101" s="16">
+        <f t="shared" si="13"/>
+        <v>3.1700151774494398</v>
+      </c>
+      <c r="C101" s="17">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D101" s="17">
+        <f t="shared" si="15"/>
+        <v>45.284955592153878</v>
+      </c>
+      <c r="E101" s="18">
+        <f t="shared" si="16"/>
+        <v>0.11095053121073038</v>
+      </c>
+      <c r="F101" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G101" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H101" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B102" s="16">
+        <f t="shared" si="13"/>
+        <v>3.3285159363219119</v>
+      </c>
+      <c r="C102" s="17">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D102" s="17">
+        <f t="shared" si="15"/>
+        <v>45.284955592153878</v>
+      </c>
+      <c r="E102" s="18">
+        <f t="shared" si="16"/>
+        <v>0.11649805777126691</v>
+      </c>
+      <c r="F102" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G102" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H102" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B103" s="16">
+        <f t="shared" si="13"/>
+        <v>3.4949417331380075</v>
+      </c>
+      <c r="C103" s="17">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D103" s="17">
+        <f t="shared" si="15"/>
+        <v>45.284955592153878</v>
+      </c>
+      <c r="E103" s="18">
+        <f t="shared" si="16"/>
+        <v>0.12232296065983025</v>
+      </c>
+      <c r="F103" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G103" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H103" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B104" s="16">
+        <f t="shared" si="13"/>
+        <v>3.6696888197949078</v>
+      </c>
+      <c r="C104" s="17">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D104" s="17">
+        <f t="shared" si="15"/>
+        <v>45.284955592153878</v>
+      </c>
+      <c r="E104" s="18">
+        <f t="shared" si="16"/>
+        <v>0.12843910869282177</v>
+      </c>
+      <c r="F104" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G104" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H104" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B105" s="16">
+        <f t="shared" si="13"/>
+        <v>3.8531732607846534</v>
+      </c>
+      <c r="C105" s="17">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D105" s="17">
+        <f t="shared" si="15"/>
+        <v>45.284955592153878</v>
+      </c>
+      <c r="E105" s="18">
+        <f t="shared" si="16"/>
+        <v>0.13486106412746288</v>
+      </c>
+      <c r="F105" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G105" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H105" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B106" s="16">
+        <f t="shared" si="13"/>
+        <v>4.0458319238238865</v>
+      </c>
+      <c r="C106" s="17">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D106" s="17">
+        <f t="shared" si="15"/>
+        <v>45.284955592153878</v>
+      </c>
+      <c r="E106" s="18">
+        <f t="shared" si="16"/>
+        <v>0.14160411733383602</v>
+      </c>
+      <c r="F106" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G106" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H106" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B107" s="16">
+        <f t="shared" si="13"/>
+        <v>4.2481235200150813</v>
+      </c>
+      <c r="C107" s="17">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D107" s="17">
+        <f t="shared" si="15"/>
+        <v>45.284955592153878</v>
+      </c>
+      <c r="E107" s="18">
+        <f t="shared" si="16"/>
+        <v>0.14868432320052785</v>
+      </c>
+      <c r="F107" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G107" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H107" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B108" s="16">
+        <f t="shared" si="13"/>
+        <v>4.4605296960158354</v>
+      </c>
+      <c r="C108" s="17">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D108" s="17">
+        <f t="shared" si="15"/>
+        <v>45.284955592153878</v>
+      </c>
+      <c r="E108" s="18">
+        <f t="shared" si="16"/>
+        <v>0.15611853936055425</v>
+      </c>
+      <c r="F108" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G108" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H108" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B109" s="16">
+        <f t="shared" si="13"/>
+        <v>4.6835561808166277</v>
+      </c>
+      <c r="C109" s="17">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D109" s="17">
+        <f t="shared" si="15"/>
+        <v>45.284955592153878</v>
+      </c>
+      <c r="E109" s="18">
+        <f t="shared" si="16"/>
+        <v>0.16392446632858196</v>
+      </c>
+      <c r="F109" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G109" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H109" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B110" s="16">
+        <f t="shared" si="13"/>
+        <v>4.9177339898574592</v>
+      </c>
+      <c r="C110" s="17">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D110" s="17">
+        <f t="shared" si="15"/>
+        <v>45.284955592153878</v>
+      </c>
+      <c r="E110" s="18">
+        <f t="shared" si="16"/>
+        <v>0.17212068964501109</v>
+      </c>
+      <c r="F110" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G110" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H110" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B111" s="16">
+        <f t="shared" si="13"/>
+        <v>5.1636206893503322</v>
+      </c>
+      <c r="C111" s="17">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D111" s="17">
+        <f t="shared" si="15"/>
+        <v>45.284955592153878</v>
+      </c>
+      <c r="E111" s="18">
+        <f t="shared" si="16"/>
+        <v>0.18072672412726162</v>
+      </c>
+      <c r="F111" s="19">
+        <f t="shared" si="17"/>
+        <v>4.3098287757186968</v>
+      </c>
+      <c r="G111" s="19">
+        <f t="shared" si="18"/>
+        <v>4.3098287757186968</v>
+      </c>
+      <c r="H111" s="19">
+        <f t="shared" si="19"/>
+        <v>4.3098287757186968</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B112" s="16">
+        <f t="shared" si="13"/>
+        <v>5.4218017238178495</v>
+      </c>
+      <c r="C112" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D112" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E112" s="18">
+        <f t="shared" si="16"/>
+        <v>0.18976306033362472</v>
+      </c>
+      <c r="F112" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G112" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H112" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B113" s="16">
+        <f t="shared" si="13"/>
+        <v>5.6928918100087422</v>
+      </c>
+      <c r="C113" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D113" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E113" s="18">
+        <f t="shared" si="16"/>
+        <v>0.19925121335030599</v>
+      </c>
+      <c r="F113" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G113" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H113" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B114" s="16">
+        <f t="shared" si="13"/>
+        <v>5.9775364005091793</v>
+      </c>
+      <c r="C114" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D114" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E114" s="18">
+        <f t="shared" si="16"/>
+        <v>0.20921377401782126</v>
+      </c>
+      <c r="F114" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G114" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H114" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B115" s="16">
+        <f t="shared" si="13"/>
+        <v>6.2764132205346383</v>
+      </c>
+      <c r="C115" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D115" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E115" s="18">
+        <f t="shared" si="16"/>
+        <v>0.21967446271871233</v>
+      </c>
+      <c r="F115" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G115" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H115" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B116" s="16">
+        <f t="shared" si="13"/>
+        <v>6.5902338815613701</v>
+      </c>
+      <c r="C116" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D116" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E116" s="18">
+        <f t="shared" si="16"/>
+        <v>0.23065818585464798</v>
+      </c>
+      <c r="F116" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G116" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H116" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B117" s="16">
+        <f t="shared" si="13"/>
+        <v>6.919745575639439</v>
+      </c>
+      <c r="C117" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D117" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E117" s="18">
+        <f t="shared" si="16"/>
+        <v>0.24219109514738035</v>
+      </c>
+      <c r="F117" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G117" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H117" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B118" s="16">
+        <f t="shared" si="13"/>
+        <v>7.2657328544214117</v>
+      </c>
+      <c r="C118" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D118" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E118" s="18">
+        <f t="shared" si="16"/>
+        <v>0.25430064990474943</v>
+      </c>
+      <c r="F118" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G118" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H118" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B119" s="16">
+        <f t="shared" si="13"/>
+        <v>7.6290194971424823</v>
+      </c>
+      <c r="C119" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D119" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E119" s="18">
+        <f t="shared" si="16"/>
+        <v>0.26701568239998685</v>
+      </c>
+      <c r="F119" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G119" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H119" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B120" s="16">
+        <f t="shared" si="13"/>
+        <v>8.0104704719996072</v>
+      </c>
+      <c r="C120" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D120" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E120" s="18">
+        <f t="shared" si="16"/>
+        <v>0.28036646651998626</v>
+      </c>
+      <c r="F120" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G120" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H120" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B121" s="16">
+        <f t="shared" si="13"/>
+        <v>8.410993995599588</v>
+      </c>
+      <c r="C121" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D121" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E121" s="18">
+        <f t="shared" si="16"/>
+        <v>0.29438478984598559</v>
+      </c>
+      <c r="F121" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G121" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H121" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B122" s="16">
+        <f t="shared" si="13"/>
+        <v>8.8315436953795672</v>
+      </c>
+      <c r="C122" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D122" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E122" s="18">
+        <f t="shared" si="16"/>
+        <v>0.30910402933828485</v>
+      </c>
+      <c r="F122" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G122" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H122" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B123" s="16">
+        <f t="shared" si="13"/>
+        <v>9.2731208801485465</v>
+      </c>
+      <c r="C123" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D123" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E123" s="18">
+        <f t="shared" si="16"/>
+        <v>0.32455923080519916</v>
+      </c>
+      <c r="F123" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G123" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H123" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B124" s="16">
+        <f t="shared" si="13"/>
+        <v>9.7367769241559738</v>
+      </c>
+      <c r="C124" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D124" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E124" s="18">
+        <f t="shared" si="16"/>
+        <v>0.34078719234545907</v>
+      </c>
+      <c r="F124" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G124" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H124" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B125" s="16">
+        <f t="shared" si="13"/>
+        <v>10.223615770363773</v>
+      </c>
+      <c r="C125" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D125" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E125" s="18">
+        <f t="shared" si="16"/>
+        <v>0.35782655196273211</v>
+      </c>
+      <c r="F125" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G125" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H125" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B126" s="16">
+        <f t="shared" si="13"/>
+        <v>10.734796558881962</v>
+      </c>
+      <c r="C126" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D126" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E126" s="18">
+        <f t="shared" si="16"/>
+        <v>0.37571787956086866</v>
+      </c>
+      <c r="F126" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G126" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H126" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B127" s="16">
+        <f t="shared" si="13"/>
+        <v>11.27153638682606</v>
+      </c>
+      <c r="C127" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D127" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E127" s="18">
+        <f t="shared" si="16"/>
+        <v>0.39450377353891214</v>
+      </c>
+      <c r="F127" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G127" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H127" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B128" s="16">
+        <f t="shared" si="13"/>
+        <v>11.835113206167364</v>
+      </c>
+      <c r="C128" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D128" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E128" s="18">
+        <f t="shared" si="16"/>
+        <v>0.41422896221585775</v>
+      </c>
+      <c r="F128" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G128" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H128" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B129" s="16">
+        <f t="shared" si="13"/>
+        <v>12.426868866475733</v>
+      </c>
+      <c r="C129" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D129" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E129" s="18">
+        <f t="shared" si="16"/>
+        <v>0.43494041032665065</v>
+      </c>
+      <c r="F129" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G129" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H129" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B130" s="16">
+        <f t="shared" si="13"/>
+        <v>13.048212309799521</v>
+      </c>
+      <c r="C130" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D130" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E130" s="18">
+        <f t="shared" si="16"/>
+        <v>0.45668743084298324</v>
+      </c>
+      <c r="F130" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G130" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H130" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B131" s="16">
+        <f t="shared" si="13"/>
+        <v>13.700622925289498</v>
+      </c>
+      <c r="C131" s="17">
+        <f t="shared" ref="C131:C194" si="20">FLOOR(($C$8-2*$C$12+$C$13)/(B131+$C$13),1)</f>
+        <v>0</v>
+      </c>
+      <c r="D131" s="17">
+        <f t="shared" ref="D131:D194" si="21">C131*(2*$C$5+2*$C$8+2*PI()*($C$12+(C131-1)*B131/2+(C131-1)*$C$13/2))</f>
+        <v>0</v>
+      </c>
+      <c r="E131" s="18">
+        <f t="shared" ref="E131:E194" si="22">B131*$C$14/1000</f>
+        <v>0.47952180238513237</v>
+      </c>
+      <c r="F131" s="19" t="str">
+        <f t="shared" ref="F131:F194" si="23">IF(C131=C132,"",$C$24*D131/E131*1000000)</f>
+        <v/>
+      </c>
+      <c r="G131" s="19" t="str">
+        <f t="shared" ref="G131:G194" si="24">IF(C131=C132,"",F131*$C$14/$C$15)</f>
+        <v/>
+      </c>
+      <c r="H131" s="19" t="str">
+        <f t="shared" ref="H131:H194" si="25">IF(C131=C132,"",F131*$C$14/$C$16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B132" s="16">
+        <f t="shared" si="13"/>
+        <v>14.385654071553972</v>
+      </c>
+      <c r="C132" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D132" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E132" s="18">
+        <f t="shared" si="22"/>
+        <v>0.50349789250438903</v>
+      </c>
+      <c r="F132" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G132" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H132" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B133" s="16">
+        <f t="shared" si="13"/>
+        <v>15.104936775131671</v>
+      </c>
+      <c r="C133" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D133" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E133" s="18">
+        <f t="shared" si="22"/>
+        <v>0.52867278712960852</v>
+      </c>
+      <c r="F133" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G133" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H133" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B134" s="16">
+        <f t="shared" si="13"/>
+        <v>15.860183613888255</v>
+      </c>
+      <c r="C134" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D134" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E134" s="18">
+        <f t="shared" si="22"/>
+        <v>0.55510642648608899</v>
+      </c>
+      <c r="F134" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G134" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H134" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B135" s="16">
+        <f t="shared" si="13"/>
+        <v>16.653192794582669</v>
+      </c>
+      <c r="C135" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D135" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E135" s="18">
+        <f t="shared" si="22"/>
+        <v>0.58286174781039335</v>
+      </c>
+      <c r="F135" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G135" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H135" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B136" s="16">
+        <f t="shared" si="13"/>
+        <v>17.485852434311802</v>
+      </c>
+      <c r="C136" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D136" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E136" s="18">
+        <f t="shared" si="22"/>
+        <v>0.61200483520091298</v>
+      </c>
+      <c r="F136" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G136" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H136" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B137" s="16">
+        <f t="shared" si="13"/>
+        <v>18.360145056027392</v>
+      </c>
+      <c r="C137" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D137" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E137" s="18">
+        <f t="shared" si="22"/>
+        <v>0.6426050769609587</v>
+      </c>
+      <c r="F137" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G137" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H137" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B138" s="16">
+        <f t="shared" si="13"/>
+        <v>19.278152308828762</v>
+      </c>
+      <c r="C138" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D138" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E138" s="18">
+        <f t="shared" si="22"/>
+        <v>0.67473533080900661</v>
+      </c>
+      <c r="F138" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G138" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H138" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B139" s="16">
+        <f t="shared" si="13"/>
+        <v>20.242059924270201</v>
+      </c>
+      <c r="C139" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D139" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E139" s="18">
+        <f t="shared" si="22"/>
+        <v>0.70847209734945704</v>
+      </c>
+      <c r="F139" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G139" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H139" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B140" s="16">
+        <f t="shared" si="13"/>
+        <v>21.254162920483711</v>
+      </c>
+      <c r="C140" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D140" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E140" s="18">
+        <f t="shared" si="22"/>
+        <v>0.74389570221692991</v>
+      </c>
+      <c r="F140" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G140" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H140" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B141" s="16">
+        <f t="shared" si="13"/>
+        <v>22.316871066507897</v>
+      </c>
+      <c r="C141" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D141" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E141" s="18">
+        <f t="shared" si="22"/>
+        <v>0.78109048732777642</v>
+      </c>
+      <c r="F141" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G141" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H141" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B142" s="16">
+        <f t="shared" si="13"/>
+        <v>23.432714619833291</v>
+      </c>
+      <c r="C142" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D142" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E142" s="18">
+        <f t="shared" si="22"/>
+        <v>0.8201450116941652</v>
+      </c>
+      <c r="F142" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G142" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H142" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B143" s="16">
+        <f t="shared" si="13"/>
+        <v>24.604350350824955</v>
+      </c>
+      <c r="C143" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D143" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E143" s="18">
+        <f t="shared" si="22"/>
+        <v>0.86115226227887343</v>
+      </c>
+      <c r="F143" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G143" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H143" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B144" s="16">
+        <f t="shared" si="13"/>
+        <v>25.834567868366204</v>
+      </c>
+      <c r="C144" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D144" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E144" s="18">
+        <f t="shared" si="22"/>
+        <v>0.90420987539281716</v>
+      </c>
+      <c r="F144" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G144" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H144" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B145" s="16">
+        <f t="shared" si="13"/>
+        <v>27.126296261784514</v>
+      </c>
+      <c r="C145" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D145" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="18">
+        <f t="shared" si="22"/>
+        <v>0.94942036916245798</v>
+      </c>
+      <c r="F145" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G145" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H145" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B146" s="16">
+        <f t="shared" si="13"/>
+        <v>28.482611074873741</v>
+      </c>
+      <c r="C146" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D146" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E146" s="18">
+        <f t="shared" si="22"/>
+        <v>0.99689138762058094</v>
+      </c>
+      <c r="F146" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G146" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H146" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B147" s="16">
+        <f t="shared" si="13"/>
+        <v>29.906741628617429</v>
+      </c>
+      <c r="C147" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D147" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E147" s="18">
+        <f t="shared" si="22"/>
+        <v>1.0467359570016099</v>
+      </c>
+      <c r="F147" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G147" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H147" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B148" s="16">
+        <f t="shared" si="13"/>
+        <v>31.402078710048301</v>
+      </c>
+      <c r="C148" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D148" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E148" s="18">
+        <f t="shared" si="22"/>
+        <v>1.0990727548516905</v>
+      </c>
+      <c r="F148" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G148" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H148" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B149" s="16">
+        <f t="shared" si="13"/>
+        <v>32.972182645550717</v>
+      </c>
+      <c r="C149" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D149" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="18">
+        <f t="shared" si="22"/>
+        <v>1.1540263925942751</v>
+      </c>
+      <c r="F149" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G149" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H149" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B150" s="16">
+        <f t="shared" si="13"/>
+        <v>34.620791777828252</v>
+      </c>
+      <c r="C150" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D150" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E150" s="18">
+        <f t="shared" si="22"/>
+        <v>1.2117277122239889</v>
+      </c>
+      <c r="F150" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G150" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H150" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B151" s="16">
+        <f t="shared" si="13"/>
+        <v>36.351831366719665</v>
+      </c>
+      <c r="C151" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D151" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E151" s="18">
+        <f t="shared" si="22"/>
+        <v>1.2723140978351883</v>
+      </c>
+      <c r="F151" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G151" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H151" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B152" s="16">
+        <f t="shared" si="13"/>
+        <v>38.16942293505565</v>
+      </c>
+      <c r="C152" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D152" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E152" s="18">
+        <f t="shared" si="22"/>
+        <v>1.3359298027269479</v>
+      </c>
+      <c r="F152" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G152" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H152" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B153" s="16">
+        <f t="shared" si="13"/>
+        <v>40.077894081808431</v>
+      </c>
+      <c r="C153" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D153" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E153" s="18">
+        <f t="shared" si="22"/>
+        <v>1.4027262928632951</v>
+      </c>
+      <c r="F153" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G153" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H153" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B154" s="16">
+        <f t="shared" si="13"/>
+        <v>42.081788785898851</v>
+      </c>
+      <c r="C154" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D154" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E154" s="18">
+        <f t="shared" si="22"/>
+        <v>1.4728626075064599</v>
+      </c>
+      <c r="F154" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G154" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H154" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B155" s="16">
+        <f t="shared" si="13"/>
+        <v>44.185878225193797</v>
+      </c>
+      <c r="C155" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D155" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E155" s="18">
+        <f t="shared" si="22"/>
+        <v>1.5465057378817828</v>
+      </c>
+      <c r="F155" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G155" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H155" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B156" s="16">
+        <f t="shared" si="13"/>
+        <v>46.395172136453489</v>
+      </c>
+      <c r="C156" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D156" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E156" s="18">
+        <f t="shared" si="22"/>
+        <v>1.623831024775872</v>
+      </c>
+      <c r="F156" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G156" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H156" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B157" s="16">
+        <f t="shared" si="13"/>
+        <v>48.714930743276163</v>
+      </c>
+      <c r="C157" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D157" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E157" s="18">
+        <f t="shared" si="22"/>
+        <v>1.7050225760146658</v>
+      </c>
+      <c r="F157" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G157" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H157" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B158" s="16">
+        <f t="shared" si="13"/>
+        <v>51.150677280439972</v>
+      </c>
+      <c r="C158" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D158" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E158" s="18">
+        <f t="shared" si="22"/>
+        <v>1.7902737048153989</v>
+      </c>
+      <c r="F158" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G158" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H158" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B159" s="16">
+        <f t="shared" ref="B159:B214" si="26">B158*(1+$B$26)</f>
+        <v>53.70821114446197</v>
+      </c>
+      <c r="C159" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D159" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E159" s="18">
+        <f t="shared" si="22"/>
+        <v>1.879787390056169</v>
+      </c>
+      <c r="F159" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G159" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H159" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B160" s="16">
+        <f t="shared" si="26"/>
+        <v>56.39362170168507</v>
+      </c>
+      <c r="C160" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D160" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E160" s="18">
+        <f t="shared" si="22"/>
+        <v>1.9737767595589775</v>
+      </c>
+      <c r="F160" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G160" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H160" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B161" s="16">
+        <f t="shared" si="26"/>
+        <v>59.213302786769326</v>
+      </c>
+      <c r="C161" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D161" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E161" s="18">
+        <f t="shared" si="22"/>
+        <v>2.0724655975369264</v>
+      </c>
+      <c r="F161" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G161" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H161" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B162" s="16">
+        <f t="shared" si="26"/>
+        <v>62.173967926107792</v>
+      </c>
+      <c r="C162" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D162" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E162" s="18">
+        <f t="shared" si="22"/>
+        <v>2.1760888774137728</v>
+      </c>
+      <c r="F162" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G162" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H162" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B163" s="16">
+        <f t="shared" si="26"/>
+        <v>65.282666322413178</v>
+      </c>
+      <c r="C163" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D163" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E163" s="18">
+        <f t="shared" si="22"/>
+        <v>2.2848933212844611</v>
+      </c>
+      <c r="F163" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G163" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H163" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B164" s="16">
+        <f t="shared" si="26"/>
+        <v>68.546799638533841</v>
+      </c>
+      <c r="C164" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D164" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E164" s="18">
+        <f t="shared" si="22"/>
+        <v>2.3991379873486842</v>
+      </c>
+      <c r="F164" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G164" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H164" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B165" s="16">
+        <f t="shared" si="26"/>
+        <v>71.974139620460534</v>
+      </c>
+      <c r="C165" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D165" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E165" s="18">
+        <f t="shared" si="22"/>
+        <v>2.5190948867161187</v>
+      </c>
+      <c r="F165" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G165" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H165" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B166" s="16">
+        <f t="shared" si="26"/>
+        <v>75.572846601483562</v>
+      </c>
+      <c r="C166" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D166" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E166" s="18">
+        <f t="shared" si="22"/>
+        <v>2.6450496310519247</v>
+      </c>
+      <c r="F166" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G166" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H166" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B167" s="16">
+        <f t="shared" si="26"/>
+        <v>79.351488931557739</v>
+      </c>
+      <c r="C167" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D167" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E167" s="18">
+        <f t="shared" si="22"/>
+        <v>2.777302112604521</v>
+      </c>
+      <c r="F167" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G167" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H167" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B168" s="16">
+        <f t="shared" si="26"/>
+        <v>83.319063378135624</v>
+      </c>
+      <c r="C168" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D168" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E168" s="18">
+        <f t="shared" si="22"/>
+        <v>2.9161672182347469</v>
+      </c>
+      <c r="F168" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G168" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H168" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B169" s="16">
+        <f t="shared" si="26"/>
+        <v>87.485016547042406</v>
+      </c>
+      <c r="C169" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D169" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E169" s="18">
+        <f t="shared" si="22"/>
+        <v>3.061975579146484</v>
+      </c>
+      <c r="F169" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G169" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H169" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B170" s="16">
+        <f t="shared" si="26"/>
+        <v>91.859267374394534</v>
+      </c>
+      <c r="C170" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D170" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E170" s="18">
+        <f t="shared" si="22"/>
+        <v>3.2150743581038088</v>
+      </c>
+      <c r="F170" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G170" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H170" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B171" s="16">
+        <f t="shared" si="26"/>
+        <v>96.452230743114271</v>
+      </c>
+      <c r="C171" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D171" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E171" s="18">
+        <f t="shared" si="22"/>
+        <v>3.3758280760089998</v>
+      </c>
+      <c r="F171" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G171" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H171" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B172" s="16">
+        <f t="shared" si="26"/>
+        <v>101.27484228026999</v>
+      </c>
+      <c r="C172" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D172" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E172" s="18">
+        <f t="shared" si="22"/>
+        <v>3.5446194798094499</v>
+      </c>
+      <c r="F172" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G172" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H172" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B173" s="16">
+        <f t="shared" si="26"/>
+        <v>106.3385843942835</v>
+      </c>
+      <c r="C173" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D173" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E173" s="18">
+        <f t="shared" si="22"/>
+        <v>3.7218504537999224</v>
+      </c>
+      <c r="F173" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G173" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H173" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B174" s="16">
+        <f t="shared" si="26"/>
+        <v>111.65551361399768</v>
+      </c>
+      <c r="C174" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D174" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E174" s="18">
+        <f t="shared" si="22"/>
+        <v>3.907942976489919</v>
+      </c>
+      <c r="F174" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G174" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H174" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B175" s="16">
+        <f t="shared" si="26"/>
+        <v>117.23828929469757</v>
+      </c>
+      <c r="C175" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D175" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E175" s="18">
+        <f t="shared" si="22"/>
+        <v>4.1033401253144151</v>
+      </c>
+      <c r="F175" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G175" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H175" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B176" s="16">
+        <f t="shared" si="26"/>
+        <v>123.10020375943245</v>
+      </c>
+      <c r="C176" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D176" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E176" s="18">
+        <f t="shared" si="22"/>
+        <v>4.3085071315801358</v>
+      </c>
+      <c r="F176" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G176" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H176" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B177" s="16">
+        <f t="shared" si="26"/>
+        <v>129.25521394740409</v>
+      </c>
+      <c r="C177" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D177" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E177" s="18">
+        <f t="shared" si="22"/>
+        <v>4.5239324881591427</v>
+      </c>
+      <c r="F177" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G177" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H177" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B178" s="16">
+        <f t="shared" si="26"/>
+        <v>135.7179746447743</v>
+      </c>
+      <c r="C178" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D178" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E178" s="18">
+        <f t="shared" si="22"/>
+        <v>4.7501291125671008</v>
+      </c>
+      <c r="F178" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G178" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H178" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B179" s="16">
+        <f t="shared" si="26"/>
+        <v>142.50387337701304</v>
+      </c>
+      <c r="C179" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D179" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E179" s="18">
+        <f t="shared" si="22"/>
+        <v>4.9876355681954561</v>
+      </c>
+      <c r="F179" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G179" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H179" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B180" s="16">
+        <f t="shared" si="26"/>
+        <v>149.62906704586371</v>
+      </c>
+      <c r="C180" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D180" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E180" s="18">
+        <f t="shared" si="22"/>
+        <v>5.2370173466052305</v>
+      </c>
+      <c r="F180" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G180" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H180" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B181" s="16">
+        <f t="shared" si="26"/>
+        <v>157.11052039815689</v>
+      </c>
+      <c r="C181" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D181" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E181" s="18">
+        <f t="shared" si="22"/>
+        <v>5.4988682139354914</v>
+      </c>
+      <c r="F181" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G181" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H181" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B182" s="16">
+        <f t="shared" si="26"/>
+        <v>164.96604641806474</v>
+      </c>
+      <c r="C182" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D182" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E182" s="18">
+        <f t="shared" si="22"/>
+        <v>5.7738116246322662</v>
+      </c>
+      <c r="F182" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G182" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H182" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B183" s="16">
+        <f t="shared" si="26"/>
+        <v>173.21434873896797</v>
+      </c>
+      <c r="C183" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D183" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E183" s="18">
+        <f t="shared" si="22"/>
+        <v>6.0625022058638791</v>
+      </c>
+      <c r="F183" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G183" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H183" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B184" s="16">
+        <f t="shared" si="26"/>
+        <v>181.87506617591637</v>
+      </c>
+      <c r="C184" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D184" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E184" s="18">
+        <f t="shared" si="22"/>
+        <v>6.3656273161570738</v>
+      </c>
+      <c r="F184" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G184" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H184" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B185" s="16">
+        <f t="shared" si="26"/>
+        <v>190.96881948471221</v>
+      </c>
+      <c r="C185" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D185" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E185" s="18">
+        <f t="shared" si="22"/>
+        <v>6.6839086819649278</v>
+      </c>
+      <c r="F185" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G185" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H185" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B186" s="16">
+        <f t="shared" si="26"/>
+        <v>200.51726045894785</v>
+      </c>
+      <c r="C186" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D186" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E186" s="18">
+        <f t="shared" si="22"/>
+        <v>7.0181041160631752</v>
+      </c>
+      <c r="F186" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G186" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H186" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B187" s="16">
+        <f t="shared" si="26"/>
+        <v>210.54312348189524</v>
+      </c>
+      <c r="C187" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D187" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E187" s="18">
+        <f t="shared" si="22"/>
+        <v>7.3690093218663328</v>
+      </c>
+      <c r="F187" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G187" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H187" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B188" s="16">
+        <f t="shared" si="26"/>
+        <v>221.07027965599002</v>
+      </c>
+      <c r="C188" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D188" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E188" s="18">
+        <f t="shared" si="22"/>
+        <v>7.7374597879596507</v>
+      </c>
+      <c r="F188" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G188" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H188" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B189" s="16">
+        <f t="shared" si="26"/>
+        <v>232.12379363878952</v>
+      </c>
+      <c r="C189" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D189" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E189" s="18">
+        <f t="shared" si="22"/>
+        <v>8.1243327773576333</v>
+      </c>
+      <c r="F189" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G189" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H189" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B190" s="16">
+        <f t="shared" si="26"/>
+        <v>243.72998332072902</v>
+      </c>
+      <c r="C190" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D190" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E190" s="18">
+        <f t="shared" si="22"/>
+        <v>8.5305494162255169</v>
+      </c>
+      <c r="F190" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G190" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H190" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B191" s="16">
+        <f t="shared" si="26"/>
+        <v>255.91648248676549</v>
+      </c>
+      <c r="C191" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D191" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E191" s="18">
+        <f t="shared" si="22"/>
+        <v>8.9570768870367914</v>
+      </c>
+      <c r="F191" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G191" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H191" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B192" s="16">
+        <f t="shared" si="26"/>
+        <v>268.71230661110377</v>
+      </c>
+      <c r="C192" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D192" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E192" s="18">
+        <f t="shared" si="22"/>
+        <v>9.4049307313886317</v>
+      </c>
+      <c r="F192" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G192" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H192" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B193" s="16">
+        <f t="shared" si="26"/>
+        <v>282.14792194165898</v>
+      </c>
+      <c r="C193" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D193" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E193" s="18">
+        <f t="shared" si="22"/>
+        <v>9.8751772679580636</v>
+      </c>
+      <c r="F193" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G193" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H193" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B194" s="16">
+        <f t="shared" si="26"/>
+        <v>296.25531803874196</v>
+      </c>
+      <c r="C194" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D194" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E194" s="18">
+        <f t="shared" si="22"/>
+        <v>10.368936131355969</v>
+      </c>
+      <c r="F194" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G194" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H194" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B195" s="16">
+        <f t="shared" si="26"/>
+        <v>311.06808394067906</v>
+      </c>
+      <c r="C195" s="17">
+        <f t="shared" ref="C195:C214" si="27">FLOOR(($C$8-2*$C$12+$C$13)/(B195+$C$13),1)</f>
+        <v>0</v>
+      </c>
+      <c r="D195" s="17">
+        <f t="shared" ref="D195:D214" si="28">C195*(2*$C$5+2*$C$8+2*PI()*($C$12+(C195-1)*B195/2+(C195-1)*$C$13/2))</f>
+        <v>0</v>
+      </c>
+      <c r="E195" s="18">
+        <f t="shared" ref="E195:E214" si="29">B195*$C$14/1000</f>
+        <v>10.887382937923768</v>
+      </c>
+      <c r="F195" s="19" t="str">
+        <f t="shared" ref="F195:F214" si="30">IF(C195=C196,"",$C$24*D195/E195*1000000)</f>
+        <v/>
+      </c>
+      <c r="G195" s="19" t="str">
+        <f t="shared" ref="G195:G214" si="31">IF(C195=C196,"",F195*$C$14/$C$15)</f>
+        <v/>
+      </c>
+      <c r="H195" s="19" t="str">
+        <f t="shared" ref="H195:H214" si="32">IF(C195=C196,"",F195*$C$14/$C$16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B196" s="16">
+        <f t="shared" si="26"/>
+        <v>326.62148813771302</v>
+      </c>
+      <c r="C196" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D196" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E196" s="18">
+        <f t="shared" si="29"/>
+        <v>11.431752084819955</v>
+      </c>
+      <c r="F196" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G196" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H196" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B197" s="16">
+        <f t="shared" si="26"/>
+        <v>342.95256254459866</v>
+      </c>
+      <c r="C197" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D197" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E197" s="18">
+        <f t="shared" si="29"/>
+        <v>12.003339689060953</v>
+      </c>
+      <c r="F197" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G197" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H197" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B198" s="16">
+        <f t="shared" si="26"/>
+        <v>360.10019067182861</v>
+      </c>
+      <c r="C198" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D198" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E198" s="18">
+        <f t="shared" si="29"/>
+        <v>12.603506673514001</v>
+      </c>
+      <c r="F198" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G198" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H198" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B199" s="16">
+        <f t="shared" si="26"/>
+        <v>378.10520020542003</v>
+      </c>
+      <c r="C199" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D199" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E199" s="18">
+        <f t="shared" si="29"/>
+        <v>13.233682007189701</v>
+      </c>
+      <c r="F199" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G199" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H199" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B200" s="16">
+        <f t="shared" si="26"/>
+        <v>397.01046021569107</v>
+      </c>
+      <c r="C200" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D200" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E200" s="18">
+        <f t="shared" si="29"/>
+        <v>13.895366107549187</v>
+      </c>
+      <c r="F200" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G200" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H200" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B201" s="16">
+        <f t="shared" si="26"/>
+        <v>416.86098322647564</v>
+      </c>
+      <c r="C201" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D201" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E201" s="18">
+        <f t="shared" si="29"/>
+        <v>14.590134412926647</v>
+      </c>
+      <c r="F201" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G201" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H201" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B202" s="16">
+        <f t="shared" si="26"/>
+        <v>437.70403238779943</v>
+      </c>
+      <c r="C202" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D202" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E202" s="18">
+        <f t="shared" si="29"/>
+        <v>15.319641133572981</v>
+      </c>
+      <c r="F202" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G202" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H202" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B203" s="16">
+        <f t="shared" si="26"/>
+        <v>459.58923400718942</v>
+      </c>
+      <c r="C203" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D203" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E203" s="18">
+        <f t="shared" si="29"/>
+        <v>16.085623190251631</v>
+      </c>
+      <c r="F203" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G203" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H203" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B204" s="16">
+        <f t="shared" si="26"/>
+        <v>482.5686957075489</v>
+      </c>
+      <c r="C204" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D204" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E204" s="18">
+        <f t="shared" si="29"/>
+        <v>16.889904349764212</v>
+      </c>
+      <c r="F204" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G204" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H204" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B205" s="16">
+        <f t="shared" si="26"/>
+        <v>506.69713049292636</v>
+      </c>
+      <c r="C205" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D205" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E205" s="18">
+        <f t="shared" si="29"/>
+        <v>17.734399567252421</v>
+      </c>
+      <c r="F205" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G205" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H205" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B206" s="16">
+        <f t="shared" si="26"/>
+        <v>532.03198701757265</v>
+      </c>
+      <c r="C206" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D206" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E206" s="18">
+        <f t="shared" si="29"/>
+        <v>18.621119545615041</v>
+      </c>
+      <c r="F206" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G206" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H206" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B207" s="16">
+        <f t="shared" si="26"/>
+        <v>558.63358636845135</v>
+      </c>
+      <c r="C207" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D207" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E207" s="18">
+        <f t="shared" si="29"/>
+        <v>19.552175522895794</v>
+      </c>
+      <c r="F207" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G207" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H207" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B208" s="16">
+        <f t="shared" si="26"/>
+        <v>586.56526568687389</v>
+      </c>
+      <c r="C208" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D208" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E208" s="18">
+        <f t="shared" si="29"/>
+        <v>20.529784299040585</v>
+      </c>
+      <c r="F208" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G208" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H208" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B209" s="16">
+        <f t="shared" si="26"/>
+        <v>615.89352897121762</v>
+      </c>
+      <c r="C209" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D209" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E209" s="18">
+        <f t="shared" si="29"/>
+        <v>21.556273513992615</v>
+      </c>
+      <c r="F209" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G209" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H209" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B210" s="16">
+        <f t="shared" si="26"/>
+        <v>646.68820541977857</v>
+      </c>
+      <c r="C210" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D210" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E210" s="18">
+        <f t="shared" si="29"/>
+        <v>22.634087189692252</v>
+      </c>
+      <c r="F210" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G210" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H210" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B211" s="16">
+        <f t="shared" si="26"/>
+        <v>679.02261569076757</v>
+      </c>
+      <c r="C211" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D211" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E211" s="18">
+        <f t="shared" si="29"/>
+        <v>23.765791549176864</v>
+      </c>
+      <c r="F211" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G211" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H211" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B212" s="16">
+        <f t="shared" si="26"/>
+        <v>712.97374647530603</v>
+      </c>
+      <c r="C212" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D212" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E212" s="18">
+        <f t="shared" si="29"/>
+        <v>24.954081126635714</v>
+      </c>
+      <c r="F212" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G212" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H212" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B213" s="16">
+        <f t="shared" si="26"/>
+        <v>748.62243379907136</v>
+      </c>
+      <c r="C213" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D213" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E213" s="18">
+        <f t="shared" si="29"/>
+        <v>26.201785182967498</v>
+      </c>
+      <c r="F213" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G213" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H213" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B214" s="16">
+        <f t="shared" si="26"/>
+        <v>786.05355548902492</v>
+      </c>
+      <c r="C214" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D214" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E214" s="18">
+        <f t="shared" si="29"/>
+        <v>27.511874442115875</v>
+      </c>
+      <c r="F214" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G214" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H214" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L15:L17">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8CCB5FF1-03A1-4A2C-B300-BAF3AFAE7D75}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23 L21 L25">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{257AE739-1E31-4455-BCD2-27703E3ED7B1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8CCB5FF1-03A1-4A2C-B300-BAF3AFAE7D75}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L15:L17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{257AE739-1E31-4455-BCD2-27703E3ED7B1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L23 L21 L25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCACB57-2272-4DED-A779-F191F701A3DD}">
-  <dimension ref="A2:Z84"/>
+  <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4324,7 +11397,15 @@
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D1" s="65" t="s">
+        <v>191</v>
+      </c>
+    </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="65" t="s">
+        <v>190</v>
+      </c>
       <c r="K2" t="s">
         <v>51</v>
       </c>
@@ -4357,7 +11438,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="68" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -4369,13 +11450,13 @@
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -4401,7 +11482,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
@@ -4411,13 +11492,13 @@
       <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="11"/>
@@ -4444,7 +11525,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
@@ -4454,13 +11535,13 @@
       <c r="D5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="5"/>
       <c r="K5" s="8"/>
       <c r="L5" s="5"/>
@@ -4483,7 +11564,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="56"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
@@ -4493,13 +11574,13 @@
       <c r="D6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="5"/>
       <c r="K6" s="8"/>
       <c r="L6" s="5"/>
@@ -4527,7 +11608,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="13" t="s">
         <v>34</v>
       </c>
@@ -4537,13 +11618,13 @@
       <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -4573,7 +11654,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
@@ -4584,13 +11665,13 @@
       <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="74"/>
       <c r="J8" s="5"/>
       <c r="K8" s="20" t="s">
         <v>43</v>
@@ -4614,7 +11695,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="57"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
@@ -4623,13 +11704,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78"/>
       <c r="J9" s="5"/>
       <c r="K9" s="24" t="s">
         <v>44</v>
@@ -4667,11 +11748,11 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
       <c r="J10" s="5"/>
       <c r="K10" s="39" t="s">
         <v>60</v>
@@ -4707,11 +11788,11 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
       <c r="J11" s="5"/>
       <c r="K11" s="24" t="s">
         <v>46</v>
@@ -4745,7 +11826,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="68" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -4757,13 +11838,13 @@
       <c r="D12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72"/>
       <c r="J12" s="5"/>
       <c r="K12" s="28" t="s">
         <v>47</v>
@@ -4802,7 +11883,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="13" t="s">
         <v>21</v>
       </c>
@@ -4812,11 +11893,11 @@
       <c r="D13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="74"/>
       <c r="J13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -4843,7 +11924,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="66"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="13" t="s">
         <v>37</v>
       </c>
@@ -4853,11 +11934,11 @@
       <c r="D14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="74"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -4875,7 +11956,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="66"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="13" t="s">
         <v>38</v>
       </c>
@@ -4885,11 +11966,11 @@
       <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="72"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
       <c r="K15" s="20" t="s">
         <v>42</v>
       </c>
@@ -4915,7 +11996,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="13" t="s">
         <v>58</v>
       </c>
@@ -4925,11 +12006,11 @@
       <c r="D16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="72"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
       <c r="K16" s="24" t="s">
         <v>45</v>
       </c>
@@ -4945,7 +12026,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="14" t="s">
         <v>39</v>
       </c>
@@ -4953,11 +12034,11 @@
         <v>2</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="65"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="5"/>
       <c r="K17" s="24" t="s">
         <v>61</v>
@@ -4998,7 +12079,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="68" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -5010,13 +12091,13 @@
       <c r="D19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -5033,7 +12114,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="13" t="s">
         <v>12</v>
       </c>
@@ -5043,13 +12124,13 @@
       <c r="D20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="61"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="5"/>
       <c r="K20" s="20" t="s">
         <v>55</v>
@@ -5073,7 +12154,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="13" t="s">
         <v>14</v>
       </c>
@@ -5083,13 +12164,13 @@
       <c r="D21" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="61"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="74"/>
       <c r="J21" s="5"/>
       <c r="K21" s="33" t="s">
         <v>56</v>
@@ -5114,7 +12195,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="56"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="13" t="s">
         <v>23</v>
       </c>
@@ -5124,11 +12205,11 @@
       <c r="D22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="70"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="85"/>
       <c r="J22" s="6"/>
       <c r="K22" s="24" t="s">
         <v>62</v>
@@ -5152,7 +12233,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="57"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="14" t="s">
         <v>25</v>
       </c>
@@ -5162,11 +12243,11 @@
       <c r="D23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="78"/>
       <c r="J23" s="5"/>
       <c r="K23" s="33" t="s">
         <v>57</v>
@@ -5206,13 +12287,13 @@
       <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
       <c r="J24" s="6"/>
       <c r="K24" s="24" t="s">
         <v>63</v>
@@ -6849,6 +13930,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A12:A17"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="E9:I9"/>
@@ -6864,15 +13954,6 @@
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E16:I16"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A12:A17"/>
   </mergeCells>
   <conditionalFormatting sqref="L15:L17">
     <cfRule type="dataBar" priority="2">
@@ -6910,9 +13991,13 @@
       <formula1>"1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{1AC96FB4-422E-42F1-BC7F-0E88B4F9ED88}"/>
+    <hyperlink ref="D1" r:id="rId2" xr:uid="{38E07304-78CF-43DA-87DE-F1C7A65EC968}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -6948,12 +14033,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF03EE8-29D7-4019-8083-16EB681C1971}">
   <dimension ref="A2:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7008,7 +14093,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="68" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -7020,13 +14105,13 @@
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
       <c r="J3" s="48"/>
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
@@ -7045,14 +14130,14 @@
         <v>47</v>
       </c>
       <c r="X3" s="43">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="Y3" s="43" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="52" t="s">
         <v>3</v>
       </c>
@@ -7062,13 +14147,13 @@
       <c r="D4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="11"/>
@@ -7088,14 +14173,14 @@
         <v>111</v>
       </c>
       <c r="X4" s="43">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Y4" s="43" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="52" t="s">
         <v>1</v>
       </c>
@@ -7105,13 +14190,13 @@
       <c r="D5" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -7134,7 +14219,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="56"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="52" t="s">
         <v>0</v>
       </c>
@@ -7144,13 +14229,13 @@
       <c r="D6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
@@ -7170,14 +14255,14 @@
         <v>121</v>
       </c>
       <c r="X6" s="42">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="52" t="s">
         <v>34</v>
       </c>
@@ -7187,13 +14272,13 @@
       <c r="D7" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="53"/>
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
@@ -7213,7 +14298,7 @@
       </c>
       <c r="X7" s="42">
         <f>X3*X6/(X4*X2)*1000</f>
-        <v>249.71623155505108</v>
+        <v>316.19912437165561</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>125</v>
@@ -7223,7 +14308,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="52" t="s">
         <v>4</v>
       </c>
@@ -7234,13 +14319,13 @@
       <c r="D8" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="74"/>
       <c r="J8" s="48"/>
       <c r="K8" s="20" t="s">
         <v>43</v>
@@ -7264,7 +14349,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="57"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
@@ -7273,13 +14358,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78"/>
       <c r="J9" s="48"/>
       <c r="K9" s="24" t="s">
         <v>44</v>
@@ -7317,11 +14402,11 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
       <c r="J10" s="48"/>
       <c r="K10" s="39" t="s">
         <v>60</v>
@@ -7357,11 +14442,11 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
       <c r="J11" s="48"/>
       <c r="K11" s="24" t="s">
         <v>46</v>
@@ -7395,7 +14480,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="68" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -7407,13 +14492,13 @@
       <c r="D12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72"/>
       <c r="J12" s="48"/>
       <c r="K12" s="28" t="s">
         <v>47</v>
@@ -7452,7 +14537,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="52" t="s">
         <v>21</v>
       </c>
@@ -7462,11 +14547,11 @@
       <c r="D13" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="74"/>
       <c r="J13" s="48"/>
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
@@ -7493,7 +14578,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="66"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="52" t="s">
         <v>37</v>
       </c>
@@ -7503,11 +14588,11 @@
       <c r="D14" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="74"/>
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
       <c r="L14" s="48"/>
@@ -7525,7 +14610,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="66"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="52" t="s">
         <v>38</v>
       </c>
@@ -7535,16 +14620,16 @@
       <c r="D15" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="72"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
       <c r="K15" s="20" t="s">
         <v>42</v>
       </c>
       <c r="L15" s="21">
-        <f>_xlfn.XLOOKUP(L8,C28:C66,F28:F66,FALSE,0,-1)</f>
+        <f>_xlfn.XLOOKUP(L8,C28:C76,F28:F76,FALSE,0,-1)</f>
         <v>214.30496040749165</v>
       </c>
       <c r="M15" s="49" t="s">
@@ -7565,7 +14650,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="52" t="s">
         <v>58</v>
       </c>
@@ -7575,16 +14660,16 @@
       <c r="D16" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="72"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
       <c r="K16" s="24" t="s">
         <v>45</v>
       </c>
       <c r="L16" s="25">
-        <f>IF(C17&gt;1,_xlfn.XLOOKUP(L9,C28:C66,G28:G66,FALSE,0,-1),0)</f>
+        <f>IF(C17&gt;1,_xlfn.XLOOKUP(L9,C28:C76,G28:G76,FALSE,0,-1),0)</f>
         <v>214.30496040749165</v>
       </c>
       <c r="M16" s="45" t="s">
@@ -7595,7 +14680,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="14" t="s">
         <v>39</v>
       </c>
@@ -7603,17 +14688,17 @@
         <v>2</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="65"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="48"/>
       <c r="K17" s="24" t="s">
         <v>61</v>
       </c>
       <c r="L17" s="25">
-        <f>IF(C17&gt;2,_xlfn.XLOOKUP(L10,C28:C54,H28:H54,FALSE,0,-1),0)</f>
+        <f>IF(C17&gt;2,_xlfn.XLOOKUP(L10,C28:C76,H28:H76,FALSE,0,-1),0)</f>
         <v>0</v>
       </c>
       <c r="M17" s="45" t="s">
@@ -7648,7 +14733,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="68" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -7660,13 +14745,13 @@
       <c r="D19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="48"/>
       <c r="K19" s="48"/>
       <c r="L19" s="48"/>
@@ -7683,7 +14768,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="52" t="s">
         <v>12</v>
       </c>
@@ -7693,13 +14778,13 @@
       <c r="D20" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="61"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="48"/>
       <c r="K20" s="20" t="s">
         <v>55</v>
@@ -7723,7 +14808,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="52" t="s">
         <v>14</v>
       </c>
@@ -7733,13 +14818,13 @@
       <c r="D21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="61"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="74"/>
       <c r="J21" s="48"/>
       <c r="K21" s="33" t="s">
         <v>56</v>
@@ -7764,7 +14849,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="56"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="52" t="s">
         <v>23</v>
       </c>
@@ -7774,11 +14859,11 @@
       <c r="D22" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="70"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="85"/>
       <c r="J22" s="44"/>
       <c r="K22" s="24" t="s">
         <v>62</v>
@@ -7802,7 +14887,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="57"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="14" t="s">
         <v>25</v>
       </c>
@@ -7812,11 +14897,11 @@
       <c r="D23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="78"/>
       <c r="J23" s="48"/>
       <c r="K23" s="33" t="s">
         <v>57</v>
@@ -7856,13 +14941,13 @@
       <c r="D24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
       <c r="J24" s="44"/>
       <c r="K24" s="24" t="s">
         <v>63</v>
@@ -9571,13 +16656,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="A12:A17"/>
@@ -9587,14 +16673,13 @@
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E16:I16"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
   </mergeCells>
   <conditionalFormatting sqref="L15:L17">
     <cfRule type="dataBar" priority="2">
@@ -9662,7 +16747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D45F05-62BB-4D9F-A672-3298C8683E81}">
   <dimension ref="C2:AS32"/>
   <sheetViews>
@@ -10824,4 +17909,328 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B8DD30-5D78-4B94-A69D-8D9DF7F19F44}">
+  <dimension ref="C7:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="42">
+        <f>D7/D8</f>
+        <v>1.7647058823529411</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="42">
+        <f>D9/D10</f>
+        <v>2.3529411764705883</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11">
+        <f>D11/D12*1000</f>
+        <v>7.5414781297134237</v>
+      </c>
+      <c r="J11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="66">
+        <v>312</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <f>1/D12*1000</f>
+        <v>3.2051282051282048</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="42">
+        <f>SQRT(I11*2/D16)</f>
+        <v>0.43694793391749803</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="42">
+        <f>D16*D17/D15</f>
+        <v>1.150629559316078</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="10">
+        <f>D18/D13</f>
+        <v>0.3589964225066164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="42">
+        <f>-LN((D15-D17*D32)/D15)*D16/D32</f>
+        <v>1.2136043624335409</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C21" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="10">
+        <f>D20/D13</f>
+        <v>0.37864456107926481</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="41">
+        <f>D17/2*D21*1000</f>
+        <v>82.723979326341322</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="41">
+        <f>SQRT(D21/3)*D17*1000</f>
+        <v>155.2333122584167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="1">
+        <f>D23*D23*D30/1000*D8</f>
+        <v>81.931096198044955</v>
+      </c>
+      <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25">
+        <v>350</v>
+      </c>
+      <c r="E25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25">
+        <v>2.67</v>
+      </c>
+      <c r="L25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26">
+        <f>D25*D24/1000</f>
+        <v>28.675883669315734</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" t="s">
+        <v>212</v>
+      </c>
+      <c r="K26">
+        <f>(D15-D15*EXP(-D32*K25/D16))/D32</f>
+        <v>0.90291027641769062</v>
+      </c>
+      <c r="L26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" s="67" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" s="67" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="67" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32">
+        <f>SUM(D29:D31)</f>
+        <v>7</v>
+      </c>
+      <c r="E32" s="67" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Planar_XFMR/track_calc.xlsx
+++ b/Planar_XFMR/track_calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nxp1-my.sharepoint.com/personal/xavier_bourlot_nxp_com/Documents/Documents/Kicad/PCB_Kicad/Planar_XFMR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1659" documentId="8_{DD615B7A-EA43-4BF0-8AA8-17BECC04831E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{017723C2-A941-498F-A602-E19117EE683A}"/>
+  <xr:revisionPtr revIDLastSave="1748" documentId="8_{DD615B7A-EA43-4BF0-8AA8-17BECC04831E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A268F306-E374-4919-B6D1-11953948EAB5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{579F1847-482E-4316-B27D-C170499B655C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{579F1847-482E-4316-B27D-C170499B655C}"/>
   </bookViews>
   <sheets>
     <sheet name="EELP22" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="ER9.5-48V" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="ER11-48V" sheetId="6" r:id="rId6"/>
+    <sheet name="48V_design_measurements" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="270">
   <si>
     <t>Sw</t>
   </si>
@@ -728,6 +730,170 @@
   <si>
     <t>Trise MOS</t>
   </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t># turns on Layer 4</t>
+  </si>
+  <si>
+    <t>tot arc+segments</t>
+  </si>
+  <si>
+    <t>tot arc</t>
+  </si>
+  <si>
+    <t>tot arc/layer</t>
+  </si>
+  <si>
+    <t>longueur (mm)</t>
+  </si>
+  <si>
+    <t>angle (°)</t>
+  </si>
+  <si>
+    <t>rayon (mm)</t>
+  </si>
+  <si>
+    <t>segments courbes</t>
+  </si>
+  <si>
+    <t>total L1+L2</t>
+  </si>
+  <si>
+    <t>tot segments</t>
+  </si>
+  <si>
+    <t>Fin L2</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>Début L2</t>
+  </si>
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>segments droits</t>
+  </si>
+  <si>
+    <t>sec X HS</t>
+  </si>
+  <si>
+    <t>pri X LS</t>
+  </si>
+  <si>
+    <t>pri X HS</t>
+  </si>
+  <si>
+    <t>598 *2 in //</t>
+  </si>
+  <si>
+    <t>(L1-&gt;L2)//(L5-&gt;L6)</t>
+  </si>
+  <si>
+    <t>Current at 20°C rise</t>
+  </si>
+  <si>
+    <r>
+      <t>DCR (m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>length (mm)</t>
+  </si>
+  <si>
+    <t>width (mm)</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L1-&gt;L2-&gt;L5-&gt;L6 in series</t>
+  </si>
+  <si>
+    <t>tours</t>
+  </si>
+  <si>
+    <t>tot</t>
+  </si>
+  <si>
+    <t>pri1+pri2+feed</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>supply 75.6mm</t>
+  </si>
+  <si>
+    <t>pri1+pri2+supply</t>
+  </si>
+  <si>
+    <t>IN4</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>IN3</t>
+  </si>
+  <si>
+    <t>IN2</t>
+  </si>
+  <si>
+    <t>pri1+pri2</t>
+  </si>
+  <si>
+    <t>IN1</t>
+  </si>
+  <si>
+    <t>pri1+pri2+caps</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>48V</t>
+  </si>
 </sst>
 </file>
 
@@ -738,7 +904,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -774,6 +940,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -893,7 +1065,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -972,6 +1144,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -4105,8 +4288,8 @@
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>764401</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4082</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>40788</xdr:rowOff>
     </xdr:to>
@@ -4263,6 +4446,208 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>116205</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>96270</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>132163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98553B25-E173-485E-BA3F-083DBD474190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11527155" y="6621780"/>
+          <a:ext cx="7238115" cy="5397583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>163830</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95746</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>40788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A642FA-509B-4DA7-87CA-8F8B148F1EF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8041005" y="6587490"/>
+          <a:ext cx="3465691" cy="5911998"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>21961</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>15806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82E4306-1E34-48DD-81AA-CAF3A7F0C5C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11544300" y="12193905"/>
+          <a:ext cx="7146661" cy="4281101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>573413</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781929</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>98745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EE15A7-BE10-4FE1-AE5F-7D0AA3B5049B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="573413" y="14674215"/>
+          <a:ext cx="6923641" cy="2645730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4568,26 +4953,26 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="17.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="5.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="8.88671875" style="4"/>
-    <col min="23" max="23" width="13.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="8.85546875" style="4"/>
+    <col min="23" max="23" width="13.7109375" style="4" customWidth="1"/>
     <col min="24" max="24" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="4"/>
+    <col min="25" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K2" s="4" t="s">
         <v>51</v>
       </c>
@@ -4619,8 +5004,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+    <row r="3" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -4632,13 +5017,13 @@
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83"/>
       <c r="J3" s="62"/>
       <c r="K3" s="62"/>
       <c r="L3" s="62"/>
@@ -4663,8 +5048,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="80"/>
       <c r="B4" s="64" t="s">
         <v>3</v>
       </c>
@@ -4674,13 +5059,13 @@
       <c r="D4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="11"/>
@@ -4706,8 +5091,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="80"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -4717,13 +5102,13 @@
       <c r="D5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="74"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -4745,8 +5130,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="80"/>
       <c r="B6" s="64" t="s">
         <v>0</v>
       </c>
@@ -4756,13 +5141,13 @@
       <c r="D6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="85"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
@@ -4789,8 +5174,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="69"/>
+    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="80"/>
       <c r="B7" s="64" t="s">
         <v>34</v>
       </c>
@@ -4800,13 +5185,13 @@
       <c r="D7" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="76"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
       <c r="L7" s="59"/>
@@ -4835,8 +5220,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="80"/>
       <c r="B8" s="64" t="s">
         <v>4</v>
       </c>
@@ -4847,13 +5232,13 @@
       <c r="D8" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="74"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
       <c r="J8" s="62"/>
       <c r="K8" s="20" t="s">
         <v>43</v>
@@ -4876,8 +5261,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="70"/>
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="81"/>
       <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
@@ -4886,13 +5271,13 @@
         <v>30</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89"/>
       <c r="J9" s="62"/>
       <c r="K9" s="24" t="s">
         <v>44</v>
@@ -4929,12 +5314,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="62"/>
       <c r="K10" s="39" t="s">
         <v>60</v>
@@ -4969,12 +5354,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
       <c r="J11" s="62"/>
       <c r="K11" s="24" t="s">
         <v>46</v>
@@ -5007,8 +5392,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="68" t="s">
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="79" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -5020,13 +5405,13 @@
       <c r="D12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="72"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="83"/>
       <c r="J12" s="62"/>
       <c r="K12" s="28" t="s">
         <v>47</v>
@@ -5064,8 +5449,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="80"/>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="91"/>
       <c r="B13" s="64" t="s">
         <v>21</v>
       </c>
@@ -5075,13 +5460,13 @@
       <c r="D13" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
       <c r="J13" s="62"/>
       <c r="L13" s="62"/>
       <c r="M13" s="62"/>
@@ -5107,8 +5492,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="80"/>
+    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="91"/>
       <c r="B14" s="64" t="s">
         <v>37</v>
       </c>
@@ -5118,11 +5503,11 @@
       <c r="D14" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="85"/>
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
       <c r="L14" s="62"/>
@@ -5139,8 +5524,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="91"/>
       <c r="B15" s="64" t="s">
         <v>38</v>
       </c>
@@ -5150,11 +5535,11 @@
       <c r="D15" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="95"/>
       <c r="K15" s="20" t="s">
         <v>42</v>
       </c>
@@ -5179,8 +5564,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="91"/>
       <c r="B16" s="64" t="s">
         <v>58</v>
       </c>
@@ -5190,11 +5575,11 @@
       <c r="D16" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="95"/>
       <c r="K16" s="24" t="s">
         <v>45</v>
       </c>
@@ -5209,8 +5594,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="81"/>
+    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="92"/>
       <c r="B17" s="14" t="s">
         <v>39</v>
       </c>
@@ -5218,11 +5603,11 @@
         <v>1</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="89"/>
       <c r="J17" s="62"/>
       <c r="K17" s="24" t="s">
         <v>61</v>
@@ -5238,7 +5623,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="62"/>
       <c r="F18" s="62"/>
       <c r="G18" s="62"/>
@@ -5262,8 +5647,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="68" t="s">
+    <row r="19" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="79" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -5275,13 +5660,13 @@
       <c r="D19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="72"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="83"/>
       <c r="J19" s="62"/>
       <c r="K19" s="62"/>
       <c r="L19" s="62"/>
@@ -5297,8 +5682,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="80"/>
       <c r="B20" s="64" t="s">
         <v>12</v>
       </c>
@@ -5308,13 +5693,13 @@
       <c r="D20" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="74"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="85"/>
       <c r="J20" s="62"/>
       <c r="K20" s="20" t="s">
         <v>55</v>
@@ -5337,8 +5722,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="80"/>
       <c r="B21" s="64" t="s">
         <v>14</v>
       </c>
@@ -5348,13 +5733,13 @@
       <c r="D21" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="74"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="85"/>
       <c r="J21" s="62"/>
       <c r="K21" s="33" t="s">
         <v>56</v>
@@ -5378,8 +5763,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
       <c r="B22" s="64" t="s">
         <v>23</v>
       </c>
@@ -5389,11 +5774,11 @@
       <c r="D22" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="85"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="96"/>
       <c r="J22" s="61"/>
       <c r="K22" s="24" t="s">
         <v>62</v>
@@ -5416,8 +5801,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="70"/>
+    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="81"/>
       <c r="B23" s="14" t="s">
         <v>25</v>
       </c>
@@ -5427,11 +5812,11 @@
       <c r="D23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="78"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="89"/>
       <c r="J23" s="62"/>
       <c r="K23" s="33" t="s">
         <v>57</v>
@@ -5461,7 +5846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
@@ -5471,13 +5856,13 @@
       <c r="D24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
       <c r="J24" s="61"/>
       <c r="K24" s="24" t="s">
         <v>63</v>
@@ -5504,7 +5889,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="3"/>
       <c r="K25" s="28" t="s">
         <v>64</v>
@@ -5524,7 +5909,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>113</v>
       </c>
@@ -5538,7 +5923,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
         <v>30</v>
       </c>
@@ -5561,7 +5946,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="16">
         <f>C20</f>
         <v>0.09</v>
@@ -5597,7 +5982,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
         <f>B28*(1+$B$26)</f>
         <v>9.4500000000000001E-2</v>
@@ -5636,7 +6021,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="16">
         <f t="shared" ref="B30:B94" si="6">B29*(1+$B$26)</f>
         <v>9.9225000000000008E-2</v>
@@ -5672,7 +6057,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="16">
         <f t="shared" si="6"/>
         <v>0.10418625000000001</v>
@@ -5708,7 +6093,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="16">
         <f t="shared" si="6"/>
         <v>0.10939556250000002</v>
@@ -5738,7 +6123,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="16">
         <f t="shared" si="6"/>
         <v>0.11486534062500002</v>
@@ -5768,7 +6153,7 @@
         <v>6576.3293453391561</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="16">
         <f t="shared" si="6"/>
         <v>0.12060860765625003</v>
@@ -5798,7 +6183,7 @@
         <v>5987.2156795901974</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="16">
         <f t="shared" si="6"/>
         <v>0.12663903803906254</v>
@@ -5828,7 +6213,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="16">
         <f t="shared" si="6"/>
         <v>0.13297098994101567</v>
@@ -5861,7 +6246,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="16">
         <f t="shared" si="6"/>
         <v>0.13961953943806646</v>
@@ -5891,7 +6276,7 @@
         <v>4730.7692205695912</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="16">
         <f t="shared" si="6"/>
         <v>0.14660051640996979</v>
@@ -5927,7 +6312,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="16">
         <f t="shared" si="6"/>
         <v>0.15393054223046829</v>
@@ -5960,7 +6345,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="16">
         <f t="shared" si="6"/>
         <v>0.1616270693419917</v>
@@ -5996,7 +6381,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="16">
         <f t="shared" si="6"/>
         <v>0.16970842280909129</v>
@@ -6032,7 +6417,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="16">
         <f t="shared" si="6"/>
         <v>0.17819384394954588</v>
@@ -6068,7 +6453,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="16">
         <f t="shared" si="6"/>
         <v>0.18710353614702319</v>
@@ -6104,7 +6489,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B44" s="16">
         <f t="shared" si="6"/>
         <v>0.19645871295437436</v>
@@ -6140,7 +6525,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="16">
         <f t="shared" si="6"/>
         <v>0.20628164860209308</v>
@@ -6176,7 +6561,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46" s="16">
         <f t="shared" si="6"/>
         <v>0.21659573103219776</v>
@@ -6209,7 +6594,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B47" s="16">
         <f t="shared" si="6"/>
         <v>0.22742551758380766</v>
@@ -6245,7 +6630,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B48" s="16">
         <f t="shared" si="6"/>
         <v>0.23879679346299806</v>
@@ -6281,7 +6666,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" s="16">
         <f t="shared" si="6"/>
         <v>0.25073663313614797</v>
@@ -6317,7 +6702,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" s="16">
         <f t="shared" si="6"/>
         <v>0.26327346479295538</v>
@@ -6347,7 +6732,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="16">
         <f t="shared" si="6"/>
         <v>0.27643713803260317</v>
@@ -6377,7 +6762,7 @@
         <v>1509.6861727985615</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52" s="16">
         <f t="shared" si="6"/>
         <v>0.29025899493423335</v>
@@ -6407,7 +6792,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" s="16">
         <f t="shared" si="6"/>
         <v>0.30477194468094504</v>
@@ -6443,7 +6828,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" s="16">
         <f t="shared" si="6"/>
         <v>0.32001054191499229</v>
@@ -6479,7 +6864,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="16">
         <f t="shared" si="6"/>
         <v>0.3360110690107419</v>
@@ -6509,7 +6894,7 @@
         <v>1059.2115991371497</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" s="16">
         <f t="shared" si="6"/>
         <v>0.35281162246127901</v>
@@ -6539,7 +6924,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" s="16">
         <f t="shared" si="6"/>
         <v>0.370452203584343</v>
@@ -6569,7 +6954,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" s="16">
         <f t="shared" si="6"/>
         <v>0.38897481376356019</v>
@@ -6599,7 +6984,7 @@
         <v>842.82561027552936</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" s="16">
         <f t="shared" si="6"/>
         <v>0.40842355445173822</v>
@@ -6629,7 +7014,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" s="16">
         <f t="shared" si="6"/>
         <v>0.42884473217432517</v>
@@ -6659,7 +7044,7 @@
         <v>690.28528972812512</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61" s="16">
         <f t="shared" si="6"/>
         <v>0.45028696878304147</v>
@@ -6689,7 +7074,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62" s="16">
         <f t="shared" si="6"/>
         <v>0.4728013172221936</v>
@@ -6719,7 +7104,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B63" s="16">
         <f t="shared" si="6"/>
         <v>0.49644138308330332</v>
@@ -6749,7 +7134,7 @@
         <v>536.9988123927958</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B64" s="16">
         <f t="shared" si="6"/>
         <v>0.52126345223746851</v>
@@ -6779,7 +7164,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="16">
         <f t="shared" si="6"/>
         <v>0.54732662484934191</v>
@@ -6809,7 +7194,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="16">
         <f t="shared" si="6"/>
         <v>0.57469295609180904</v>
@@ -6839,7 +7224,7 @@
         <v>411.29135987649119</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="16">
         <f t="shared" si="6"/>
         <v>0.60342760389639949</v>
@@ -6869,7 +7254,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="16">
         <f t="shared" si="6"/>
         <v>0.63359898409121951</v>
@@ -6899,7 +7284,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="16">
         <f t="shared" si="6"/>
         <v>0.66527893329578047</v>
@@ -6929,7 +7314,7 @@
         <v>308.74692560471345</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="16">
         <f t="shared" si="6"/>
         <v>0.69854287996056952</v>
@@ -6959,7 +7344,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="16">
         <f t="shared" si="6"/>
         <v>0.73347002395859806</v>
@@ -6989,7 +7374,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="16">
         <f t="shared" si="6"/>
         <v>0.77014352515652795</v>
@@ -7019,7 +7404,7 @@
         <v>225.70797911887132</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="16">
         <f t="shared" si="6"/>
         <v>0.80865070141435436</v>
@@ -7049,7 +7434,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="16">
         <f t="shared" si="6"/>
         <v>0.84908323648507211</v>
@@ -7079,7 +7464,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="16">
         <f t="shared" si="6"/>
         <v>0.89153739830932577</v>
@@ -7109,7 +7494,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="16">
         <f t="shared" si="6"/>
         <v>0.93611426822479205</v>
@@ -7139,7 +7524,7 @@
         <v>153.0412379878467</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="16">
         <f t="shared" si="6"/>
         <v>0.98291998163603167</v>
@@ -7169,7 +7554,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="16">
         <f t="shared" si="6"/>
         <v>1.0320659807178334</v>
@@ -7199,7 +7584,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="16">
         <f t="shared" si="6"/>
         <v>1.0836692797537251</v>
@@ -7229,7 +7614,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="16">
         <f t="shared" si="6"/>
         <v>1.1378527437414114</v>
@@ -7259,7 +7644,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="16">
         <f t="shared" si="6"/>
         <v>1.194745380928482</v>
@@ -7289,7 +7674,7 @@
         <v>94.584405628349998</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="16">
         <f t="shared" si="6"/>
         <v>1.2544826499749062</v>
@@ -7319,7 +7704,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="16">
         <f t="shared" si="6"/>
         <v>1.3172067824736515</v>
@@ -7349,7 +7734,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="16">
         <f t="shared" si="6"/>
         <v>1.3830671215973342</v>
@@ -7379,7 +7764,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="16">
         <f t="shared" si="6"/>
         <v>1.452220477677201</v>
@@ -7409,7 +7794,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="16">
         <f t="shared" si="6"/>
         <v>1.5248315015610612</v>
@@ -7439,7 +7824,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="16">
         <f t="shared" si="6"/>
         <v>1.6010730766391144</v>
@@ -7469,7 +7854,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="16">
         <f t="shared" si="6"/>
         <v>1.6811267304710702</v>
@@ -7499,7 +7884,7 @@
         <v>49.527446763203756</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="16">
         <f t="shared" si="6"/>
         <v>1.7651830669946238</v>
@@ -7529,7 +7914,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="16">
         <f t="shared" si="6"/>
         <v>1.853442220344355</v>
@@ -7559,7 +7944,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="16">
         <f t="shared" si="6"/>
         <v>1.9461143313615727</v>
@@ -7589,7 +7974,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="16">
         <f t="shared" si="6"/>
         <v>2.0434200479296516</v>
@@ -7619,7 +8004,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="16">
         <f t="shared" si="6"/>
         <v>2.1455910503261344</v>
@@ -7649,7 +8034,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="16">
         <f t="shared" si="6"/>
         <v>2.252870602842441</v>
@@ -7679,7 +8064,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="16">
         <f t="shared" ref="B95:B158" si="13">B94*(1+$B$26)</f>
         <v>2.365514132984563</v>
@@ -7709,7 +8094,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="16">
         <f t="shared" si="13"/>
         <v>2.4837898396337912</v>
@@ -7739,7 +8124,7 @@
         <v>21.131701301211635</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="16">
         <f t="shared" si="13"/>
         <v>2.6079793316154807</v>
@@ -7769,7 +8154,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="16">
         <f t="shared" si="13"/>
         <v>2.7383782981962548</v>
@@ -7799,7 +8184,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="16">
         <f t="shared" si="13"/>
         <v>2.8752972131060677</v>
@@ -7829,7 +8214,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="16">
         <f t="shared" si="13"/>
         <v>3.0190620737613711</v>
@@ -7859,7 +8244,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="16">
         <f t="shared" si="13"/>
         <v>3.1700151774494398</v>
@@ -7889,7 +8274,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="16">
         <f t="shared" si="13"/>
         <v>3.3285159363219119</v>
@@ -7919,7 +8304,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="16">
         <f t="shared" si="13"/>
         <v>3.4949417331380075</v>
@@ -7949,7 +8334,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="16">
         <f t="shared" si="13"/>
         <v>3.6696888197949078</v>
@@ -7979,7 +8364,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="16">
         <f t="shared" si="13"/>
         <v>3.8531732607846534</v>
@@ -8009,7 +8394,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="16">
         <f t="shared" si="13"/>
         <v>4.0458319238238865</v>
@@ -8039,7 +8424,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="16">
         <f t="shared" si="13"/>
         <v>4.2481235200150813</v>
@@ -8069,7 +8454,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="16">
         <f t="shared" si="13"/>
         <v>4.4605296960158354</v>
@@ -8099,7 +8484,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="16">
         <f t="shared" si="13"/>
         <v>4.6835561808166277</v>
@@ -8129,7 +8514,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="16">
         <f t="shared" si="13"/>
         <v>4.9177339898574592</v>
@@ -8159,7 +8544,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="16">
         <f t="shared" si="13"/>
         <v>5.1636206893503322</v>
@@ -8189,7 +8574,7 @@
         <v>4.3098287757186968</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="16">
         <f t="shared" si="13"/>
         <v>5.4218017238178495</v>
@@ -8219,7 +8604,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="16">
         <f t="shared" si="13"/>
         <v>5.6928918100087422</v>
@@ -8249,7 +8634,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="16">
         <f t="shared" si="13"/>
         <v>5.9775364005091793</v>
@@ -8279,7 +8664,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="16">
         <f t="shared" si="13"/>
         <v>6.2764132205346383</v>
@@ -8309,7 +8694,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="16">
         <f t="shared" si="13"/>
         <v>6.5902338815613701</v>
@@ -8339,7 +8724,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="16">
         <f t="shared" si="13"/>
         <v>6.919745575639439</v>
@@ -8369,7 +8754,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="16">
         <f t="shared" si="13"/>
         <v>7.2657328544214117</v>
@@ -8399,7 +8784,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="16">
         <f t="shared" si="13"/>
         <v>7.6290194971424823</v>
@@ -8429,7 +8814,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="16">
         <f t="shared" si="13"/>
         <v>8.0104704719996072</v>
@@ -8459,7 +8844,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="16">
         <f t="shared" si="13"/>
         <v>8.410993995599588</v>
@@ -8489,7 +8874,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="16">
         <f t="shared" si="13"/>
         <v>8.8315436953795672</v>
@@ -8519,7 +8904,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="16">
         <f t="shared" si="13"/>
         <v>9.2731208801485465</v>
@@ -8549,7 +8934,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="16">
         <f t="shared" si="13"/>
         <v>9.7367769241559738</v>
@@ -8579,7 +8964,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="16">
         <f t="shared" si="13"/>
         <v>10.223615770363773</v>
@@ -8609,7 +8994,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="16">
         <f t="shared" si="13"/>
         <v>10.734796558881962</v>
@@ -8639,7 +9024,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="16">
         <f t="shared" si="13"/>
         <v>11.27153638682606</v>
@@ -8669,7 +9054,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="16">
         <f t="shared" si="13"/>
         <v>11.835113206167364</v>
@@ -8699,7 +9084,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="16">
         <f t="shared" si="13"/>
         <v>12.426868866475733</v>
@@ -8729,7 +9114,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="16">
         <f t="shared" si="13"/>
         <v>13.048212309799521</v>
@@ -8759,7 +9144,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="16">
         <f t="shared" si="13"/>
         <v>13.700622925289498</v>
@@ -8789,7 +9174,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="16">
         <f t="shared" si="13"/>
         <v>14.385654071553972</v>
@@ -8819,7 +9204,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="16">
         <f t="shared" si="13"/>
         <v>15.104936775131671</v>
@@ -8849,7 +9234,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="16">
         <f t="shared" si="13"/>
         <v>15.860183613888255</v>
@@ -8879,7 +9264,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="16">
         <f t="shared" si="13"/>
         <v>16.653192794582669</v>
@@ -8909,7 +9294,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="16">
         <f t="shared" si="13"/>
         <v>17.485852434311802</v>
@@ -8939,7 +9324,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="16">
         <f t="shared" si="13"/>
         <v>18.360145056027392</v>
@@ -8969,7 +9354,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="16">
         <f t="shared" si="13"/>
         <v>19.278152308828762</v>
@@ -8999,7 +9384,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="16">
         <f t="shared" si="13"/>
         <v>20.242059924270201</v>
@@ -9029,7 +9414,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="16">
         <f t="shared" si="13"/>
         <v>21.254162920483711</v>
@@ -9059,7 +9444,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="16">
         <f t="shared" si="13"/>
         <v>22.316871066507897</v>
@@ -9089,7 +9474,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="16">
         <f t="shared" si="13"/>
         <v>23.432714619833291</v>
@@ -9119,7 +9504,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="16">
         <f t="shared" si="13"/>
         <v>24.604350350824955</v>
@@ -9149,7 +9534,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="16">
         <f t="shared" si="13"/>
         <v>25.834567868366204</v>
@@ -9179,7 +9564,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="16">
         <f t="shared" si="13"/>
         <v>27.126296261784514</v>
@@ -9209,7 +9594,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="16">
         <f t="shared" si="13"/>
         <v>28.482611074873741</v>
@@ -9239,7 +9624,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="16">
         <f t="shared" si="13"/>
         <v>29.906741628617429</v>
@@ -9269,7 +9654,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" s="16">
         <f t="shared" si="13"/>
         <v>31.402078710048301</v>
@@ -9299,7 +9684,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="16">
         <f t="shared" si="13"/>
         <v>32.972182645550717</v>
@@ -9329,7 +9714,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" s="16">
         <f t="shared" si="13"/>
         <v>34.620791777828252</v>
@@ -9359,7 +9744,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="16">
         <f t="shared" si="13"/>
         <v>36.351831366719665</v>
@@ -9389,7 +9774,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="16">
         <f t="shared" si="13"/>
         <v>38.16942293505565</v>
@@ -9419,7 +9804,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" s="16">
         <f t="shared" si="13"/>
         <v>40.077894081808431</v>
@@ -9449,7 +9834,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="16">
         <f t="shared" si="13"/>
         <v>42.081788785898851</v>
@@ -9479,7 +9864,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="16">
         <f t="shared" si="13"/>
         <v>44.185878225193797</v>
@@ -9509,7 +9894,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="16">
         <f t="shared" si="13"/>
         <v>46.395172136453489</v>
@@ -9539,7 +9924,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="16">
         <f t="shared" si="13"/>
         <v>48.714930743276163</v>
@@ -9569,7 +9954,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" s="16">
         <f t="shared" si="13"/>
         <v>51.150677280439972</v>
@@ -9599,7 +9984,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="16">
         <f t="shared" ref="B159:B214" si="26">B158*(1+$B$26)</f>
         <v>53.70821114446197</v>
@@ -9629,7 +10014,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="16">
         <f t="shared" si="26"/>
         <v>56.39362170168507</v>
@@ -9659,7 +10044,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="16">
         <f t="shared" si="26"/>
         <v>59.213302786769326</v>
@@ -9689,7 +10074,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="16">
         <f t="shared" si="26"/>
         <v>62.173967926107792</v>
@@ -9719,7 +10104,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="16">
         <f t="shared" si="26"/>
         <v>65.282666322413178</v>
@@ -9749,7 +10134,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" s="16">
         <f t="shared" si="26"/>
         <v>68.546799638533841</v>
@@ -9779,7 +10164,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="16">
         <f t="shared" si="26"/>
         <v>71.974139620460534</v>
@@ -9809,7 +10194,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" s="16">
         <f t="shared" si="26"/>
         <v>75.572846601483562</v>
@@ -9839,7 +10224,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="16">
         <f t="shared" si="26"/>
         <v>79.351488931557739</v>
@@ -9869,7 +10254,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="16">
         <f t="shared" si="26"/>
         <v>83.319063378135624</v>
@@ -9899,7 +10284,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="16">
         <f t="shared" si="26"/>
         <v>87.485016547042406</v>
@@ -9929,7 +10314,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" s="16">
         <f t="shared" si="26"/>
         <v>91.859267374394534</v>
@@ -9959,7 +10344,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" s="16">
         <f t="shared" si="26"/>
         <v>96.452230743114271</v>
@@ -9989,7 +10374,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" s="16">
         <f t="shared" si="26"/>
         <v>101.27484228026999</v>
@@ -10019,7 +10404,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" s="16">
         <f t="shared" si="26"/>
         <v>106.3385843942835</v>
@@ -10049,7 +10434,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="16">
         <f t="shared" si="26"/>
         <v>111.65551361399768</v>
@@ -10079,7 +10464,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" s="16">
         <f t="shared" si="26"/>
         <v>117.23828929469757</v>
@@ -10109,7 +10494,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="16">
         <f t="shared" si="26"/>
         <v>123.10020375943245</v>
@@ -10139,7 +10524,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="16">
         <f t="shared" si="26"/>
         <v>129.25521394740409</v>
@@ -10169,7 +10554,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="16">
         <f t="shared" si="26"/>
         <v>135.7179746447743</v>
@@ -10199,7 +10584,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" s="16">
         <f t="shared" si="26"/>
         <v>142.50387337701304</v>
@@ -10229,7 +10614,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" s="16">
         <f t="shared" si="26"/>
         <v>149.62906704586371</v>
@@ -10259,7 +10644,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" s="16">
         <f t="shared" si="26"/>
         <v>157.11052039815689</v>
@@ -10289,7 +10674,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" s="16">
         <f t="shared" si="26"/>
         <v>164.96604641806474</v>
@@ -10319,7 +10704,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" s="16">
         <f t="shared" si="26"/>
         <v>173.21434873896797</v>
@@ -10349,7 +10734,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" s="16">
         <f t="shared" si="26"/>
         <v>181.87506617591637</v>
@@ -10379,7 +10764,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" s="16">
         <f t="shared" si="26"/>
         <v>190.96881948471221</v>
@@ -10409,7 +10794,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" s="16">
         <f t="shared" si="26"/>
         <v>200.51726045894785</v>
@@ -10439,7 +10824,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="16">
         <f t="shared" si="26"/>
         <v>210.54312348189524</v>
@@ -10469,7 +10854,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" s="16">
         <f t="shared" si="26"/>
         <v>221.07027965599002</v>
@@ -10499,7 +10884,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" s="16">
         <f t="shared" si="26"/>
         <v>232.12379363878952</v>
@@ -10529,7 +10914,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" s="16">
         <f t="shared" si="26"/>
         <v>243.72998332072902</v>
@@ -10559,7 +10944,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" s="16">
         <f t="shared" si="26"/>
         <v>255.91648248676549</v>
@@ -10589,7 +10974,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" s="16">
         <f t="shared" si="26"/>
         <v>268.71230661110377</v>
@@ -10619,7 +11004,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="16">
         <f t="shared" si="26"/>
         <v>282.14792194165898</v>
@@ -10649,7 +11034,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="16">
         <f t="shared" si="26"/>
         <v>296.25531803874196</v>
@@ -10679,7 +11064,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="16">
         <f t="shared" si="26"/>
         <v>311.06808394067906</v>
@@ -10709,7 +11094,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" s="16">
         <f t="shared" si="26"/>
         <v>326.62148813771302</v>
@@ -10739,7 +11124,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" s="16">
         <f t="shared" si="26"/>
         <v>342.95256254459866</v>
@@ -10769,7 +11154,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" s="16">
         <f t="shared" si="26"/>
         <v>360.10019067182861</v>
@@ -10799,7 +11184,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" s="16">
         <f t="shared" si="26"/>
         <v>378.10520020542003</v>
@@ -10829,7 +11214,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" s="16">
         <f t="shared" si="26"/>
         <v>397.01046021569107</v>
@@ -10859,7 +11244,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" s="16">
         <f t="shared" si="26"/>
         <v>416.86098322647564</v>
@@ -10889,7 +11274,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" s="16">
         <f t="shared" si="26"/>
         <v>437.70403238779943</v>
@@ -10919,7 +11304,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" s="16">
         <f t="shared" si="26"/>
         <v>459.58923400718942</v>
@@ -10949,7 +11334,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204" s="16">
         <f t="shared" si="26"/>
         <v>482.5686957075489</v>
@@ -10979,7 +11364,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" s="16">
         <f t="shared" si="26"/>
         <v>506.69713049292636</v>
@@ -11009,7 +11394,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" s="16">
         <f t="shared" si="26"/>
         <v>532.03198701757265</v>
@@ -11039,7 +11424,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" s="16">
         <f t="shared" si="26"/>
         <v>558.63358636845135</v>
@@ -11069,7 +11454,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="16">
         <f t="shared" si="26"/>
         <v>586.56526568687389</v>
@@ -11099,7 +11484,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="16">
         <f t="shared" si="26"/>
         <v>615.89352897121762</v>
@@ -11129,7 +11514,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" s="16">
         <f t="shared" si="26"/>
         <v>646.68820541977857</v>
@@ -11159,7 +11544,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="16">
         <f t="shared" si="26"/>
         <v>679.02261569076757</v>
@@ -11189,7 +11574,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="16">
         <f t="shared" si="26"/>
         <v>712.97374647530603</v>
@@ -11219,7 +11604,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" s="16">
         <f t="shared" si="26"/>
         <v>748.62243379907136</v>
@@ -11249,7 +11634,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" s="16">
         <f t="shared" si="26"/>
         <v>786.05355548902492</v>
@@ -11380,29 +11765,29 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16.109375" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1"/>
-    <col min="13" max="13" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D1" s="65" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="65" t="s">
         <v>190</v>
       </c>
@@ -11437,8 +11822,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+    <row r="3" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -11450,13 +11835,13 @@
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -11481,8 +11866,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="80"/>
       <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
@@ -11492,13 +11877,13 @@
       <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="11"/>
@@ -11524,8 +11909,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="80"/>
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
@@ -11535,13 +11920,13 @@
       <c r="D5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="74"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
       <c r="J5" s="5"/>
       <c r="K5" s="8"/>
       <c r="L5" s="5"/>
@@ -11563,8 +11948,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="80"/>
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
@@ -11574,13 +11959,13 @@
       <c r="D6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="85"/>
       <c r="J6" s="5"/>
       <c r="K6" s="8"/>
       <c r="L6" s="5"/>
@@ -11607,8 +11992,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="69"/>
+    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="80"/>
       <c r="B7" s="13" t="s">
         <v>34</v>
       </c>
@@ -11618,13 +12003,13 @@
       <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="76"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -11653,8 +12038,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="80"/>
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
@@ -11665,13 +12050,13 @@
       <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="74"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
       <c r="J8" s="5"/>
       <c r="K8" s="20" t="s">
         <v>43</v>
@@ -11694,8 +12079,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="70"/>
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="81"/>
       <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
@@ -11704,13 +12089,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89"/>
       <c r="J9" s="5"/>
       <c r="K9" s="24" t="s">
         <v>44</v>
@@ -11747,12 +12132,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="5"/>
       <c r="K10" s="39" t="s">
         <v>60</v>
@@ -11787,12 +12172,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
       <c r="J11" s="5"/>
       <c r="K11" s="24" t="s">
         <v>46</v>
@@ -11825,8 +12210,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="68" t="s">
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="79" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -11838,13 +12223,13 @@
       <c r="D12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="72"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="83"/>
       <c r="J12" s="5"/>
       <c r="K12" s="28" t="s">
         <v>47</v>
@@ -11882,8 +12267,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="80"/>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="91"/>
       <c r="B13" s="13" t="s">
         <v>21</v>
       </c>
@@ -11893,11 +12278,11 @@
       <c r="D13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="85"/>
       <c r="J13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -11923,8 +12308,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="80"/>
+    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="91"/>
       <c r="B14" s="13" t="s">
         <v>37</v>
       </c>
@@ -11934,11 +12319,11 @@
       <c r="D14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="85"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -11955,8 +12340,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="91"/>
       <c r="B15" s="13" t="s">
         <v>38</v>
       </c>
@@ -11966,11 +12351,11 @@
       <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="95"/>
       <c r="K15" s="20" t="s">
         <v>42</v>
       </c>
@@ -11995,8 +12380,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="91"/>
       <c r="B16" s="13" t="s">
         <v>58</v>
       </c>
@@ -12006,11 +12391,11 @@
       <c r="D16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="95"/>
       <c r="K16" s="24" t="s">
         <v>45</v>
       </c>
@@ -12025,8 +12410,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="81"/>
+    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="92"/>
       <c r="B17" s="14" t="s">
         <v>39</v>
       </c>
@@ -12034,11 +12419,11 @@
         <v>2</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="89"/>
       <c r="J17" s="5"/>
       <c r="K17" s="24" t="s">
         <v>61</v>
@@ -12054,7 +12439,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -12078,8 +12463,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="68" t="s">
+    <row r="19" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="79" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -12091,13 +12476,13 @@
       <c r="D19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="72"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="83"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -12113,8 +12498,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="80"/>
       <c r="B20" s="13" t="s">
         <v>12</v>
       </c>
@@ -12124,13 +12509,13 @@
       <c r="D20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="74"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="85"/>
       <c r="J20" s="5"/>
       <c r="K20" s="20" t="s">
         <v>55</v>
@@ -12153,8 +12538,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="80"/>
       <c r="B21" s="13" t="s">
         <v>14</v>
       </c>
@@ -12164,13 +12549,13 @@
       <c r="D21" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="74"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="85"/>
       <c r="J21" s="5"/>
       <c r="K21" s="33" t="s">
         <v>56</v>
@@ -12194,8 +12579,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
       <c r="B22" s="13" t="s">
         <v>23</v>
       </c>
@@ -12205,11 +12590,11 @@
       <c r="D22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="85"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="96"/>
       <c r="J22" s="6"/>
       <c r="K22" s="24" t="s">
         <v>62</v>
@@ -12232,8 +12617,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="70"/>
+    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="81"/>
       <c r="B23" s="14" t="s">
         <v>25</v>
       </c>
@@ -12243,11 +12628,11 @@
       <c r="D23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="78"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="89"/>
       <c r="J23" s="5"/>
       <c r="K23" s="33" t="s">
         <v>57</v>
@@ -12277,7 +12662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -12287,13 +12672,13 @@
       <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
       <c r="J24" s="6"/>
       <c r="K24" s="24" t="s">
         <v>63</v>
@@ -12320,7 +12705,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="3"/>
       <c r="K25" s="28" t="s">
         <v>64</v>
@@ -12340,7 +12725,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -12357,7 +12742,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
         <v>30</v>
       </c>
@@ -12383,7 +12768,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="16">
         <f>C20</f>
         <v>0.09</v>
@@ -12419,7 +12804,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
         <f>B28*(1+$B$26)</f>
         <v>9.6299999999999997E-2</v>
@@ -12455,7 +12840,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="16">
         <f t="shared" ref="B30:B76" si="6">B29*(1+$B$26)</f>
         <v>0.10304100000000001</v>
@@ -12491,7 +12876,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="16">
         <f t="shared" si="6"/>
         <v>0.11025387000000002</v>
@@ -12530,7 +12915,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="16">
         <f t="shared" si="6"/>
         <v>0.11797164090000002</v>
@@ -12560,7 +12945,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="16">
         <f t="shared" si="6"/>
         <v>0.12622965576300002</v>
@@ -12590,7 +12975,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="16">
         <f t="shared" si="6"/>
         <v>0.13506573166641003</v>
@@ -12620,7 +13005,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="16">
         <f t="shared" si="6"/>
         <v>0.14452033288305874</v>
@@ -12650,7 +13035,7 @@
         <v>462.82449556788913</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="16">
         <f t="shared" si="6"/>
         <v>0.15463675618487285</v>
@@ -12680,7 +13065,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="16">
         <f t="shared" si="6"/>
         <v>0.16546132911781397</v>
@@ -12710,7 +13095,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="16">
         <f t="shared" si="6"/>
         <v>0.17704362215606095</v>
@@ -12740,7 +13125,7 @@
         <v>319.54550092890236</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="16">
         <f t="shared" si="6"/>
         <v>0.18943667570698522</v>
@@ -12770,7 +13155,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="16">
         <f t="shared" si="6"/>
         <v>0.20269724300647421</v>
@@ -12800,7 +13185,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="16">
         <f t="shared" si="6"/>
         <v>0.21688605001692743</v>
@@ -12830,7 +13215,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="16">
         <f t="shared" si="6"/>
         <v>0.23206807351811237</v>
@@ -12860,7 +13245,7 @@
         <v>201.25557342008457</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="16">
         <f t="shared" si="6"/>
         <v>0.24831283866438025</v>
@@ -12890,7 +13275,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="16">
         <f t="shared" si="6"/>
         <v>0.26569473737088689</v>
@@ -12920,7 +13305,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="16">
         <f t="shared" si="6"/>
         <v>0.28429336898684898</v>
@@ -12950,7 +13335,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="16">
         <f t="shared" si="6"/>
         <v>0.30419390481592845</v>
@@ -12980,7 +13365,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="16">
         <f t="shared" si="6"/>
         <v>0.32548747815304346</v>
@@ -13010,7 +13395,7 @@
         <v>113.81096550555209</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="16">
         <f t="shared" si="6"/>
         <v>0.34827160162375653</v>
@@ -13040,7 +13425,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="16">
         <f t="shared" si="6"/>
         <v>0.37265061373741953</v>
@@ -13070,7 +13455,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="16">
         <f t="shared" si="6"/>
         <v>0.39873615669903895</v>
@@ -13100,7 +13485,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="16">
         <f t="shared" si="6"/>
         <v>0.42664768766797168</v>
@@ -13130,7 +13515,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="16">
         <f t="shared" si="6"/>
         <v>0.45651302580472974</v>
@@ -13160,7 +13545,7 @@
         <v>59.201071575397052</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="16">
         <f t="shared" si="6"/>
         <v>0.48846893761106086</v>
@@ -13190,7 +13575,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="16">
         <f t="shared" si="6"/>
         <v>0.52266176324383518</v>
@@ -13220,7 +13605,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="16">
         <f t="shared" si="6"/>
         <v>0.55924808667090364</v>
@@ -13250,7 +13635,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="16">
         <f t="shared" si="6"/>
         <v>0.59839545273786698</v>
@@ -13280,7 +13665,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="16">
         <f t="shared" si="6"/>
         <v>0.64028313442951768</v>
@@ -13310,7 +13695,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="16">
         <f t="shared" si="6"/>
         <v>0.68510295383958397</v>
@@ -13340,7 +13725,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="16">
         <f t="shared" si="6"/>
         <v>0.73306016060835488</v>
@@ -13370,7 +13755,7 @@
         <v>23.399051656213526</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="16">
         <f t="shared" si="6"/>
         <v>0.78437437185093972</v>
@@ -13400,7 +13785,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="16">
         <f t="shared" si="6"/>
         <v>0.83928057788050558</v>
@@ -13430,7 +13815,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="16">
         <f t="shared" si="6"/>
         <v>0.89803021833214103</v>
@@ -13460,7 +13845,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="16">
         <f t="shared" si="6"/>
         <v>0.96089233361539095</v>
@@ -13490,7 +13875,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="16">
         <f t="shared" si="6"/>
         <v>1.0281547969684683</v>
@@ -13520,7 +13905,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="16">
         <f t="shared" si="6"/>
         <v>1.1001256327562612</v>
@@ -13550,7 +13935,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="16">
         <f t="shared" si="6"/>
         <v>1.1771344270491995</v>
@@ -13580,7 +13965,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="16">
         <f t="shared" si="6"/>
         <v>1.2595338369426434</v>
@@ -13610,7 +13995,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="16">
         <f t="shared" si="6"/>
         <v>1.3477012055286286</v>
@@ -13640,7 +14025,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="16">
         <f t="shared" si="6"/>
         <v>1.4420402899156326</v>
@@ -13670,7 +14055,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="16">
         <f t="shared" si="6"/>
         <v>1.5429831102097269</v>
@@ -13700,7 +14085,7 @@
         <v>4.7248223169905943</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="16">
         <f t="shared" si="6"/>
         <v>1.6509919279244079</v>
@@ -13730,7 +14115,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="16">
         <f t="shared" si="6"/>
         <v>1.7665613628791166</v>
@@ -13760,7 +14145,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="16">
         <f t="shared" si="6"/>
         <v>1.8902206582806549</v>
@@ -13790,7 +14175,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="16">
         <f t="shared" si="6"/>
         <v>2.022536104360301</v>
@@ -13820,7 +14205,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="16">
         <f t="shared" si="6"/>
         <v>2.1641136316655221</v>
@@ -13850,7 +14235,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="16">
         <f t="shared" si="6"/>
         <v>2.3156015858821086</v>
@@ -13880,49 +14265,49 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="2"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="2"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="2"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="2"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="2"/>
@@ -14037,30 +14422,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF03EE8-29D7-4019-8083-16EB681C1971}">
   <dimension ref="A2:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="17.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="5.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="8.88671875" style="4"/>
-    <col min="23" max="23" width="13.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="8.85546875" style="4"/>
+    <col min="23" max="23" width="13.7109375" style="4" customWidth="1"/>
     <col min="24" max="24" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="4"/>
+    <col min="25" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K2" s="4" t="s">
         <v>51</v>
       </c>
@@ -14092,8 +14477,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+    <row r="3" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -14105,13 +14490,13 @@
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83"/>
       <c r="J3" s="48"/>
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
@@ -14136,8 +14521,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="80"/>
       <c r="B4" s="52" t="s">
         <v>3</v>
       </c>
@@ -14147,13 +14532,13 @@
       <c r="D4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="11"/>
@@ -14179,8 +14564,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="80"/>
       <c r="B5" s="52" t="s">
         <v>1</v>
       </c>
@@ -14190,13 +14575,13 @@
       <c r="D5" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="74"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -14218,8 +14603,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="80"/>
       <c r="B6" s="52" t="s">
         <v>0</v>
       </c>
@@ -14229,13 +14614,13 @@
       <c r="D6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="85"/>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
@@ -14261,8 +14646,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="69"/>
+    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="80"/>
       <c r="B7" s="52" t="s">
         <v>34</v>
       </c>
@@ -14272,13 +14657,13 @@
       <c r="D7" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="76"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
       <c r="J7" s="53"/>
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
@@ -14307,8 +14692,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="80"/>
       <c r="B8" s="52" t="s">
         <v>4</v>
       </c>
@@ -14319,13 +14704,13 @@
       <c r="D8" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="74"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
       <c r="J8" s="48"/>
       <c r="K8" s="20" t="s">
         <v>43</v>
@@ -14348,8 +14733,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="70"/>
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="81"/>
       <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
@@ -14358,13 +14743,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89"/>
       <c r="J9" s="48"/>
       <c r="K9" s="24" t="s">
         <v>44</v>
@@ -14401,12 +14786,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="48"/>
       <c r="K10" s="39" t="s">
         <v>60</v>
@@ -14441,12 +14826,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
       <c r="J11" s="48"/>
       <c r="K11" s="24" t="s">
         <v>46</v>
@@ -14479,8 +14864,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="68" t="s">
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="79" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -14492,13 +14877,13 @@
       <c r="D12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="72"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="83"/>
       <c r="J12" s="48"/>
       <c r="K12" s="28" t="s">
         <v>47</v>
@@ -14536,8 +14921,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="80"/>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="91"/>
       <c r="B13" s="52" t="s">
         <v>21</v>
       </c>
@@ -14547,11 +14932,11 @@
       <c r="D13" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="85"/>
       <c r="J13" s="48"/>
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
@@ -14577,8 +14962,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="80"/>
+    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="91"/>
       <c r="B14" s="52" t="s">
         <v>37</v>
       </c>
@@ -14588,11 +14973,11 @@
       <c r="D14" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="85"/>
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
       <c r="L14" s="48"/>
@@ -14609,8 +14994,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="91"/>
       <c r="B15" s="52" t="s">
         <v>38</v>
       </c>
@@ -14620,11 +15005,11 @@
       <c r="D15" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="95"/>
       <c r="K15" s="20" t="s">
         <v>42</v>
       </c>
@@ -14649,8 +15034,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="91"/>
       <c r="B16" s="52" t="s">
         <v>58</v>
       </c>
@@ -14660,11 +15045,11 @@
       <c r="D16" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="95"/>
       <c r="K16" s="24" t="s">
         <v>45</v>
       </c>
@@ -14679,8 +15064,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="81"/>
+    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="92"/>
       <c r="B17" s="14" t="s">
         <v>39</v>
       </c>
@@ -14688,11 +15073,11 @@
         <v>2</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="89"/>
       <c r="J17" s="48"/>
       <c r="K17" s="24" t="s">
         <v>61</v>
@@ -14708,7 +15093,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
@@ -14732,8 +15117,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="68" t="s">
+    <row r="19" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="79" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -14745,13 +15130,13 @@
       <c r="D19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="72"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="83"/>
       <c r="J19" s="48"/>
       <c r="K19" s="48"/>
       <c r="L19" s="48"/>
@@ -14767,8 +15152,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="80"/>
       <c r="B20" s="52" t="s">
         <v>12</v>
       </c>
@@ -14778,13 +15163,13 @@
       <c r="D20" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="74"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="85"/>
       <c r="J20" s="48"/>
       <c r="K20" s="20" t="s">
         <v>55</v>
@@ -14807,8 +15192,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="80"/>
       <c r="B21" s="52" t="s">
         <v>14</v>
       </c>
@@ -14818,13 +15203,13 @@
       <c r="D21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="74"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="85"/>
       <c r="J21" s="48"/>
       <c r="K21" s="33" t="s">
         <v>56</v>
@@ -14848,8 +15233,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
       <c r="B22" s="52" t="s">
         <v>23</v>
       </c>
@@ -14859,11 +15244,11 @@
       <c r="D22" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="85"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="96"/>
       <c r="J22" s="44"/>
       <c r="K22" s="24" t="s">
         <v>62</v>
@@ -14886,8 +15271,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="70"/>
+    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="81"/>
       <c r="B23" s="14" t="s">
         <v>25</v>
       </c>
@@ -14897,11 +15282,11 @@
       <c r="D23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="78"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="89"/>
       <c r="J23" s="48"/>
       <c r="K23" s="33" t="s">
         <v>57</v>
@@ -14931,7 +15316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
@@ -14941,13 +15326,13 @@
       <c r="D24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
       <c r="J24" s="44"/>
       <c r="K24" s="24" t="s">
         <v>63</v>
@@ -14974,7 +15359,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="3"/>
       <c r="K25" s="28" t="s">
         <v>64</v>
@@ -14994,7 +15379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>113</v>
       </c>
@@ -15008,7 +15393,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
         <v>30</v>
       </c>
@@ -15031,7 +15416,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="16">
         <f>C20</f>
         <v>0.09</v>
@@ -15067,7 +15452,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
         <f>B28*(1+$B$26)</f>
         <v>9.6299999999999997E-2</v>
@@ -15103,7 +15488,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="16">
         <f t="shared" ref="B30:B76" si="6">B29*(1+$B$26)</f>
         <v>0.10304100000000001</v>
@@ -15139,7 +15524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="16">
         <f t="shared" si="6"/>
         <v>0.11025387000000002</v>
@@ -15175,7 +15560,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="16">
         <f t="shared" si="6"/>
         <v>0.11797164090000002</v>
@@ -15205,7 +15590,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="16">
         <f t="shared" si="6"/>
         <v>0.12622965576300002</v>
@@ -15235,7 +15620,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="16">
         <f t="shared" si="6"/>
         <v>0.13506573166641003</v>
@@ -15265,7 +15650,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="16">
         <f t="shared" si="6"/>
         <v>0.14452033288305874</v>
@@ -15295,7 +15680,7 @@
         <v>341.24906379177349</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="16">
         <f t="shared" si="6"/>
         <v>0.15463675618487285</v>
@@ -15328,7 +15713,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="16">
         <f t="shared" si="6"/>
         <v>0.16546132911781397</v>
@@ -15358,7 +15743,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="16">
         <f t="shared" si="6"/>
         <v>0.17704362215606095</v>
@@ -15394,7 +15779,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="16">
         <f t="shared" si="6"/>
         <v>0.18943667570698522</v>
@@ -15427,7 +15812,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="16">
         <f t="shared" si="6"/>
         <v>0.20269724300647421</v>
@@ -15463,7 +15848,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="16">
         <f t="shared" si="6"/>
         <v>0.21688605001692743</v>
@@ -15499,7 +15884,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="16">
         <f t="shared" si="6"/>
         <v>0.23206807351811237</v>
@@ -15535,7 +15920,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="16">
         <f t="shared" si="6"/>
         <v>0.24831283866438025</v>
@@ -15571,7 +15956,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B44" s="16">
         <f t="shared" si="6"/>
         <v>0.26569473737088689</v>
@@ -15607,7 +15992,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="16">
         <f t="shared" si="6"/>
         <v>0.28429336898684898</v>
@@ -15643,7 +16028,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46" s="16">
         <f t="shared" si="6"/>
         <v>0.30419390481592845</v>
@@ -15676,7 +16061,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B47" s="16">
         <f t="shared" si="6"/>
         <v>0.32548747815304346</v>
@@ -15712,7 +16097,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B48" s="16">
         <f t="shared" si="6"/>
         <v>0.34827160162375653</v>
@@ -15748,7 +16133,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" s="16">
         <f t="shared" si="6"/>
         <v>0.37265061373741953</v>
@@ -15784,7 +16169,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" s="16">
         <f t="shared" si="6"/>
         <v>0.39873615669903895</v>
@@ -15814,7 +16199,7 @@
         <v>59.227144278024205</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="16">
         <f t="shared" si="6"/>
         <v>0.42664768766797168</v>
@@ -15844,7 +16229,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52" s="16">
         <f t="shared" si="6"/>
         <v>0.45651302580472974</v>
@@ -15874,7 +16259,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" s="16">
         <f t="shared" si="6"/>
         <v>0.48846893761106086</v>
@@ -15910,7 +16295,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" s="16">
         <f t="shared" si="6"/>
         <v>0.52266176324383518</v>
@@ -15946,7 +16331,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="16">
         <f t="shared" si="6"/>
         <v>0.55924808667090364</v>
@@ -15976,7 +16361,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" s="16">
         <f t="shared" si="6"/>
         <v>0.59839545273786698</v>
@@ -16006,7 +16391,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" s="16">
         <f t="shared" si="6"/>
         <v>0.64028313442951768</v>
@@ -16036,7 +16421,7 @@
         <v>23.348842561514772</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" s="16">
         <f t="shared" si="6"/>
         <v>0.68510295383958397</v>
@@ -16066,7 +16451,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" s="16">
         <f t="shared" si="6"/>
         <v>0.73306016060835488</v>
@@ -16096,7 +16481,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" s="16">
         <f t="shared" si="6"/>
         <v>0.78437437185093972</v>
@@ -16126,7 +16511,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61" s="16">
         <f t="shared" si="6"/>
         <v>0.83928057788050558</v>
@@ -16156,7 +16541,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62" s="16">
         <f t="shared" si="6"/>
         <v>0.89803021833214103</v>
@@ -16186,7 +16571,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B63" s="16">
         <f t="shared" si="6"/>
         <v>0.96089233361539095</v>
@@ -16216,7 +16601,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B64" s="16">
         <f t="shared" si="6"/>
         <v>1.0281547969684683</v>
@@ -16246,7 +16631,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="16">
         <f t="shared" si="6"/>
         <v>1.1001256327562612</v>
@@ -16276,7 +16661,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="16">
         <f t="shared" si="6"/>
         <v>1.1771344270491995</v>
@@ -16306,7 +16691,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="16">
         <f t="shared" si="6"/>
         <v>1.2595338369426434</v>
@@ -16336,7 +16721,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="16">
         <f t="shared" si="6"/>
         <v>1.3477012055286286</v>
@@ -16366,7 +16751,7 @@
         <v>4.6983970138166153</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="16">
         <f t="shared" si="6"/>
         <v>1.4420402899156326</v>
@@ -16396,7 +16781,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="16">
         <f t="shared" si="6"/>
         <v>1.5429831102097269</v>
@@ -16426,7 +16811,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="16">
         <f t="shared" si="6"/>
         <v>1.6509919279244079</v>
@@ -16456,7 +16841,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="16">
         <f t="shared" si="6"/>
         <v>1.7665613628791166</v>
@@ -16486,7 +16871,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="16">
         <f t="shared" si="6"/>
         <v>1.8902206582806549</v>
@@ -16516,7 +16901,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="16">
         <f t="shared" si="6"/>
         <v>2.022536104360301</v>
@@ -16546,7 +16931,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="16">
         <f t="shared" si="6"/>
         <v>2.1641136316655221</v>
@@ -16576,7 +16961,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="16">
         <f t="shared" si="6"/>
         <v>2.3156015858821086</v>
@@ -16606,49 +16991,49 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="2"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="2"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="2"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="2"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="2"/>
@@ -16755,15 +17140,15 @@
       <selection activeCell="AK18" sqref="AK18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="24" max="25" width="8.88671875" style="4"/>
-    <col min="29" max="30" width="8.88671875" style="4"/>
-    <col min="32" max="32" width="7.77734375" customWidth="1"/>
-    <col min="33" max="33" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="8.85546875" style="4"/>
+    <col min="29" max="30" width="8.85546875" style="4"/>
+    <col min="32" max="32" width="7.7109375" customWidth="1"/>
+    <col min="33" max="33" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:45" x14ac:dyDescent="0.25">
       <c r="N2" t="s">
         <v>34</v>
       </c>
@@ -16789,7 +17174,7 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
     </row>
-    <row r="3" spans="3:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:45" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>97</v>
       </c>
@@ -16844,7 +17229,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="3:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>80</v>
       </c>
@@ -16927,7 +17312,7 @@
         <v>0.67079999999999995</v>
       </c>
     </row>
-    <row r="5" spans="3:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>79</v>
       </c>
@@ -17025,7 +17410,7 @@
         <v>0.89559999999999995</v>
       </c>
     </row>
-    <row r="6" spans="3:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:45" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>95</v>
       </c>
@@ -17113,7 +17498,7 @@
         <v>1.3143</v>
       </c>
     </row>
-    <row r="7" spans="3:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>86</v>
       </c>
@@ -17204,7 +17589,7 @@
         <v>2.0973999999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>84</v>
       </c>
@@ -17292,7 +17677,7 @@
         <v>3.6715</v>
       </c>
     </row>
-    <row r="9" spans="3:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>85</v>
       </c>
@@ -17384,7 +17769,7 @@
         <v>32.2164</v>
       </c>
     </row>
-    <row r="10" spans="3:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>87</v>
       </c>
@@ -17461,7 +17846,7 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
     </row>
-    <row r="11" spans="3:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>89</v>
       </c>
@@ -17534,7 +17919,7 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
     </row>
-    <row r="12" spans="3:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>90</v>
       </c>
@@ -17592,7 +17977,7 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
     </row>
-    <row r="13" spans="3:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>91</v>
       </c>
@@ -17667,7 +18052,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="3:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:45" x14ac:dyDescent="0.25">
       <c r="U14">
         <v>3</v>
       </c>
@@ -17732,7 +18117,7 @@
         <v>3.1076999999999999</v>
       </c>
     </row>
-    <row r="15" spans="3:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>92</v>
       </c>
@@ -17770,7 +18155,7 @@
       </c>
       <c r="AS15" s="4"/>
     </row>
-    <row r="16" spans="3:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:45" x14ac:dyDescent="0.25">
       <c r="L16">
         <v>0.97</v>
       </c>
@@ -17803,7 +18188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="12:44" x14ac:dyDescent="0.3">
+    <row r="17" spans="12:44" x14ac:dyDescent="0.25">
       <c r="AN17" t="s">
         <v>147</v>
       </c>
@@ -17820,7 +18205,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="12:44" x14ac:dyDescent="0.3">
+    <row r="18" spans="12:44" x14ac:dyDescent="0.25">
       <c r="AN18">
         <v>10</v>
       </c>
@@ -17838,7 +18223,7 @@
         <v>0.9887169022428216</v>
       </c>
     </row>
-    <row r="27" spans="12:44" x14ac:dyDescent="0.3">
+    <row r="27" spans="12:44" x14ac:dyDescent="0.25">
       <c r="L27">
         <v>48</v>
       </c>
@@ -17849,7 +18234,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="28" spans="12:44" x14ac:dyDescent="0.3">
+    <row r="28" spans="12:44" x14ac:dyDescent="0.25">
       <c r="L28">
         <v>24</v>
       </c>
@@ -17860,7 +18245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="12:44" x14ac:dyDescent="0.3">
+    <row r="29" spans="12:44" x14ac:dyDescent="0.25">
       <c r="L29">
         <v>10</v>
       </c>
@@ -17871,7 +18256,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="12:44" x14ac:dyDescent="0.3">
+    <row r="30" spans="12:44" x14ac:dyDescent="0.25">
       <c r="L30">
         <f>L27-L28</f>
         <v>24</v>
@@ -17887,7 +18272,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="12:44" x14ac:dyDescent="0.3">
+    <row r="31" spans="12:44" x14ac:dyDescent="0.25">
       <c r="L31">
         <f>L30/L29</f>
         <v>2.4</v>
@@ -17896,7 +18281,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="12:44" x14ac:dyDescent="0.3">
+    <row r="32" spans="12:44" x14ac:dyDescent="0.25">
       <c r="L32">
         <f>L30*L29</f>
         <v>240</v>
@@ -17919,13 +18304,13 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>192</v>
       </c>
@@ -17936,7 +18321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>193</v>
       </c>
@@ -17944,7 +18329,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>194</v>
       </c>
@@ -17956,7 +18341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>195</v>
       </c>
@@ -17964,7 +18349,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>196</v>
       </c>
@@ -17989,7 +18374,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>80</v>
       </c>
@@ -18003,7 +18388,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>79</v>
       </c>
@@ -18018,7 +18403,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>103</v>
       </c>
@@ -18029,7 +18414,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>159</v>
       </c>
@@ -18040,7 +18425,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>200</v>
       </c>
@@ -18052,7 +18437,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>203</v>
       </c>
@@ -18067,7 +18452,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>204</v>
       </c>
@@ -18079,7 +18464,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
         <v>213</v>
       </c>
@@ -18091,7 +18476,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
         <v>214</v>
       </c>
@@ -18100,7 +18485,7 @@
         <v>0.37864456107926481</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>216</v>
       </c>
@@ -18112,7 +18497,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>217</v>
       </c>
@@ -18127,7 +18512,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>218</v>
       </c>
@@ -18142,7 +18527,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>219</v>
       </c>
@@ -18162,7 +18547,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>221</v>
       </c>
@@ -18184,7 +18569,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>205</v>
       </c>
@@ -18195,7 +18580,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>207</v>
       </c>
@@ -18206,7 +18591,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>208</v>
       </c>
@@ -18217,7 +18602,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>209</v>
       </c>
@@ -18233,4 +18618,3349 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C41720-26B8-40C4-BBE9-7FE561B63412}">
+  <dimension ref="A1:Z85"/>
+  <sheetViews>
+    <sheetView topLeftCell="E12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="9.140625" style="4"/>
+    <col min="23" max="23" width="13.7109375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D1" s="65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>21</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="X2" s="43">
+        <v>12.4</v>
+      </c>
+      <c r="Y2" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="P3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" s="78">
+        <f>L13</f>
+        <v>23.04</v>
+      </c>
+      <c r="Y3" s="43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="80"/>
+      <c r="B4" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="76">
+        <v>4.25</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="P4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>Q3*Q2</f>
+        <v>2.1</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="X4" s="43">
+        <f>L12</f>
+        <v>12</v>
+      </c>
+      <c r="Y4" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="80"/>
+      <c r="B5" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="76">
+        <v>4.25</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="P5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="W5" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="X5" s="43">
+        <v>500</v>
+      </c>
+      <c r="Y5" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="80"/>
+      <c r="B6" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="76">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="P6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>Q4/Q5</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X6" s="42">
+        <f>2*X5/T10</f>
+        <v>2380.9523809523812</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="80"/>
+      <c r="B7" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="76">
+        <v>160</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="P7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>24</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X7" s="42">
+        <f>X3*X6/(X4*X2)</f>
+        <v>368.66359447004606</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="80"/>
+      <c r="B8" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="76">
+        <f>(C3-C4)/2-C6</f>
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="12">
+        <v>3</v>
+      </c>
+      <c r="M8" s="68"/>
+      <c r="N8" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>Q6/Q7</f>
+        <v>0.12500000000000003</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="81"/>
+      <c r="B9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14">
+        <f>FLOOR((C8-(2*C13)+C14)/(C21+C20),1)</f>
+        <v>9</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="70">
+        <f>L8</f>
+        <v>3</v>
+      </c>
+      <c r="M9" s="70"/>
+      <c r="N9" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9" s="4">
+        <v>250</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="W9" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="X9" s="43">
+        <v>120</v>
+      </c>
+      <c r="Y9" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="76">
+        <f>L8</f>
+        <v>3</v>
+      </c>
+      <c r="M10" s="70"/>
+      <c r="N10" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>Q2/Q7*(1-Q9)/Q9</f>
+        <v>1.0694444444444446</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="X10" s="4">
+        <v>390</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="L11" s="76">
+        <f>L8</f>
+        <v>3</v>
+      </c>
+      <c r="M11" s="70"/>
+      <c r="N11" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="70">
+        <f>IF(C18&gt;1,IF(C18&gt;2,IF(C18&gt;3,L8+L9+L10+L11,L8+L9+L10),L8+L9),L8)</f>
+        <v>12</v>
+      </c>
+      <c r="M12" s="70"/>
+      <c r="N12" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="T12" s="41">
+        <f>Q5*T10*T10*Q7*Q7/(2*T9*Q4)*1000</f>
+        <v>67.737600000000015</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" s="4">
+        <v>215</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="40">
+        <f>L12*L12*C7/1000</f>
+        <v>23.04</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="T13" s="4">
+        <v>60</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="X13" s="4">
+        <f>X9*X10/1000</f>
+        <v>46.8</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="91"/>
+      <c r="B14" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="S14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="T14" s="41">
+        <f>T13*Q10*Q10</f>
+        <v>68.622685185185219</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="X14" s="4">
+        <f>X12*X9/1000</f>
+        <v>25.8</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="91"/>
+      <c r="B15" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="76">
+        <v>35</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="S15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T15" s="1">
+        <f>SQRT(T13/(C7/1000))</f>
+        <v>19.364916731037084</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="91"/>
+      <c r="B16" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="76">
+        <v>35</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="95"/>
+      <c r="K16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="21">
+        <f>_xlfn.XLOOKUP(L8,C29:C67,F29:F67,FALSE,0,-1)</f>
+        <v>58.816943199756111</v>
+      </c>
+      <c r="M16" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T16" s="1">
+        <f>SQRT(T14/C7*1000)</f>
+        <v>20.709702615136887</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="91"/>
+      <c r="B17" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="76">
+        <v>35</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="95"/>
+      <c r="K17" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="25">
+        <f>IF(C18&gt;1,_xlfn.XLOOKUP(L9,C29:C67,G29:G67,FALSE,0,-1),0)</f>
+        <v>58.816943199756111</v>
+      </c>
+      <c r="M17" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="92"/>
+      <c r="B18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="14">
+        <v>4</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="25">
+        <f>IF(C18&gt;2,_xlfn.XLOOKUP(L10,C29:C77,H29:H77,FALSE,0,-1)*IF(C18=4,2,1),0)</f>
+        <v>117.63388639951222</v>
+      </c>
+      <c r="M18" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="29">
+        <f>L17+L16+L18</f>
+        <v>235.26777279902444</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="W20" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="X20" s="4">
+        <f>P31</f>
+        <v>23</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="80"/>
+      <c r="B21" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="76">
+        <v>0.09</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="32">
+        <f>_xlfn.XLOOKUP(L8,C29:C81,E29:E81,,0,-1)*1550</f>
+        <v>24.957810298815396</v>
+      </c>
+      <c r="M21" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21" s="69"/>
+      <c r="W21" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
+      <c r="B22" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="76">
+        <v>0.3</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="34">
+        <f>(L2/((IF(C15=35,0.048,0.024))*(L21)^0.725))^(1/0.44)</f>
+        <v>0.19335391497890944</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="71"/>
+      <c r="W22" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="X22" s="4">
+        <f>0.5*X20*X21*X21</f>
+        <v>2.875</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
+      <c r="B23" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="76">
+        <v>35</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="36">
+        <f>_xlfn.XLOOKUP(L9,C29:C86,E29:E86,,0,-1)*1550*C16/C15</f>
+        <v>24.957810298815396</v>
+      </c>
+      <c r="M23" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" s="77"/>
+      <c r="W23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="X23" s="4">
+        <v>450</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="81"/>
+      <c r="B24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="14">
+        <v>35</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="34">
+        <f>IF(C18&gt;1,(L2/((IF(C16=35,0.048,0.024))*(L23)^0.725))^(1/0.44),0)</f>
+        <v>0.19335391497890944</v>
+      </c>
+      <c r="M24" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" s="71"/>
+      <c r="P24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="X24" s="4">
+        <f>X23*X22/1000</f>
+        <v>1.29375</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1.7199999999999999E-8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="36">
+        <f>_xlfn.XLOOKUP(L10,C29:C55,E29:E55,,0,-1)*1550*C17/C15</f>
+        <v>22.212362316496431</v>
+      </c>
+      <c r="M25" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" s="77"/>
+      <c r="P25" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S25" s="4">
+        <f>P25/P30</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="3"/>
+      <c r="K26" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="29">
+        <f>IF(C18&gt;2,(L2/((IF(C17=35,0.048,0.024))*(L25)^0.725))^(1/0.44),0)</f>
+        <v>0.23428651844155354</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N26" s="38"/>
+      <c r="P26" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="P27" s="4">
+        <v>228</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" s="54"/>
+      <c r="V28" s="4">
+        <v>8</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y28" s="4">
+        <f>V28/V33</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="16">
+        <f>C21</f>
+        <v>0.09</v>
+      </c>
+      <c r="C29" s="17">
+        <f t="shared" ref="C29:C60" si="0">FLOOR(($C$8-2*$C$13+$C$14)/(B29+$C$14),1)</f>
+        <v>9</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" ref="D29:D60" si="1">C29*(2*$C$5+2*$C$8+2*PI()*($C$13+(C29-1)*B29/2+(C29-1)*$C$14/2))</f>
+        <v>176.49158783049324</v>
+      </c>
+      <c r="E29" s="18">
+        <f>B29*$C$15/1000</f>
+        <v>3.15E-3</v>
+      </c>
+      <c r="F29" s="19">
+        <f>IF(C29=C30,"",$C$25*D29/E29*1000000)</f>
+        <v>963.70009862999473</v>
+      </c>
+      <c r="G29" s="19">
+        <f>IF(C29=C30,"",F29*$C$15/$C$16)</f>
+        <v>963.70009862999473</v>
+      </c>
+      <c r="H29" s="19">
+        <f>IF(C29=C30,"",F29*$C$15/$C$17)</f>
+        <v>963.70009862999473</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="V29" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="16">
+        <f>B29*(1+$B$27)</f>
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="C30" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D30" s="17">
+        <f t="shared" si="1"/>
+        <v>153.05620818987194</v>
+      </c>
+      <c r="E30" s="18">
+        <f t="shared" ref="E30:E77" si="2">B30*$C$15/1000</f>
+        <v>3.339E-3</v>
+      </c>
+      <c r="F30" s="19" t="str">
+        <f t="shared" ref="F30:F77" si="3">IF(C30=C31,"",$C$25*D30/E30*1000000)</f>
+        <v/>
+      </c>
+      <c r="G30" s="19" t="str">
+        <f t="shared" ref="G30:G77" si="4">IF(C30=C31,"",F30*$C$15/$C$16)</f>
+        <v/>
+      </c>
+      <c r="H30" s="19" t="str">
+        <f t="shared" ref="H30:H77" si="5">IF(C30=C31,"",F30*$C$15/$C$17)</f>
+        <v/>
+      </c>
+      <c r="P30" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V30" s="4">
+        <v>228</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B31" s="16">
+        <f t="shared" ref="B31:B77" si="6">B30*(1+$B$27)</f>
+        <v>0.10112400000000001</v>
+      </c>
+      <c r="C31" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D31" s="17">
+        <f t="shared" si="1"/>
+        <v>154.06322686542424</v>
+      </c>
+      <c r="E31" s="18">
+        <f t="shared" si="2"/>
+        <v>3.5393400000000002E-3</v>
+      </c>
+      <c r="F31" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G31" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H31" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P31" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V31" s="54"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B32" s="16">
+        <f t="shared" si="6"/>
+        <v>0.10719144000000001</v>
+      </c>
+      <c r="C32" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D32" s="17">
+        <f t="shared" si="1"/>
+        <v>155.13066666150968</v>
+      </c>
+      <c r="E32" s="18">
+        <f t="shared" si="2"/>
+        <v>3.7517004000000003E-3</v>
+      </c>
+      <c r="F32" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G32" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H32" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P32" s="4">
+        <v>237</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="16">
+        <f t="shared" si="6"/>
+        <v>0.11362292640000002</v>
+      </c>
+      <c r="C33" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D33" s="17">
+        <f t="shared" si="1"/>
+        <v>156.26215284536022</v>
+      </c>
+      <c r="E33" s="18">
+        <f t="shared" si="2"/>
+        <v>3.9768024240000007E-3</v>
+      </c>
+      <c r="F33" s="19">
+        <f t="shared" si="3"/>
+        <v>675.84675887337846</v>
+      </c>
+      <c r="G33" s="19">
+        <f t="shared" si="4"/>
+        <v>675.84675887337846</v>
+      </c>
+      <c r="H33" s="19">
+        <f t="shared" si="5"/>
+        <v>675.84675887337846</v>
+      </c>
+      <c r="V33" s="4">
+        <v>12</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="16">
+        <f t="shared" si="6"/>
+        <v>0.12044030198400002</v>
+      </c>
+      <c r="C34" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D34" s="17">
+        <f t="shared" si="1"/>
+        <v>132.93110174233522</v>
+      </c>
+      <c r="E34" s="18">
+        <f t="shared" si="2"/>
+        <v>4.2154105694400005E-3</v>
+      </c>
+      <c r="F34" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G34" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H34" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V34" s="4">
+        <v>23</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="16">
+        <f t="shared" si="6"/>
+        <v>0.12766672010304003</v>
+      </c>
+      <c r="C35" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D35" s="17">
+        <f t="shared" si="1"/>
+        <v>133.8846051494661</v>
+      </c>
+      <c r="E35" s="18">
+        <f t="shared" si="2"/>
+        <v>4.4683352036064012E-3</v>
+      </c>
+      <c r="F35" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G35" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H35" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V35" s="4">
+        <v>235</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="16">
+        <f t="shared" si="6"/>
+        <v>0.13532672330922244</v>
+      </c>
+      <c r="C36" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D36" s="17">
+        <f t="shared" si="1"/>
+        <v>134.89531876102481</v>
+      </c>
+      <c r="E36" s="18">
+        <f t="shared" si="2"/>
+        <v>4.7364353158227852E-3</v>
+      </c>
+      <c r="F36" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G36" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H36" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37" s="16">
+        <f t="shared" si="6"/>
+        <v>0.1434463267077758</v>
+      </c>
+      <c r="C37" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D37" s="17">
+        <f t="shared" si="1"/>
+        <v>135.96667518927703</v>
+      </c>
+      <c r="E37" s="18">
+        <f t="shared" si="2"/>
+        <v>5.0206214347721526E-3</v>
+      </c>
+      <c r="F37" s="19">
+        <f t="shared" si="3"/>
+        <v>465.80425225023902</v>
+      </c>
+      <c r="G37" s="19">
+        <f t="shared" si="4"/>
+        <v>465.80425225023902</v>
+      </c>
+      <c r="H37" s="19">
+        <f t="shared" si="5"/>
+        <v>465.80425225023902</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38" s="16">
+        <f t="shared" si="6"/>
+        <v>0.15205310631024235</v>
+      </c>
+      <c r="C38" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D38" s="17">
+        <f t="shared" si="1"/>
+        <v>112.7651791658856</v>
+      </c>
+      <c r="E38" s="18">
+        <f t="shared" si="2"/>
+        <v>5.3218587208584819E-3</v>
+      </c>
+      <c r="F38" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G38" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H38" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39" s="16">
+        <f t="shared" si="6"/>
+        <v>0.16117629268885691</v>
+      </c>
+      <c r="C39" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D39" s="17">
+        <f t="shared" si="1"/>
+        <v>113.62501922501716</v>
+      </c>
+      <c r="E39" s="18">
+        <f t="shared" si="2"/>
+        <v>5.6411702441099918E-3</v>
+      </c>
+      <c r="F39" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G39" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H39" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40" s="16">
+        <f t="shared" si="6"/>
+        <v>0.17084687025018833</v>
+      </c>
+      <c r="C40" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D40" s="17">
+        <f t="shared" si="1"/>
+        <v>114.53644968769663</v>
+      </c>
+      <c r="E40" s="18">
+        <f t="shared" si="2"/>
+        <v>5.9796404587565914E-3</v>
+      </c>
+      <c r="F40" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G40" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H40" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41" s="16">
+        <f t="shared" si="6"/>
+        <v>0.18109768246519964</v>
+      </c>
+      <c r="C41" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D41" s="17">
+        <f t="shared" si="1"/>
+        <v>115.50256597813687</v>
+      </c>
+      <c r="E41" s="18">
+        <f t="shared" si="2"/>
+        <v>6.3384188862819872E-3</v>
+      </c>
+      <c r="F41" s="19">
+        <f t="shared" si="3"/>
+        <v>313.42897502775912</v>
+      </c>
+      <c r="G41" s="19">
+        <f t="shared" si="4"/>
+        <v>313.42897502775912</v>
+      </c>
+      <c r="H41" s="19">
+        <f t="shared" si="5"/>
+        <v>313.42897502775912</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="16">
+        <f t="shared" si="6"/>
+        <v>0.19196354341311161</v>
+      </c>
+      <c r="C42" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D42" s="17">
+        <f t="shared" si="1"/>
+        <v>92.519388422822885</v>
+      </c>
+      <c r="E42" s="18">
+        <f t="shared" si="2"/>
+        <v>6.7187240194589064E-3</v>
+      </c>
+      <c r="F42" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G42" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H42" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43" s="16">
+        <f t="shared" si="6"/>
+        <v>0.20348135601789832</v>
+      </c>
+      <c r="C43" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D43" s="17">
+        <f t="shared" si="1"/>
+        <v>93.243073932115337</v>
+      </c>
+      <c r="E43" s="18">
+        <f t="shared" si="2"/>
+        <v>7.1218474606264421E-3</v>
+      </c>
+      <c r="F43" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G43" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H43" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44" s="16">
+        <f t="shared" si="6"/>
+        <v>0.21569023737897222</v>
+      </c>
+      <c r="C44" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D44" s="17">
+        <f t="shared" si="1"/>
+        <v>94.010180571965307</v>
+      </c>
+      <c r="E44" s="18">
+        <f t="shared" si="2"/>
+        <v>7.5491583082640283E-3</v>
+      </c>
+      <c r="F44" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G44" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H44" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B45" s="16">
+        <f t="shared" si="6"/>
+        <v>0.22863165162171056</v>
+      </c>
+      <c r="C45" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D45" s="17">
+        <f t="shared" si="1"/>
+        <v>94.823313610206299</v>
+      </c>
+      <c r="E45" s="18">
+        <f t="shared" si="2"/>
+        <v>8.0021078067598703E-3</v>
+      </c>
+      <c r="F45" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G45" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H45" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46" s="16">
+        <f t="shared" si="6"/>
+        <v>0.24234955071901321</v>
+      </c>
+      <c r="C46" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D46" s="17">
+        <f t="shared" si="1"/>
+        <v>95.685234630741732</v>
+      </c>
+      <c r="E46" s="18">
+        <f t="shared" si="2"/>
+        <v>8.4822342751654616E-3</v>
+      </c>
+      <c r="F46" s="19">
+        <f t="shared" si="3"/>
+        <v>194.02742040117178</v>
+      </c>
+      <c r="G46" s="19">
+        <f t="shared" si="4"/>
+        <v>194.02742040117178</v>
+      </c>
+      <c r="H46" s="19">
+        <f t="shared" si="5"/>
+        <v>194.02742040117178</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47" s="16">
+        <f t="shared" si="6"/>
+        <v>0.25689052376215399</v>
+      </c>
+      <c r="C47" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D47" s="17">
+        <f t="shared" si="1"/>
+        <v>72.794278139659454</v>
+      </c>
+      <c r="E47" s="18">
+        <f t="shared" si="2"/>
+        <v>8.9911683316753893E-3</v>
+      </c>
+      <c r="F47" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G47" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H47" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B48" s="16">
+        <f t="shared" si="6"/>
+        <v>0.27230395518788325</v>
+      </c>
+      <c r="C48" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D48" s="17">
+        <f t="shared" si="1"/>
+        <v>73.375350814863637</v>
+      </c>
+      <c r="E48" s="18">
+        <f t="shared" si="2"/>
+        <v>9.5306384315759149E-3</v>
+      </c>
+      <c r="F48" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G48" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H48" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="16">
+        <f t="shared" si="6"/>
+        <v>0.28864219249915624</v>
+      </c>
+      <c r="C49" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D49" s="17">
+        <f t="shared" si="1"/>
+        <v>73.991287850580051</v>
+      </c>
+      <c r="E49" s="18">
+        <f t="shared" si="2"/>
+        <v>1.0102476737470467E-2</v>
+      </c>
+      <c r="F49" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G49" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H49" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="16">
+        <f t="shared" si="6"/>
+        <v>0.30596072404910563</v>
+      </c>
+      <c r="C50" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D50" s="17">
+        <f t="shared" si="1"/>
+        <v>74.644181108439469</v>
+      </c>
+      <c r="E50" s="18">
+        <f t="shared" si="2"/>
+        <v>1.0708625341718698E-2</v>
+      </c>
+      <c r="F50" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G50" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H50" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="16">
+        <f t="shared" si="6"/>
+        <v>0.32431836749205201</v>
+      </c>
+      <c r="C51" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D51" s="17">
+        <f t="shared" si="1"/>
+        <v>75.336247961770439</v>
+      </c>
+      <c r="E51" s="18">
+        <f t="shared" si="2"/>
+        <v>1.135114286222182E-2</v>
+      </c>
+      <c r="F51" s="19">
+        <f t="shared" si="3"/>
+        <v>114.15444952728055</v>
+      </c>
+      <c r="G51" s="19">
+        <f t="shared" si="4"/>
+        <v>114.15444952728055</v>
+      </c>
+      <c r="H51" s="19">
+        <f t="shared" si="5"/>
+        <v>114.15444952728055</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="16">
+        <f t="shared" si="6"/>
+        <v>0.34377746954157512</v>
+      </c>
+      <c r="C52" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D52" s="17">
+        <f t="shared" si="1"/>
+        <v>52.869875005304515</v>
+      </c>
+      <c r="E52" s="18">
+        <f t="shared" si="2"/>
+        <v>1.203221143395513E-2</v>
+      </c>
+      <c r="F52" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G52" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H52" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="16">
+        <f t="shared" si="6"/>
+        <v>0.36440411771406966</v>
+      </c>
+      <c r="C53" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D53" s="17">
+        <f t="shared" si="1"/>
+        <v>53.258678163505849</v>
+      </c>
+      <c r="E53" s="18">
+        <f t="shared" si="2"/>
+        <v>1.2754144119992438E-2</v>
+      </c>
+      <c r="F53" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G53" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H53" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="16">
+        <f t="shared" si="6"/>
+        <v>0.38626836477691384</v>
+      </c>
+      <c r="C54" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D54" s="17">
+        <f t="shared" si="1"/>
+        <v>53.670809511199266</v>
+      </c>
+      <c r="E54" s="18">
+        <f t="shared" si="2"/>
+        <v>1.3519392767191985E-2</v>
+      </c>
+      <c r="F54" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G54" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H54" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="16">
+        <f t="shared" si="6"/>
+        <v>0.40944446666352868</v>
+      </c>
+      <c r="C55" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D55" s="17">
+        <f t="shared" si="1"/>
+        <v>54.107668739754295</v>
+      </c>
+      <c r="E55" s="18">
+        <f t="shared" si="2"/>
+        <v>1.4330556333223504E-2</v>
+      </c>
+      <c r="F55" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G55" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H55" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="16">
+        <f t="shared" si="6"/>
+        <v>0.4340111346633404</v>
+      </c>
+      <c r="C56" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D56" s="17">
+        <f t="shared" si="1"/>
+        <v>54.57073952202262</v>
+      </c>
+      <c r="E56" s="18">
+        <f t="shared" si="2"/>
+        <v>1.5190389713216915E-2</v>
+      </c>
+      <c r="F56" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G56" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H56" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="16">
+        <f t="shared" si="6"/>
+        <v>0.46005180274314084</v>
+      </c>
+      <c r="C57" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D57" s="17">
+        <f t="shared" si="1"/>
+        <v>55.061594551227053</v>
+      </c>
+      <c r="E57" s="18">
+        <f t="shared" si="2"/>
+        <v>1.6101813096009932E-2</v>
+      </c>
+      <c r="F57" s="19">
+        <f t="shared" si="3"/>
+        <v>58.816943199756111</v>
+      </c>
+      <c r="G57" s="19">
+        <f t="shared" si="4"/>
+        <v>58.816943199756111</v>
+      </c>
+      <c r="H57" s="19">
+        <f t="shared" si="5"/>
+        <v>58.816943199756111</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="16">
+        <f t="shared" si="6"/>
+        <v>0.48765491090772933</v>
+      </c>
+      <c r="C58" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D58" s="17">
+        <f t="shared" si="1"/>
+        <v>33.362255886215124</v>
+      </c>
+      <c r="E58" s="18">
+        <f t="shared" si="2"/>
+        <v>1.7067921881770528E-2</v>
+      </c>
+      <c r="F58" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G58" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H58" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="16">
+        <f t="shared" si="6"/>
+        <v>0.51691420556219314</v>
+      </c>
+      <c r="C59" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D59" s="17">
+        <f t="shared" si="1"/>
+        <v>33.546097456486493</v>
+      </c>
+      <c r="E59" s="18">
+        <f t="shared" si="2"/>
+        <v>1.8091997194676759E-2</v>
+      </c>
+      <c r="F59" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G59" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H59" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="16">
+        <f t="shared" si="6"/>
+        <v>0.54792905789592472</v>
+      </c>
+      <c r="C60" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D60" s="17">
+        <f t="shared" si="1"/>
+        <v>33.740969520974133</v>
+      </c>
+      <c r="E60" s="18">
+        <f t="shared" si="2"/>
+        <v>1.9177517026357366E-2</v>
+      </c>
+      <c r="F60" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G60" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H60" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="16">
+        <f t="shared" si="6"/>
+        <v>0.58080480136968027</v>
+      </c>
+      <c r="C61" s="17">
+        <f t="shared" ref="C61:C77" si="7">FLOOR(($C$8-2*$C$13+$C$14)/(B61+$C$14),1)</f>
+        <v>2</v>
+      </c>
+      <c r="D61" s="17">
+        <f t="shared" ref="D61:D77" si="8">C61*(2*$C$5+2*$C$8+2*PI()*($C$13+(C61-1)*B61/2+(C61-1)*$C$14/2))</f>
+        <v>33.947533909331042</v>
+      </c>
+      <c r="E61" s="18">
+        <f t="shared" si="2"/>
+        <v>2.032816804793881E-2</v>
+      </c>
+      <c r="F61" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G61" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H61" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="16">
+        <f t="shared" si="6"/>
+        <v>0.61565308945186115</v>
+      </c>
+      <c r="C62" s="17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D62" s="17">
+        <f t="shared" si="8"/>
+        <v>34.166492160989364</v>
+      </c>
+      <c r="E62" s="18">
+        <f t="shared" si="2"/>
+        <v>2.154785813081514E-2</v>
+      </c>
+      <c r="F62" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G62" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H62" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="16">
+        <f t="shared" si="6"/>
+        <v>0.65259227481897286</v>
+      </c>
+      <c r="C63" s="17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D63" s="17">
+        <f t="shared" si="8"/>
+        <v>34.398587907747185</v>
+      </c>
+      <c r="E63" s="18">
+        <f t="shared" si="2"/>
+        <v>2.2840729618664048E-2</v>
+      </c>
+      <c r="F63" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G63" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H63" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="16">
+        <f t="shared" si="6"/>
+        <v>0.69174781130811125</v>
+      </c>
+      <c r="C64" s="17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D64" s="17">
+        <f t="shared" si="8"/>
+        <v>34.644609399310468</v>
+      </c>
+      <c r="E64" s="18">
+        <f t="shared" si="2"/>
+        <v>2.4211173395783894E-2</v>
+      </c>
+      <c r="F64" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G64" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H64" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="16">
+        <f t="shared" si="6"/>
+        <v>0.73325267998659793</v>
+      </c>
+      <c r="C65" s="17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D65" s="17">
+        <f t="shared" si="8"/>
+        <v>34.905392180367556</v>
+      </c>
+      <c r="E65" s="18">
+        <f t="shared" si="2"/>
+        <v>2.5663843799530926E-2</v>
+      </c>
+      <c r="F65" s="19">
+        <f t="shared" si="3"/>
+        <v>23.393718812818495</v>
+      </c>
+      <c r="G65" s="19">
+        <f t="shared" si="4"/>
+        <v>23.393718812818495</v>
+      </c>
+      <c r="H65" s="19">
+        <f t="shared" si="5"/>
+        <v>23.393718812818495</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="16">
+        <f t="shared" si="6"/>
+        <v>0.7772478407857939</v>
+      </c>
+      <c r="C66" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="17">
+        <f t="shared" si="8"/>
+        <v>14.834955592153875</v>
+      </c>
+      <c r="E66" s="18">
+        <f t="shared" si="2"/>
+        <v>2.7203674427502787E-2</v>
+      </c>
+      <c r="F66" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G66" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H66" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="16">
+        <f t="shared" si="6"/>
+        <v>0.82388271123294154</v>
+      </c>
+      <c r="C67" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D67" s="17">
+        <f t="shared" si="8"/>
+        <v>14.834955592153875</v>
+      </c>
+      <c r="E67" s="18">
+        <f t="shared" si="2"/>
+        <v>2.8835894893152955E-2</v>
+      </c>
+      <c r="F67" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G67" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H67" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="16">
+        <f t="shared" si="6"/>
+        <v>0.87331567390691811</v>
+      </c>
+      <c r="C68" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="17">
+        <f t="shared" si="8"/>
+        <v>14.834955592153875</v>
+      </c>
+      <c r="E68" s="18">
+        <f t="shared" si="2"/>
+        <v>3.0566048586742136E-2</v>
+      </c>
+      <c r="F68" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G68" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H68" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="16">
+        <f t="shared" si="6"/>
+        <v>0.92571461434133329</v>
+      </c>
+      <c r="C69" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D69" s="17">
+        <f t="shared" si="8"/>
+        <v>14.834955592153875</v>
+      </c>
+      <c r="E69" s="18">
+        <f t="shared" si="2"/>
+        <v>3.2400011501946664E-2</v>
+      </c>
+      <c r="F69" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G69" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H69" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="16">
+        <f t="shared" si="6"/>
+        <v>0.98125749120181338</v>
+      </c>
+      <c r="C70" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="17">
+        <f t="shared" si="8"/>
+        <v>14.834955592153875</v>
+      </c>
+      <c r="E70" s="18">
+        <f t="shared" si="2"/>
+        <v>3.4344012192063469E-2</v>
+      </c>
+      <c r="F70" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G70" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H70" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="16">
+        <f t="shared" si="6"/>
+        <v>1.0401329406739221</v>
+      </c>
+      <c r="C71" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="17">
+        <f t="shared" si="8"/>
+        <v>14.834955592153875</v>
+      </c>
+      <c r="E71" s="18">
+        <f t="shared" si="2"/>
+        <v>3.6404652923587279E-2</v>
+      </c>
+      <c r="F71" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G71" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H71" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="16">
+        <f t="shared" si="6"/>
+        <v>1.1025409171143574</v>
+      </c>
+      <c r="C72" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D72" s="17">
+        <f t="shared" si="8"/>
+        <v>14.834955592153875</v>
+      </c>
+      <c r="E72" s="18">
+        <f t="shared" si="2"/>
+        <v>3.8588932099002514E-2</v>
+      </c>
+      <c r="F72" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G72" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H72" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="16">
+        <f t="shared" si="6"/>
+        <v>1.1686933721412189</v>
+      </c>
+      <c r="C73" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D73" s="17">
+        <f t="shared" si="8"/>
+        <v>14.834955592153875</v>
+      </c>
+      <c r="E73" s="18">
+        <f t="shared" si="2"/>
+        <v>4.090426802494266E-2</v>
+      </c>
+      <c r="F73" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G73" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H73" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="16">
+        <f t="shared" si="6"/>
+        <v>1.2388149744696921</v>
+      </c>
+      <c r="C74" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D74" s="17">
+        <f t="shared" si="8"/>
+        <v>14.834955592153875</v>
+      </c>
+      <c r="E74" s="18">
+        <f t="shared" si="2"/>
+        <v>4.3358524106439228E-2</v>
+      </c>
+      <c r="F74" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G74" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H74" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="16">
+        <f t="shared" si="6"/>
+        <v>1.3131438729378737</v>
+      </c>
+      <c r="C75" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D75" s="17">
+        <f t="shared" si="8"/>
+        <v>14.834955592153875</v>
+      </c>
+      <c r="E75" s="18">
+        <f t="shared" si="2"/>
+        <v>4.596003555282558E-2</v>
+      </c>
+      <c r="F75" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G75" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H75" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="16">
+        <f t="shared" si="6"/>
+        <v>1.3919325053141463</v>
+      </c>
+      <c r="C76" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D76" s="17">
+        <f t="shared" si="8"/>
+        <v>14.834955592153875</v>
+      </c>
+      <c r="E76" s="18">
+        <f t="shared" si="2"/>
+        <v>4.8717637685995123E-2</v>
+      </c>
+      <c r="F76" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G76" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H76" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="16">
+        <f t="shared" si="6"/>
+        <v>1.4754484556329952</v>
+      </c>
+      <c r="C77" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D77" s="17">
+        <f t="shared" si="8"/>
+        <v>14.834955592153875</v>
+      </c>
+      <c r="E77" s="18">
+        <f t="shared" si="2"/>
+        <v>5.1640695947154834E-2</v>
+      </c>
+      <c r="F77" s="19">
+        <f t="shared" si="3"/>
+        <v>4.9410882542357539</v>
+      </c>
+      <c r="G77" s="19">
+        <f t="shared" si="4"/>
+        <v>4.9410882542357539</v>
+      </c>
+      <c r="H77" s="19">
+        <f t="shared" si="5"/>
+        <v>4.9410882542357539</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="2"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="2"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="2"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="2"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="2"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="2"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="2"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="2"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="2"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="2"/>
+      <c r="F85" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L16:L18">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{61A78E00-61BC-4EDD-8EF7-D2A8F1F77136}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24 L22 L26">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A6A1AA3C-B572-4E78-9066-CE693C3AACBB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{DEA684B4-A709-4DEE-854A-F886421C4AE9}">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C17" xr:uid="{EA1A754D-D7F1-400B-8033-8B0DBC2071FB}">
+      <formula1>"17.5,35"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{5BEAA912-8E34-4BFE-B27B-FFAA41086E22}"/>
+    <hyperlink ref="D1" r:id="rId2" xr:uid="{65FB2287-BBA3-4198-A81C-5F29528C02A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{61A78E00-61BC-4EDD-8EF7-D2A8F1F77136}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L16:L18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A6A1AA3C-B572-4E78-9066-CE693C3AACBB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L24 L22 L26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8320913B-5A34-4E38-B8CF-B4F0667F46BF}">
+  <dimension ref="B2:L59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="21.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="4">
+        <v>177.3</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="4">
+        <v>161.9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="4">
+        <v>204.6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="4">
+        <v>170.7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="4">
+        <v>725.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4">
+        <f>SUM(C13:F13)</f>
+        <v>12</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="J13" s="4">
+        <v>250.3</v>
+      </c>
+      <c r="K13" s="4">
+        <v>613</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4">
+        <v>6</v>
+      </c>
+      <c r="E17" s="4">
+        <v>6</v>
+      </c>
+      <c r="F17" s="4">
+        <v>6</v>
+      </c>
+      <c r="G17" s="4">
+        <v>12</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="J17" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="K17" s="4">
+        <f>2.55/2*1000</f>
+        <v>1275</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H27" s="4">
+        <v>7.85</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>13.12</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="4">
+        <f>12*1.67</f>
+        <v>20.04</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>21.33</v>
+      </c>
+      <c r="E29" s="4">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>19.63</v>
+      </c>
+      <c r="E30" s="4">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>11.57</v>
+      </c>
+      <c r="E31" s="4">
+        <v>17.64</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="E32" s="4">
+        <v>16.48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>19.63</v>
+      </c>
+      <c r="E33" s="4">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>21.33</v>
+      </c>
+      <c r="E34" s="4">
+        <v>30.65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>25.06</v>
+      </c>
+      <c r="E35" s="4">
+        <f>E28</f>
+        <v>20.04</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <v>21.33</v>
+      </c>
+      <c r="E36" s="4">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
+        <v>19.63</v>
+      </c>
+      <c r="E37" s="4">
+        <f>12*1.67</f>
+        <v>20.04</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="4">
+        <v>9.32</v>
+      </c>
+      <c r="E38" s="4">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="4">
+        <v>10.25</v>
+      </c>
+      <c r="E39" s="4">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="4">
+        <v>19.63</v>
+      </c>
+      <c r="E40" s="4">
+        <v>17.64</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="4">
+        <v>21.33</v>
+      </c>
+      <c r="E41" s="4">
+        <v>16.48</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E42" s="4">
+        <v>15.32</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="4">
+        <f>SUM(B28:B42)</f>
+        <v>250.26</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" s="4">
+        <f>SUM(E27:E42)</f>
+        <v>282.37</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="4">
+        <v>2.71</v>
+      </c>
+      <c r="C47" s="4">
+        <v>242</v>
+      </c>
+      <c r="D47" s="4">
+        <f>2*PI()*B47*C47/360</f>
+        <v>11.446218300429212</v>
+      </c>
+      <c r="E47" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="F47" s="4">
+        <v>242</v>
+      </c>
+      <c r="G47" s="4">
+        <f>2*PI()*E47*F47/360</f>
+        <v>10.643715910362218</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="4">
+        <v>3.26</v>
+      </c>
+      <c r="C48" s="4">
+        <v>236</v>
+      </c>
+      <c r="D48" s="4">
+        <f>2*PI()*B48*C48/360</f>
+        <v>13.427865133143571</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="F48" s="4">
+        <v>239</v>
+      </c>
+      <c r="G48" s="4">
+        <f>2*PI()*E48*F48/360</f>
+        <v>11.679743354346053</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="C49" s="4">
+        <v>231</v>
+      </c>
+      <c r="D49" s="4">
+        <f>2*PI()*B49*C49/360</f>
+        <v>15.320500174006224</v>
+      </c>
+      <c r="E49" s="4">
+        <v>3.08</v>
+      </c>
+      <c r="F49" s="4">
+        <v>236</v>
+      </c>
+      <c r="G49" s="4">
+        <f>2*PI()*E49*F49/360</f>
+        <v>12.686449266896382</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D50" s="4">
+        <f>D49+D48+D47</f>
+        <v>40.194583607579006</v>
+      </c>
+      <c r="E50" s="4">
+        <v>3.35</v>
+      </c>
+      <c r="F50" s="4">
+        <v>233</v>
+      </c>
+      <c r="G50" s="4">
+        <f>2*PI()*E50*F50/360</f>
+        <v>13.62316747644174</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" s="4">
+        <f>D50*4</f>
+        <v>160.77833443031602</v>
+      </c>
+      <c r="E51" s="4">
+        <v>3.64</v>
+      </c>
+      <c r="F51" s="4">
+        <v>231</v>
+      </c>
+      <c r="G51" s="4">
+        <f>2*PI()*E51*F51/360</f>
+        <v>14.675426482469122</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3.91</v>
+      </c>
+      <c r="F52" s="4">
+        <v>229</v>
+      </c>
+      <c r="G52" s="4">
+        <f>2*PI()*E52*F52/360</f>
+        <v>15.627503589432028</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="4">
+        <f>D51+B43</f>
+        <v>411.03833443031601</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G53" s="4">
+        <f>SUM(G47:G52)</f>
+        <v>78.936006079947532</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G54" s="4">
+        <f>G53*4</f>
+        <v>315.74402431979013</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="4">
+        <f>G54+E43</f>
+        <v>598.11402431979013</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>